--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_6_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_6_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>197387.4874726511</v>
+        <v>227800.2972511826</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1473213.903562849</v>
+        <v>1667509.738039591</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24269686.19228256</v>
+        <v>24051924.57666196</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5110909.770401306</v>
+        <v>5180105.508208515</v>
       </c>
     </row>
     <row r="11">
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>5.877000739367297</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2381,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>5.877000739367299</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2445,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2609,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>5.877000739367299</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>5.877000739367299</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2843,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>5.877000739367297</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2919,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>5.877000739367297</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3071,19 +3073,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>5.877000739367299</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3111,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>5.877000739367299</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3150,16 +3152,16 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3284,10 +3286,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3320,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>5.877000739367299</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3390,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>5.877000739367297</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3518,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.877000739367299</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3624,16 +3626,16 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>5.877000739367299</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>5.877000739367297</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>5.877000739367299</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3879,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
     </row>
     <row r="43">
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>5.877000739367299</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4034,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
     </row>
     <row r="45">
@@ -4098,19 +4100,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>5.877000739367297</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>6.872514488588006</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>13.47813521062891</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>20.08375593266981</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>20.08375593266981</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>20.75301227151142</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>14.01327069203902</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>14.01327069203902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>14.01327069203902</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>14.01327069203902</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>13.20989349576591</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>6.872514488588006</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>13.47813521062891</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>20.08375593266981</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>19.94963507523831</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>19.94963507523831</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>13.20989349576591</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>13.20989349576591</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>13.20989349576591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>13.20989349576591</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>13.20989349576591</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>7.139408255135116</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>13.74502897717602</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>20.35064969921692</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>19.94963507523831</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>14.01327069203902</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>7.139408255135116</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>13.47813521062891</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>20.08375593266981</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>19.94963507523831</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>13.20989349576591</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>6.872514488588006</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>13.47813521062891</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>20.08375593266981</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>20.75301227151142</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>20.75301227151142</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>20.75301227151142</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>14.01327069203902</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>7.139408255135116</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>13.47813521062891</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>20.08375593266981</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>20.75301227151142</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>20.75301227151142</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>14.01327069203902</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>6.872514488588006</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>13.47813521062891</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>20.08375593266981</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>19.94963507523831</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>13.20989349576591</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>13.20989349576591</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>6.470151916293506</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>6.470151916293506</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>6.470151916293506</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>6.872514488588006</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>13.47813521062891</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>20.08375593266981</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>19.94963507523831</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>19.94963507523831</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>13.20989349576591</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>6.470151916293506</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>6.470151916293506</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>6.470151916293506</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>6.470151916293506</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>6.470151916293506</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>6.470151916293506</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>14.01327069203902</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>14.01327069203902</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>14.01327069203902</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>14.01327069203902</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>14.01327069203902</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>14.01327069203902</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>14.01327069203902</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>6.872514488588006</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>6.872514488588006</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>13.47813521062891</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>20.08375593266981</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>19.94963507523831</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>14.01327069203902</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>14.01327069203902</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>14.01327069203902</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>14.01327069203902</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>7.139408255135116</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>13.74502897717602</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>20.35064969921692</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>20.75301227151142</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>14.01327069203902</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>13.20989349576591</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>13.20989349576591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>13.20989349576591</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>13.20989349576591</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>13.20989349576591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>13.20989349576591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>7.139408255135116</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>13.47813521062891</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>20.08375593266981</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>20.08375593266981</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>19.94963507523831</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>19.94963507523831</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>13.20989349576591</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>13.20989349576591</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>13.20989349576591</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>6.872514488588006</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>13.47813521062891</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>20.08375593266981</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>19.94963507523831</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>19.94963507523831</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>13.20989349576591</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>6.470151916293506</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>6.470151916293506</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>6.470151916293506</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>6.872514488588006</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>13.47813521062891</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>20.08375593266981</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>20.75301227151142</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>14.01327069203902</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>6.470151916293506</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>7.139408255135116</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>13.74502897717602</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>20.08375593266981</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>19.94963507523831</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>19.94963507523831</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>13.20989349576591</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>6.470151916293506</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>6.811781384592871</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>13.41740210663377</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>13.47813521062891</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>20.08375593266981</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>20.08375593266981</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>19.94963507523831</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>19.94963507523831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>19.94963507523831</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>13.20989349576591</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>7.139408255135116</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>13.74502897717602</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>20.35064969921692</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>26.68937665471071</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>20.75301227151142</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>20.75301227151142</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>14.01327069203902</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>7.273529112566617</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>0.5337875330942142</v>
       </c>
     </row>
   </sheetData>
@@ -7985,10 +7987,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M2" t="n">
-        <v>94.50134181136147</v>
+        <v>116.8735187081365</v>
       </c>
       <c r="N2" t="n">
-        <v>89.2146190330682</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O2" t="n">
         <v>99.00804712831379</v>
@@ -8061,19 +8063,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L3" t="n">
-        <v>42.27423123832551</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M3" t="n">
-        <v>20.73666047215158</v>
+        <v>38.00954882322065</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>17.73005030863848</v>
       </c>
       <c r="O3" t="n">
-        <v>32.82469745261383</v>
+        <v>49.04422963853116</v>
       </c>
       <c r="P3" t="n">
-        <v>54.90492507792075</v>
+        <v>67.92252959633595</v>
       </c>
       <c r="Q3" t="n">
         <v>54.62009481132077</v>
@@ -8222,10 +8224,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>89.35872216232903</v>
+        <v>116.8735187081364</v>
       </c>
       <c r="N5" t="n">
-        <v>83.98878642167108</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O5" t="n">
         <v>99.00804712831379</v>
@@ -8298,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>38.8718120156598</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M6" t="n">
-        <v>16.76619772104769</v>
+        <v>38.00954882322065</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>17.73005030863848</v>
       </c>
       <c r="O6" t="n">
-        <v>29.09636626239171</v>
+        <v>49.04422963853116</v>
       </c>
       <c r="P6" t="n">
-        <v>51.91261060228356</v>
+        <v>67.92252959633595</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8459,13 +8461,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>89.358722162329</v>
+        <v>89.35872216232906</v>
       </c>
       <c r="N8" t="n">
-        <v>83.98878642167105</v>
+        <v>83.98878642167111</v>
       </c>
       <c r="O8" t="n">
-        <v>99.00804712831376</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P8" t="n">
         <v>83.66766412458549</v>
@@ -8535,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>38.8718120156598</v>
+        <v>38.87181201565983</v>
       </c>
       <c r="M9" t="n">
-        <v>16.76619772104769</v>
+        <v>16.76619772104772</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>29.09636626239168</v>
+        <v>29.09636626239171</v>
       </c>
       <c r="P9" t="n">
-        <v>51.91261060228354</v>
+        <v>51.91261060228356</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8693,19 +8695,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>69.5519447733833</v>
+        <v>50.04010588902617</v>
       </c>
       <c r="M11" t="n">
-        <v>30.60554356118956</v>
+        <v>8.894863273479075</v>
       </c>
       <c r="N11" t="n">
-        <v>24.28491996620807</v>
+        <v>2.222938173624982</v>
       </c>
       <c r="O11" t="n">
-        <v>42.63137903675033</v>
+        <v>21.79887523416346</v>
       </c>
       <c r="P11" t="n">
-        <v>83.66766412458549</v>
+        <v>69.5722233101028</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8769,7 +8771,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>50.89233633476204</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>17.72614556768511</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8930,19 +8932,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>69.5519447733833</v>
+        <v>50.04010588902617</v>
       </c>
       <c r="M14" t="n">
-        <v>30.60554356118956</v>
+        <v>8.894863273479132</v>
       </c>
       <c r="N14" t="n">
-        <v>24.28491996620807</v>
+        <v>2.222938173625039</v>
       </c>
       <c r="O14" t="n">
-        <v>42.63137903675033</v>
+        <v>21.79887523416352</v>
       </c>
       <c r="P14" t="n">
-        <v>83.66766412458549</v>
+        <v>69.57222331010286</v>
       </c>
       <c r="Q14" t="n">
         <v>55.20189757157522</v>
@@ -9006,7 +9008,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>50.89233633476204</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>17.72614556768511</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9167,19 +9169,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L17" t="n">
-        <v>69.5519447733833</v>
+        <v>50.04010588902617</v>
       </c>
       <c r="M17" t="n">
-        <v>30.60554356118956</v>
+        <v>8.894863273479132</v>
       </c>
       <c r="N17" t="n">
-        <v>24.28491996620807</v>
+        <v>2.222938173625039</v>
       </c>
       <c r="O17" t="n">
-        <v>42.63137903675033</v>
+        <v>21.79887523416352</v>
       </c>
       <c r="P17" t="n">
-        <v>83.66766412458549</v>
+        <v>69.57222331010286</v>
       </c>
       <c r="Q17" t="n">
         <v>55.20189757157522</v>
@@ -9243,7 +9245,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>50.89233633476204</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>17.72614556768511</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9404,19 +9406,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L20" t="n">
-        <v>69.5519447733833</v>
+        <v>50.04010588902622</v>
       </c>
       <c r="M20" t="n">
-        <v>30.60554356118956</v>
+        <v>8.894863273479075</v>
       </c>
       <c r="N20" t="n">
-        <v>24.28491996620807</v>
+        <v>2.222938173625039</v>
       </c>
       <c r="O20" t="n">
-        <v>42.63137903675033</v>
+        <v>21.79887523416352</v>
       </c>
       <c r="P20" t="n">
-        <v>83.66766412458549</v>
+        <v>69.57222331010286</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9480,7 +9482,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>50.89233633476204</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>17.72614556768511</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9641,19 +9643,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L23" t="n">
-        <v>69.5519447733833</v>
+        <v>56.442860389525</v>
       </c>
       <c r="M23" t="n">
-        <v>30.60554356118956</v>
+        <v>15.56720743715675</v>
       </c>
       <c r="N23" t="n">
-        <v>24.28491996620807</v>
+        <v>8.895282337302717</v>
       </c>
       <c r="O23" t="n">
-        <v>42.63137903675033</v>
+        <v>21.79887523416352</v>
       </c>
       <c r="P23" t="n">
-        <v>83.66766412458549</v>
+        <v>76.24456747378053</v>
       </c>
       <c r="Q23" t="n">
         <v>55.20189757157522</v>
@@ -9717,7 +9719,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>50.89233633476204</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>17.72614556768511</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9878,19 +9880,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L26" t="n">
-        <v>69.5519447733833</v>
+        <v>56.7124500527039</v>
       </c>
       <c r="M26" t="n">
-        <v>30.60554356118956</v>
+        <v>15.56720743715675</v>
       </c>
       <c r="N26" t="n">
-        <v>24.28491996620807</v>
+        <v>8.895282337302717</v>
       </c>
       <c r="O26" t="n">
-        <v>42.63137903675033</v>
+        <v>28.2016297346623</v>
       </c>
       <c r="P26" t="n">
-        <v>83.66766412458549</v>
+        <v>69.57222331010286</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -9954,7 +9956,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>50.89233633476204</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>17.72614556768511</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10115,19 +10117,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L29" t="n">
-        <v>69.5519447733833</v>
+        <v>50.04010588902622</v>
       </c>
       <c r="M29" t="n">
-        <v>30.60554356118956</v>
+        <v>15.29761777397785</v>
       </c>
       <c r="N29" t="n">
-        <v>24.28491996620807</v>
+        <v>8.895282337302717</v>
       </c>
       <c r="O29" t="n">
-        <v>42.63137903675033</v>
+        <v>28.4712193978412</v>
       </c>
       <c r="P29" t="n">
-        <v>83.66766412458549</v>
+        <v>76.24456747378053</v>
       </c>
       <c r="Q29" t="n">
         <v>55.20189757157522</v>
@@ -10191,7 +10193,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>50.89233633476204</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>17.72614556768511</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10352,19 +10354,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L32" t="n">
-        <v>69.5519447733833</v>
+        <v>50.04010588902622</v>
       </c>
       <c r="M32" t="n">
-        <v>30.60554356118956</v>
+        <v>15.29761777397785</v>
       </c>
       <c r="N32" t="n">
-        <v>24.28491996620807</v>
+        <v>8.895282337302717</v>
       </c>
       <c r="O32" t="n">
-        <v>42.63137903675033</v>
+        <v>28.4712193978412</v>
       </c>
       <c r="P32" t="n">
-        <v>83.66766412458549</v>
+        <v>76.24456747378053</v>
       </c>
       <c r="Q32" t="n">
         <v>55.20189757157522</v>
@@ -10428,7 +10430,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>50.89233633476204</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>17.72614556768511</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10589,19 +10591,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L35" t="n">
-        <v>69.5519447733833</v>
+        <v>56.442860389525</v>
       </c>
       <c r="M35" t="n">
-        <v>30.60554356118956</v>
+        <v>8.894863273479075</v>
       </c>
       <c r="N35" t="n">
-        <v>24.28491996620807</v>
+        <v>8.895282337302717</v>
       </c>
       <c r="O35" t="n">
-        <v>42.63137903675033</v>
+        <v>28.4712193978412</v>
       </c>
       <c r="P35" t="n">
-        <v>83.66766412458549</v>
+        <v>76.24456747378053</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10665,7 +10667,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>50.89233633476204</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>17.72614556768511</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10826,19 +10828,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L38" t="n">
-        <v>69.5519447733833</v>
+        <v>56.7124500527039</v>
       </c>
       <c r="M38" t="n">
-        <v>30.60554356118956</v>
+        <v>15.29761777397785</v>
       </c>
       <c r="N38" t="n">
-        <v>24.28491996620807</v>
+        <v>8.895282337302717</v>
       </c>
       <c r="O38" t="n">
-        <v>42.63137903675033</v>
+        <v>21.79887523416352</v>
       </c>
       <c r="P38" t="n">
-        <v>83.66766412458549</v>
+        <v>76.24456747378053</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -10902,7 +10904,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>50.89233633476204</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>17.72614556768511</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11063,19 +11065,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>69.5519447733833</v>
+        <v>50.04010588902622</v>
       </c>
       <c r="M41" t="n">
-        <v>30.60554356118956</v>
+        <v>15.29761777397785</v>
       </c>
       <c r="N41" t="n">
-        <v>24.28491996620807</v>
+        <v>8.895282337302717</v>
       </c>
       <c r="O41" t="n">
-        <v>42.63137903675033</v>
+        <v>28.4712193978412</v>
       </c>
       <c r="P41" t="n">
-        <v>83.66766412458549</v>
+        <v>76.24456747378053</v>
       </c>
       <c r="Q41" t="n">
         <v>55.20189757157522</v>
@@ -11139,7 +11141,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>50.89233633476204</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>17.72614556768511</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11300,19 +11302,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>69.5519447733833</v>
+        <v>48.84537276889125</v>
       </c>
       <c r="M44" t="n">
-        <v>30.60554356118956</v>
+        <v>0.2025705414189005</v>
       </c>
       <c r="N44" t="n">
-        <v>24.28491996620807</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>42.63137903675033</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P44" t="n">
-        <v>83.66766412458549</v>
+        <v>69.07573489447435</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>50.89233633476204</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>17.72614556768511</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22559,22 +22561,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G2" t="n">
-        <v>422.2098565259836</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H2" t="n">
-        <v>349.9597650259403</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I2" t="n">
-        <v>254.413627538865</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J2" t="n">
-        <v>103.6577574092157</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K2" t="n">
-        <v>62.01598937483024</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L2" t="n">
-        <v>18.38450875428637</v>
+        <v>38.49084836766585</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22583,25 +22585,25 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.934605547775959</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P2" t="n">
-        <v>56.01237276874352</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q2" t="n">
-        <v>120.8562777625268</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R2" t="n">
-        <v>211.4982239222711</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S2" t="n">
-        <v>235.9346815086628</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T2" t="n">
-        <v>219.4718503679457</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U2" t="n">
-        <v>248.7911763328777</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -22638,19 +22640,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.0306354769367</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H3" t="n">
-        <v>137.9016867325838</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I3" t="n">
-        <v>117.4902810648562</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J3" t="n">
-        <v>82.93859734111298</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K3" t="n">
-        <v>13.57083277636241</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22668,19 +22670,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.82666100818672</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R3" t="n">
-        <v>155.3651088272201</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S3" t="n">
-        <v>208.3135435403172</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T3" t="n">
-        <v>230.1584524961191</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6505853349712</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -22717,49 +22719,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.247518043053</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H4" t="n">
-        <v>167.6944209426916</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I4" t="n">
-        <v>168.1305865516738</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J4" t="n">
-        <v>133.20905535072</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K4" t="n">
-        <v>88.99056004441432</v>
+        <v>95.63058149505841</v>
       </c>
       <c r="L4" t="n">
-        <v>62.96960703121101</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M4" t="n">
-        <v>59.70650310975206</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N4" t="n">
-        <v>47.31542685419204</v>
+        <v>56.06123914516951</v>
       </c>
       <c r="O4" t="n">
-        <v>72.58297639552539</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P4" t="n">
-        <v>91.43798011889523</v>
+        <v>98.35025284028561</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.7386590351999</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R4" t="n">
-        <v>221.644124959155</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S4" t="n">
-        <v>243.9209403175845</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T4" t="n">
-        <v>218.1427676199599</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2202965310711</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -22796,22 +22798,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>422.180569077725</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H5" t="n">
-        <v>349.6598249464623</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I5" t="n">
-        <v>253.2845231898766</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J5" t="n">
-        <v>101.17202184758</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K5" t="n">
-        <v>58.29051612840928</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L5" t="n">
-        <v>13.76272976322227</v>
+        <v>38.49084836766585</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22820,25 +22822,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P5" t="n">
-        <v>51.80080109985099</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q5" t="n">
-        <v>117.6935628343943</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R5" t="n">
-        <v>209.6584962505987</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S5" t="n">
-        <v>235.2672937814706</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T5" t="n">
-        <v>219.3436445631938</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U5" t="n">
-        <v>248.788833337017</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22875,19 +22877,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.0149653106349</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H6" t="n">
-        <v>137.7503459159327</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I6" t="n">
-        <v>116.9507599882392</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J6" t="n">
-        <v>81.45811026959613</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K6" t="n">
-        <v>11.04044456262879</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22905,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>53.82637802552915</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R6" t="n">
-        <v>154.3921839405207</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S6" t="n">
-        <v>208.0224770741423</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T6" t="n">
-        <v>230.0952907293151</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6495544029776</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22954,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.2343807020206</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H7" t="n">
-        <v>167.5776180378764</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I7" t="n">
-        <v>167.7355108777182</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J7" t="n">
-        <v>132.2802453397308</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K7" t="n">
-        <v>87.46423987719797</v>
+        <v>95.63058149505841</v>
       </c>
       <c r="L7" t="n">
-        <v>61.01644271081538</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M7" t="n">
-        <v>57.6471651877402</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N7" t="n">
-        <v>45.30505538511905</v>
+        <v>56.06123914516951</v>
       </c>
       <c r="O7" t="n">
-        <v>70.7260729557852</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P7" t="n">
-        <v>89.84907843621555</v>
+        <v>98.35025284028561</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.6385858692978</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R7" t="n">
-        <v>221.05342233419</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S7" t="n">
-        <v>243.6919922925021</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T7" t="n">
-        <v>218.0866353446397</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U7" t="n">
-        <v>291.219579948833</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -23045,10 +23047,10 @@
         <v>101.17202184758</v>
       </c>
       <c r="K8" t="n">
-        <v>58.29051612840928</v>
+        <v>58.29051612840931</v>
       </c>
       <c r="L8" t="n">
-        <v>13.76272976322224</v>
+        <v>13.7627297632223</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23060,10 +23062,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>51.80080109985099</v>
+        <v>51.80080109985101</v>
       </c>
       <c r="Q8" t="n">
-        <v>117.6935628343942</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R8" t="n">
         <v>209.6584962505987</v>
@@ -23124,7 +23126,7 @@
         <v>81.45811026959613</v>
       </c>
       <c r="K9" t="n">
-        <v>11.04044456262878</v>
+        <v>11.04044456262881</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23142,7 +23144,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>53.82637802552914</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R9" t="n">
         <v>154.3921839405207</v>
@@ -23203,25 +23205,25 @@
         <v>132.2802453397308</v>
       </c>
       <c r="K10" t="n">
-        <v>87.46423987719797</v>
+        <v>87.46423987719798</v>
       </c>
       <c r="L10" t="n">
-        <v>61.01644271081537</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M10" t="n">
-        <v>57.6471651877402</v>
+        <v>57.64716518774021</v>
       </c>
       <c r="N10" t="n">
-        <v>45.30505538511903</v>
+        <v>45.30505538511906</v>
       </c>
       <c r="O10" t="n">
-        <v>70.72607295578518</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P10" t="n">
-        <v>89.84907843621555</v>
+        <v>89.84907843621556</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.6385858692977</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R10" t="n">
         <v>221.05342233419</v>
@@ -23270,19 +23272,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>421.8459671052398</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H11" t="n">
-        <v>346.2330824957484</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I11" t="n">
-        <v>240.3847806456414</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J11" t="n">
-        <v>72.77309768536537</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K11" t="n">
-        <v>15.72789047089677</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -23297,22 +23299,22 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>3.684619204015576</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>81.5603140781846</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R11" t="n">
-        <v>188.6400550964761</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S11" t="n">
-        <v>227.6425513334645</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8789244286399</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7620651792182</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23349,16 +23351,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.8359374722434</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H12" t="n">
-        <v>136.0213138977834</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I12" t="n">
-        <v>110.7868629208131</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J12" t="n">
-        <v>64.5439055906884</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>30.97363149681966</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R12" t="n">
-        <v>143.2767537638985</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S12" t="n">
-        <v>204.6971134970022</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T12" t="n">
-        <v>229.3736829070266</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U12" t="n">
-        <v>249.637776255715</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23428,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.0842897762481</v>
+        <v>169.028827651796</v>
       </c>
       <c r="H13" t="n">
-        <v>166.2431732614622</v>
+        <v>165.7500645549697</v>
       </c>
       <c r="I13" t="n">
-        <v>163.221867400849</v>
+        <v>161.5539700582341</v>
       </c>
       <c r="J13" t="n">
-        <v>121.6688168876111</v>
+        <v>117.7476446888457</v>
       </c>
       <c r="K13" t="n">
-        <v>70.02640322835012</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L13" t="n">
-        <v>38.70201543732101</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M13" t="n">
-        <v>34.11973034141128</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N13" t="n">
-        <v>22.33705035303328</v>
+        <v>13.84983270846368</v>
       </c>
       <c r="O13" t="n">
-        <v>49.51140282931519</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P13" t="n">
-        <v>71.69626319550571</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q13" t="n">
-        <v>139.0705175302886</v>
+        <v>134.42632090912</v>
       </c>
       <c r="R13" t="n">
-        <v>214.3047885262713</v>
+        <v>211.8110097304511</v>
       </c>
       <c r="S13" t="n">
-        <v>241.0763167951749</v>
+        <v>240.1097632263137</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4453377527024</v>
+        <v>217.2083632209524</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2113931710636</v>
+        <v>291.2083679642753</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23507,19 +23509,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>421.8459671052398</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H14" t="n">
-        <v>346.2330824957484</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I14" t="n">
-        <v>240.3847806456414</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J14" t="n">
-        <v>72.77309768536537</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K14" t="n">
-        <v>15.72789047089677</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23534,22 +23536,22 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>3.684619204015576</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>81.5603140781846</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R14" t="n">
-        <v>188.6400550964761</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S14" t="n">
-        <v>227.6425513334645</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8789244286399</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7620651792182</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23586,16 +23588,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.8359374722434</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H15" t="n">
-        <v>136.0213138977834</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I15" t="n">
-        <v>110.7868629208131</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J15" t="n">
-        <v>64.5439055906884</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>30.97363149681966</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R15" t="n">
-        <v>143.2767537638985</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S15" t="n">
-        <v>204.6971134970022</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T15" t="n">
-        <v>229.3736829070266</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U15" t="n">
-        <v>249.637776255715</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23665,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.0842897762481</v>
+        <v>169.028827651796</v>
       </c>
       <c r="H16" t="n">
-        <v>166.2431732614622</v>
+        <v>165.7500645549697</v>
       </c>
       <c r="I16" t="n">
-        <v>163.221867400849</v>
+        <v>161.5539700582341</v>
       </c>
       <c r="J16" t="n">
-        <v>121.6688168876111</v>
+        <v>117.7476446888457</v>
       </c>
       <c r="K16" t="n">
-        <v>70.02640322835012</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L16" t="n">
-        <v>38.70201543732101</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M16" t="n">
-        <v>34.11973034141128</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N16" t="n">
-        <v>22.33705035303328</v>
+        <v>13.84983270846368</v>
       </c>
       <c r="O16" t="n">
-        <v>49.51140282931519</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P16" t="n">
-        <v>71.69626319550571</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q16" t="n">
-        <v>139.0705175302886</v>
+        <v>134.42632090912</v>
       </c>
       <c r="R16" t="n">
-        <v>214.3047885262713</v>
+        <v>211.8110097304511</v>
       </c>
       <c r="S16" t="n">
-        <v>241.0763167951749</v>
+        <v>240.1097632263137</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4453377527024</v>
+        <v>217.2083632209524</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2113931710636</v>
+        <v>291.2083679642753</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23744,19 +23746,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>421.8459671052398</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H17" t="n">
-        <v>346.2330824957484</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I17" t="n">
-        <v>240.3847806456414</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J17" t="n">
-        <v>72.77309768536537</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K17" t="n">
-        <v>15.72789047089677</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -23771,22 +23773,22 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>3.684619204015576</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>81.5603140781846</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R17" t="n">
-        <v>188.6400550964761</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S17" t="n">
-        <v>227.6425513334645</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8789244286399</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7620651792182</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23823,16 +23825,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.8359374722434</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H18" t="n">
-        <v>136.0213138977834</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I18" t="n">
-        <v>110.7868629208131</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J18" t="n">
-        <v>64.5439055906884</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>30.97363149681966</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R18" t="n">
-        <v>143.2767537638985</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S18" t="n">
-        <v>204.6971134970022</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T18" t="n">
-        <v>229.3736829070266</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U18" t="n">
-        <v>249.637776255715</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23902,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.0842897762481</v>
+        <v>169.028827651796</v>
       </c>
       <c r="H19" t="n">
-        <v>166.2431732614622</v>
+        <v>165.7500645549697</v>
       </c>
       <c r="I19" t="n">
-        <v>163.221867400849</v>
+        <v>161.5539700582341</v>
       </c>
       <c r="J19" t="n">
-        <v>121.6688168876111</v>
+        <v>117.7476446888457</v>
       </c>
       <c r="K19" t="n">
-        <v>70.02640322835012</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L19" t="n">
-        <v>38.70201543732101</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M19" t="n">
-        <v>34.11973034141128</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N19" t="n">
-        <v>22.33705035303328</v>
+        <v>13.84983270846368</v>
       </c>
       <c r="O19" t="n">
-        <v>49.51140282931519</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P19" t="n">
-        <v>71.69626319550571</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q19" t="n">
-        <v>139.0705175302886</v>
+        <v>134.42632090912</v>
       </c>
       <c r="R19" t="n">
-        <v>214.3047885262713</v>
+        <v>211.8110097304511</v>
       </c>
       <c r="S19" t="n">
-        <v>241.0763167951749</v>
+        <v>240.1097632263137</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4453377527024</v>
+        <v>217.2083632209524</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2113931710636</v>
+        <v>291.2083679642753</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23981,19 +23983,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.8459671052398</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H20" t="n">
-        <v>346.2330824957484</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I20" t="n">
-        <v>240.3847806456414</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J20" t="n">
-        <v>72.77309768536537</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K20" t="n">
-        <v>15.72789047089677</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -24008,22 +24010,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>3.684619204015576</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>81.5603140781846</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R20" t="n">
-        <v>188.6400550964761</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S20" t="n">
-        <v>227.6425513334645</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8789244286399</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7620651792182</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24060,16 +24062,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.8359374722434</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H21" t="n">
-        <v>136.0213138977834</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I21" t="n">
-        <v>110.7868629208131</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J21" t="n">
-        <v>64.5439055906884</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>30.97363149681966</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R21" t="n">
-        <v>143.2767537638985</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S21" t="n">
-        <v>204.6971134970022</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T21" t="n">
-        <v>229.3736829070266</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U21" t="n">
-        <v>249.637776255715</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24139,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.0842897762481</v>
+        <v>169.028827651796</v>
       </c>
       <c r="H22" t="n">
-        <v>166.2431732614622</v>
+        <v>165.7500645549697</v>
       </c>
       <c r="I22" t="n">
-        <v>163.221867400849</v>
+        <v>161.5539700582341</v>
       </c>
       <c r="J22" t="n">
-        <v>121.6688168876111</v>
+        <v>117.7476446888457</v>
       </c>
       <c r="K22" t="n">
-        <v>70.02640322835012</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L22" t="n">
-        <v>38.70201543732101</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M22" t="n">
-        <v>34.11973034141128</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N22" t="n">
-        <v>22.33705035303328</v>
+        <v>13.84983270846368</v>
       </c>
       <c r="O22" t="n">
-        <v>49.51140282931519</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P22" t="n">
-        <v>71.69626319550571</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q22" t="n">
-        <v>139.0705175302886</v>
+        <v>134.42632090912</v>
       </c>
       <c r="R22" t="n">
-        <v>214.3047885262713</v>
+        <v>211.8110097304511</v>
       </c>
       <c r="S22" t="n">
-        <v>241.0763167951749</v>
+        <v>240.1097632263137</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4453377527024</v>
+        <v>217.2083632209524</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2113931710636</v>
+        <v>291.2083679642753</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24218,19 +24220,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>421.8459671052398</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H23" t="n">
-        <v>346.2330824957484</v>
+        <v>338.2944764625498</v>
       </c>
       <c r="I23" t="n">
-        <v>240.3847806456414</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J23" t="n">
-        <v>72.77309768536537</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K23" t="n">
-        <v>15.72789047089677</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -24245,22 +24247,22 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>3.684619204015576</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>81.5603140781846</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R23" t="n">
-        <v>188.6400550964761</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S23" t="n">
-        <v>227.6425513334645</v>
+        <v>218.9480290657966</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8789244286399</v>
+        <v>210.6653317519557</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7620651792182</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24269,7 +24271,7 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X23" t="n">
-        <v>348.8168793035129</v>
+        <v>342.1445351398352</v>
       </c>
       <c r="Y23" t="n">
         <v>377.9289763951821</v>
@@ -24285,10 +24287,10 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C24" t="n">
-        <v>203.8424276152394</v>
+        <v>197.9654268758721</v>
       </c>
       <c r="D24" t="n">
-        <v>172.0989423795122</v>
+        <v>165.4265982158345</v>
       </c>
       <c r="E24" t="n">
         <v>187.4605452976028</v>
@@ -24297,16 +24299,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.8359374722434</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H24" t="n">
-        <v>136.0213138977834</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I24" t="n">
-        <v>110.7868629208131</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J24" t="n">
-        <v>64.5439055906884</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>30.97363149681966</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R24" t="n">
-        <v>143.2767537638985</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S24" t="n">
-        <v>204.6971134970022</v>
+        <v>196.7959693401565</v>
       </c>
       <c r="T24" t="n">
-        <v>229.3736829070266</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U24" t="n">
-        <v>249.637776255715</v>
+        <v>242.9610797898183</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24376,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.0842897762481</v>
+        <v>169.028827651796</v>
       </c>
       <c r="H25" t="n">
-        <v>166.2431732614622</v>
+        <v>165.7500645549697</v>
       </c>
       <c r="I25" t="n">
-        <v>163.221867400849</v>
+        <v>161.5539700582341</v>
       </c>
       <c r="J25" t="n">
-        <v>121.6688168876111</v>
+        <v>117.7476446888457</v>
       </c>
       <c r="K25" t="n">
-        <v>70.02640322835012</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L25" t="n">
-        <v>38.70201543732101</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M25" t="n">
-        <v>34.11973034141128</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N25" t="n">
-        <v>22.33705035303328</v>
+        <v>13.84983270846368</v>
       </c>
       <c r="O25" t="n">
-        <v>49.51140282931519</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P25" t="n">
-        <v>71.69626319550571</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q25" t="n">
-        <v>139.0705175302886</v>
+        <v>134.42632090912</v>
       </c>
       <c r="R25" t="n">
-        <v>214.3047885262713</v>
+        <v>211.8110097304511</v>
       </c>
       <c r="S25" t="n">
-        <v>241.0763167951749</v>
+        <v>240.1097632263137</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4453377527024</v>
+        <v>217.2083632209524</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2113931710636</v>
+        <v>291.2083679642753</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>364.5563275970632</v>
+        <v>357.8839834333855</v>
       </c>
       <c r="C26" t="n">
         <v>333.5971194742085</v>
@@ -24455,19 +24457,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.8459671052398</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H26" t="n">
-        <v>346.2330824957484</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I26" t="n">
-        <v>240.3847806456414</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J26" t="n">
-        <v>72.77309768536537</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K26" t="n">
-        <v>15.72789047089677</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -24482,28 +24484,28 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>3.684619204015576</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>81.5603140781846</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R26" t="n">
-        <v>188.6400550964761</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S26" t="n">
-        <v>227.6425513334645</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8789244286399</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7620651792182</v>
+        <v>242.0798295521389</v>
       </c>
       <c r="V26" t="n">
-        <v>313.3044420010231</v>
+        <v>307.4274412616558</v>
       </c>
       <c r="W26" t="n">
-        <v>325.3917254792934</v>
+        <v>318.7193813156157</v>
       </c>
       <c r="X26" t="n">
         <v>348.8168793035129</v>
@@ -24534,16 +24536,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.8359374722434</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H27" t="n">
-        <v>136.0213138977834</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I27" t="n">
-        <v>110.7868629208131</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J27" t="n">
-        <v>64.5439055906884</v>
+        <v>51.62136528702621</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>30.97363149681966</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R27" t="n">
-        <v>143.2767537638985</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S27" t="n">
-        <v>204.6971134970022</v>
+        <v>196.7959693401565</v>
       </c>
       <c r="T27" t="n">
-        <v>229.3736829070266</v>
+        <v>222.4346876940641</v>
       </c>
       <c r="U27" t="n">
-        <v>249.637776255715</v>
+        <v>243.7564232141287</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24613,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.0842897762481</v>
+        <v>169.028827651796</v>
       </c>
       <c r="H28" t="n">
-        <v>166.2431732614622</v>
+        <v>165.7500645549697</v>
       </c>
       <c r="I28" t="n">
-        <v>163.221867400849</v>
+        <v>161.5539700582341</v>
       </c>
       <c r="J28" t="n">
-        <v>121.6688168876111</v>
+        <v>117.7476446888457</v>
       </c>
       <c r="K28" t="n">
-        <v>70.02640322835012</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L28" t="n">
-        <v>38.70201543732101</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M28" t="n">
-        <v>34.11973034141128</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N28" t="n">
-        <v>22.33705035303328</v>
+        <v>13.84983270846368</v>
       </c>
       <c r="O28" t="n">
-        <v>49.51140282931519</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P28" t="n">
-        <v>71.69626319550571</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q28" t="n">
-        <v>139.0705175302886</v>
+        <v>134.42632090912</v>
       </c>
       <c r="R28" t="n">
-        <v>214.3047885262713</v>
+        <v>211.8110097304511</v>
       </c>
       <c r="S28" t="n">
-        <v>241.0763167951749</v>
+        <v>240.1097632263137</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4453377527024</v>
+        <v>217.2083632209524</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2113931710636</v>
+        <v>291.2083679642753</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>364.5563275970632</v>
+        <v>357.8839834333855</v>
       </c>
       <c r="C29" t="n">
         <v>333.5971194742085</v>
@@ -24692,19 +24694,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>421.8459671052398</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H29" t="n">
-        <v>346.2330824957484</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I29" t="n">
-        <v>240.3847806456414</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J29" t="n">
-        <v>72.77309768536537</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K29" t="n">
-        <v>15.72789047089677</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -24719,31 +24721,31 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>3.684619204015576</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>81.5603140781846</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R29" t="n">
-        <v>188.6400550964761</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S29" t="n">
-        <v>227.6425513334645</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8789244286399</v>
+        <v>211.4606751762661</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7620651792182</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W29" t="n">
-        <v>325.3917254792934</v>
+        <v>318.7193813156157</v>
       </c>
       <c r="X29" t="n">
-        <v>348.8168793035129</v>
+        <v>342.1445351398352</v>
       </c>
       <c r="Y29" t="n">
         <v>377.9289763951821</v>
@@ -24771,16 +24773,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.8359374722434</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H30" t="n">
-        <v>136.0213138977834</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I30" t="n">
-        <v>110.7868629208131</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J30" t="n">
-        <v>64.5439055906884</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24801,25 +24803,25 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>30.97363149681966</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R30" t="n">
-        <v>143.2767537638985</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S30" t="n">
-        <v>204.6971134970022</v>
+        <v>197.5913127644668</v>
       </c>
       <c r="T30" t="n">
-        <v>229.3736829070266</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U30" t="n">
-        <v>249.637776255715</v>
+        <v>242.9610797898183</v>
       </c>
       <c r="V30" t="n">
-        <v>249.2999251801724</v>
+        <v>242.6275810164947</v>
       </c>
       <c r="W30" t="n">
-        <v>283.2492567629311</v>
+        <v>276.5769125992534</v>
       </c>
       <c r="X30" t="n">
         <v>230.033063710963</v>
@@ -24850,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.0842897762481</v>
+        <v>169.028827651796</v>
       </c>
       <c r="H31" t="n">
-        <v>166.2431732614622</v>
+        <v>165.7500645549697</v>
       </c>
       <c r="I31" t="n">
-        <v>163.221867400849</v>
+        <v>161.5539700582341</v>
       </c>
       <c r="J31" t="n">
-        <v>121.6688168876111</v>
+        <v>117.7476446888457</v>
       </c>
       <c r="K31" t="n">
-        <v>70.02640322835012</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L31" t="n">
-        <v>38.70201543732101</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M31" t="n">
-        <v>34.11973034141128</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N31" t="n">
-        <v>22.33705035303328</v>
+        <v>13.84983270846368</v>
       </c>
       <c r="O31" t="n">
-        <v>49.51140282931519</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P31" t="n">
-        <v>71.69626319550571</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q31" t="n">
-        <v>139.0705175302886</v>
+        <v>134.42632090912</v>
       </c>
       <c r="R31" t="n">
-        <v>214.3047885262713</v>
+        <v>211.8110097304511</v>
       </c>
       <c r="S31" t="n">
-        <v>241.0763167951749</v>
+        <v>240.1097632263137</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4453377527024</v>
+        <v>217.2083632209524</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2113931710636</v>
+        <v>291.2083679642753</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24929,19 +24931,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>421.8459671052398</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H32" t="n">
-        <v>346.2330824957484</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I32" t="n">
-        <v>240.3847806456414</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J32" t="n">
-        <v>72.77309768536537</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K32" t="n">
-        <v>15.72789047089677</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -24956,22 +24958,22 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>3.684619204015576</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>81.5603140781846</v>
+        <v>61.53588530938285</v>
       </c>
       <c r="R32" t="n">
-        <v>188.6400550964761</v>
+        <v>174.2009029590361</v>
       </c>
       <c r="S32" t="n">
-        <v>227.6425513334645</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8789244286399</v>
+        <v>210.6653317519557</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7620651792182</v>
+        <v>242.8751729764493</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -24999,7 +25001,7 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D33" t="n">
-        <v>172.0989423795122</v>
+        <v>166.2219416401449</v>
       </c>
       <c r="E33" t="n">
         <v>187.4605452976028</v>
@@ -25008,16 +25010,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.8359374722434</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H33" t="n">
-        <v>136.0213138977834</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I33" t="n">
-        <v>110.7868629208131</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J33" t="n">
-        <v>64.5439055906884</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>30.97363149681966</v>
+        <v>15.85666041433092</v>
       </c>
       <c r="R33" t="n">
-        <v>143.2767537638985</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S33" t="n">
-        <v>204.6971134970022</v>
+        <v>196.7959693401565</v>
       </c>
       <c r="T33" t="n">
-        <v>229.3736829070266</v>
+        <v>222.4346876940641</v>
       </c>
       <c r="U33" t="n">
-        <v>249.637776255715</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25087,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.0842897762481</v>
+        <v>169.028827651796</v>
       </c>
       <c r="H34" t="n">
-        <v>166.2431732614622</v>
+        <v>165.7500645549697</v>
       </c>
       <c r="I34" t="n">
-        <v>163.221867400849</v>
+        <v>161.5539700582341</v>
       </c>
       <c r="J34" t="n">
-        <v>121.6688168876111</v>
+        <v>117.7476446888457</v>
       </c>
       <c r="K34" t="n">
-        <v>70.02640322835012</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L34" t="n">
-        <v>38.70201543732101</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M34" t="n">
-        <v>34.11973034141128</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N34" t="n">
-        <v>22.33705035303328</v>
+        <v>13.84983270846368</v>
       </c>
       <c r="O34" t="n">
-        <v>49.51140282931519</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P34" t="n">
-        <v>71.69626319550571</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q34" t="n">
-        <v>139.0705175302886</v>
+        <v>134.42632090912</v>
       </c>
       <c r="R34" t="n">
-        <v>214.3047885262713</v>
+        <v>211.8110097304511</v>
       </c>
       <c r="S34" t="n">
-        <v>241.0763167951749</v>
+        <v>240.1097632263137</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4453377527024</v>
+        <v>217.2083632209524</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2113931710636</v>
+        <v>291.2083679642753</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25166,19 +25168,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>421.8459671052398</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H35" t="n">
-        <v>346.2330824957484</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I35" t="n">
-        <v>240.3847806456414</v>
+        <v>228.9456784470847</v>
       </c>
       <c r="J35" t="n">
-        <v>72.77309768536537</v>
+        <v>55.60668362316449</v>
       </c>
       <c r="K35" t="n">
-        <v>15.72789047089677</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -25193,25 +25195,25 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>3.684619204015576</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>81.5603140781846</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R35" t="n">
-        <v>188.6400550964761</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S35" t="n">
-        <v>227.6425513334645</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8789244286399</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7620651792182</v>
+        <v>242.0798295521389</v>
       </c>
       <c r="V35" t="n">
-        <v>313.3044420010231</v>
+        <v>307.4274412616558</v>
       </c>
       <c r="W35" t="n">
         <v>325.3917254792934</v>
@@ -25245,16 +25247,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.8359374722434</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H36" t="n">
-        <v>136.0213138977834</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I36" t="n">
-        <v>110.7868629208131</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J36" t="n">
-        <v>64.5439055906884</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>30.97363149681966</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R36" t="n">
-        <v>143.2767537638985</v>
+        <v>133.2923403437077</v>
       </c>
       <c r="S36" t="n">
-        <v>204.6971134970022</v>
+        <v>196.7959693401565</v>
       </c>
       <c r="T36" t="n">
-        <v>229.3736829070266</v>
+        <v>222.4346876940641</v>
       </c>
       <c r="U36" t="n">
-        <v>249.637776255715</v>
+        <v>242.9610797898183</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25324,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.0842897762481</v>
+        <v>169.028827651796</v>
       </c>
       <c r="H37" t="n">
-        <v>166.2431732614622</v>
+        <v>165.7500645549697</v>
       </c>
       <c r="I37" t="n">
-        <v>163.221867400849</v>
+        <v>161.5539700582341</v>
       </c>
       <c r="J37" t="n">
-        <v>121.6688168876111</v>
+        <v>117.7476446888457</v>
       </c>
       <c r="K37" t="n">
-        <v>70.02640322835012</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L37" t="n">
-        <v>38.70201543732101</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M37" t="n">
-        <v>34.11973034141128</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N37" t="n">
-        <v>22.33705035303328</v>
+        <v>13.84983270846368</v>
       </c>
       <c r="O37" t="n">
-        <v>49.51140282931519</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P37" t="n">
-        <v>71.69626319550571</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q37" t="n">
-        <v>139.0705175302886</v>
+        <v>134.42632090912</v>
       </c>
       <c r="R37" t="n">
-        <v>214.3047885262713</v>
+        <v>211.8110097304511</v>
       </c>
       <c r="S37" t="n">
-        <v>241.0763167951749</v>
+        <v>240.1097632263137</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4453377527024</v>
+        <v>217.2083632209524</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2113931710636</v>
+        <v>291.2083679642753</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25403,19 +25405,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>421.8459671052398</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H38" t="n">
-        <v>346.2330824957484</v>
+        <v>339.0898198868601</v>
       </c>
       <c r="I38" t="n">
-        <v>240.3847806456414</v>
+        <v>228.9456784470847</v>
       </c>
       <c r="J38" t="n">
-        <v>72.77309768536537</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K38" t="n">
-        <v>15.72789047089677</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -25430,28 +25432,28 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>3.684619204015576</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>81.5603140781846</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R38" t="n">
-        <v>188.6400550964761</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S38" t="n">
-        <v>227.6425513334645</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8789244286399</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7620651792182</v>
+        <v>242.0798295521389</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W38" t="n">
-        <v>325.3917254792934</v>
+        <v>318.7193813156157</v>
       </c>
       <c r="X38" t="n">
         <v>348.8168793035129</v>
@@ -25482,16 +25484,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.8359374722434</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H39" t="n">
-        <v>136.0213138977834</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I39" t="n">
-        <v>110.7868629208131</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J39" t="n">
-        <v>64.5439055906884</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25512,25 +25514,25 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>30.97363149681966</v>
+        <v>15.85666041433092</v>
       </c>
       <c r="R39" t="n">
-        <v>143.2767537638985</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S39" t="n">
-        <v>204.6971134970022</v>
+        <v>196.7959693401565</v>
       </c>
       <c r="T39" t="n">
-        <v>229.3736829070266</v>
+        <v>222.4346876940641</v>
       </c>
       <c r="U39" t="n">
-        <v>249.637776255715</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W39" t="n">
-        <v>283.2492567629311</v>
+        <v>277.3722560235638</v>
       </c>
       <c r="X39" t="n">
         <v>230.033063710963</v>
@@ -25561,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.0842897762481</v>
+        <v>169.028827651796</v>
       </c>
       <c r="H40" t="n">
-        <v>166.2431732614622</v>
+        <v>165.7500645549697</v>
       </c>
       <c r="I40" t="n">
-        <v>163.221867400849</v>
+        <v>161.5539700582341</v>
       </c>
       <c r="J40" t="n">
-        <v>121.6688168876111</v>
+        <v>117.7476446888457</v>
       </c>
       <c r="K40" t="n">
-        <v>70.02640322835012</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L40" t="n">
-        <v>38.70201543732101</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M40" t="n">
-        <v>34.11973034141128</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N40" t="n">
-        <v>22.33705035303328</v>
+        <v>13.84983270846368</v>
       </c>
       <c r="O40" t="n">
-        <v>49.51140282931519</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P40" t="n">
-        <v>71.69626319550571</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q40" t="n">
-        <v>139.0705175302886</v>
+        <v>134.42632090912</v>
       </c>
       <c r="R40" t="n">
-        <v>214.3047885262713</v>
+        <v>211.8110097304511</v>
       </c>
       <c r="S40" t="n">
-        <v>241.0763167951749</v>
+        <v>240.1097632263137</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4453377527024</v>
+        <v>217.2083632209524</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2113931710636</v>
+        <v>291.2083679642753</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>364.5563275970632</v>
+        <v>357.8839834333855</v>
       </c>
       <c r="C41" t="n">
-        <v>333.5971194742085</v>
+        <v>326.9247753105308</v>
       </c>
       <c r="D41" t="n">
         <v>319.1317556432476</v>
@@ -25640,19 +25642,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.8459671052398</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H41" t="n">
-        <v>346.2330824957484</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I41" t="n">
-        <v>240.3847806456414</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J41" t="n">
-        <v>72.77309768536537</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K41" t="n">
-        <v>15.72789047089677</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -25667,22 +25669,22 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>3.684619204015576</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>81.5603140781846</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R41" t="n">
-        <v>188.6400550964761</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S41" t="n">
-        <v>227.6425513334645</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8789244286399</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7620651792182</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25691,10 +25693,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X41" t="n">
-        <v>348.8168793035129</v>
+        <v>342.9398785641456</v>
       </c>
       <c r="Y41" t="n">
-        <v>377.9289763951821</v>
+        <v>371.2566322315045</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>188.0127573810344</v>
+        <v>181.3404132173568</v>
       </c>
       <c r="C42" t="n">
-        <v>203.8424276152394</v>
+        <v>197.9654268758721</v>
       </c>
       <c r="D42" t="n">
         <v>172.0989423795122</v>
@@ -25719,16 +25721,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.8359374722434</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H42" t="n">
-        <v>136.0213138977834</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I42" t="n">
-        <v>110.7868629208131</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J42" t="n">
-        <v>64.5439055906884</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25749,31 +25751,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>30.97363149681966</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R42" t="n">
-        <v>143.2767537638985</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S42" t="n">
-        <v>204.6971134970022</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T42" t="n">
-        <v>229.3736829070266</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U42" t="n">
-        <v>249.637776255715</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W42" t="n">
-        <v>283.2492567629311</v>
+        <v>276.5769125992534</v>
       </c>
       <c r="X42" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
-        <v>242.8962664135933</v>
+        <v>236.2239222499157</v>
       </c>
     </row>
     <row r="43">
@@ -25798,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.0842897762481</v>
+        <v>169.028827651796</v>
       </c>
       <c r="H43" t="n">
-        <v>166.2431732614622</v>
+        <v>165.7500645549697</v>
       </c>
       <c r="I43" t="n">
-        <v>163.221867400849</v>
+        <v>161.5539700582341</v>
       </c>
       <c r="J43" t="n">
-        <v>121.6688168876111</v>
+        <v>117.7476446888457</v>
       </c>
       <c r="K43" t="n">
-        <v>70.02640322835012</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L43" t="n">
-        <v>38.70201543732101</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M43" t="n">
-        <v>34.11973034141128</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N43" t="n">
-        <v>22.33705035303328</v>
+        <v>13.84983270846368</v>
       </c>
       <c r="O43" t="n">
-        <v>49.51140282931519</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P43" t="n">
-        <v>71.69626319550571</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q43" t="n">
-        <v>139.0705175302886</v>
+        <v>134.42632090912</v>
       </c>
       <c r="R43" t="n">
-        <v>214.3047885262713</v>
+        <v>211.8110097304511</v>
       </c>
       <c r="S43" t="n">
-        <v>241.0763167951749</v>
+        <v>240.1097632263137</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4453377527024</v>
+        <v>217.2083632209524</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2113931710636</v>
+        <v>291.2083679642753</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>364.5563275970632</v>
+        <v>357.8839834333855</v>
       </c>
       <c r="C44" t="n">
-        <v>333.5971194742085</v>
+        <v>327.7201187348412</v>
       </c>
       <c r="D44" t="n">
         <v>319.1317556432476</v>
@@ -25877,19 +25879,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>421.8459671052398</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H44" t="n">
-        <v>346.2330824957484</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I44" t="n">
-        <v>240.3847806456414</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J44" t="n">
-        <v>72.77309768536537</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K44" t="n">
-        <v>15.72789047089677</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -25904,25 +25906,25 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>3.684619204015576</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>81.5603140781846</v>
+        <v>62.82473475935981</v>
       </c>
       <c r="R44" t="n">
-        <v>188.6400550964761</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S44" t="n">
-        <v>227.6425513334645</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8789244286399</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7620651792182</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V44" t="n">
-        <v>313.3044420010231</v>
+        <v>306.6320978373454</v>
       </c>
       <c r="W44" t="n">
         <v>325.3917254792934</v>
@@ -25931,7 +25933,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y44" t="n">
-        <v>377.9289763951821</v>
+        <v>371.2566322315045</v>
       </c>
     </row>
     <row r="45">
@@ -25956,16 +25958,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.8359374722434</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H45" t="n">
-        <v>136.0213138977834</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I45" t="n">
-        <v>110.7868629208131</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J45" t="n">
-        <v>64.5439055906884</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25986,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>30.97363149681966</v>
+        <v>13.24717188010599</v>
       </c>
       <c r="R45" t="n">
-        <v>143.2767537638985</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S45" t="n">
-        <v>204.6971134970022</v>
+        <v>196.3005232384386</v>
       </c>
       <c r="T45" t="n">
-        <v>229.3736829070266</v>
+        <v>222.327175305049</v>
       </c>
       <c r="U45" t="n">
-        <v>249.637776255715</v>
+        <v>242.9593249630118</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26035,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.0842897762481</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H46" t="n">
-        <v>166.2431732614622</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I46" t="n">
-        <v>163.221867400849</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J46" t="n">
-        <v>121.6688168876111</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K46" t="n">
-        <v>70.02640322835012</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L46" t="n">
-        <v>38.70201543732101</v>
+        <v>27.13168239150397</v>
       </c>
       <c r="M46" t="n">
-        <v>34.11973034141128</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N46" t="n">
-        <v>22.33705035303328</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O46" t="n">
-        <v>49.51140282931519</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P46" t="n">
-        <v>71.69626319550571</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q46" t="n">
-        <v>139.0705175302886</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R46" t="n">
-        <v>214.3047885262713</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S46" t="n">
-        <v>241.0763167951749</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4453377527024</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2113931710636</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>415094.6414366497</v>
+        <v>398434.0416940691</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>418950.2798859284</v>
+        <v>398434.0416940691</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>450112.0801310102</v>
+        <v>459149.0615844685</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>450112.0801310102</v>
+        <v>459149.0615844685</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>450112.0801310102</v>
+        <v>459149.0615844685</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>450112.0801310102</v>
+        <v>459149.0615844685</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>450112.0801310102</v>
+        <v>463966.1915182524</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>450112.0801310102</v>
+        <v>463966.1915182524</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>450112.0801310102</v>
+        <v>463966.1915182525</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>450112.0801310102</v>
+        <v>463966.1915182525</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>450112.0801310102</v>
+        <v>463966.1915182524</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>450112.0801310102</v>
+        <v>463966.1915182524</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>450112.0801310102</v>
+        <v>463966.1915182524</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>450112.0801310102</v>
+        <v>466628.5833760792</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92148.00209696722</v>
+        <v>88110.73227469021</v>
       </c>
       <c r="C2" t="n">
-        <v>93076.03619987472</v>
+        <v>88110.73227469021</v>
       </c>
       <c r="D2" t="n">
-        <v>93076.03619987472</v>
+        <v>93076.03619987474</v>
       </c>
       <c r="E2" t="n">
-        <v>100963.9419808673</v>
+        <v>103326.2753544732</v>
       </c>
       <c r="F2" t="n">
-        <v>100963.9419808673</v>
+        <v>103326.2753544732</v>
       </c>
       <c r="G2" t="n">
-        <v>100963.9419808673</v>
+        <v>103326.2753544732</v>
       </c>
       <c r="H2" t="n">
-        <v>100963.9419808673</v>
+        <v>103326.2753544732</v>
       </c>
       <c r="I2" t="n">
-        <v>100963.9419808673</v>
+        <v>104352.9737720586</v>
       </c>
       <c r="J2" t="n">
-        <v>100963.9419808673</v>
+        <v>104352.9737720586</v>
       </c>
       <c r="K2" t="n">
-        <v>100963.9419808673</v>
+        <v>104352.9737720586</v>
       </c>
       <c r="L2" t="n">
-        <v>100963.9419808673</v>
+        <v>104352.9737720586</v>
       </c>
       <c r="M2" t="n">
-        <v>100963.9419808673</v>
+        <v>104352.9737720586</v>
       </c>
       <c r="N2" t="n">
-        <v>100963.9419808673</v>
+        <v>104352.9737720586</v>
       </c>
       <c r="O2" t="n">
-        <v>100963.9419808673</v>
+        <v>104352.9737720586</v>
       </c>
       <c r="P2" t="n">
-        <v>100963.9419808673</v>
+        <v>105102.9697262486</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>330871.7541851042</v>
+        <v>300331.6078316385</v>
       </c>
       <c r="C3" t="n">
-        <v>6633.965728588497</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>33381.84090058045</v>
       </c>
       <c r="E3" t="n">
-        <v>66869.03183950338</v>
+        <v>91578.71063444842</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1774.316432349332</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>8253.658953312784</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11061.09378071676</v>
+        <v>12102.3694127353</v>
       </c>
       <c r="C4" t="n">
+        <v>12102.3694127353</v>
+      </c>
+      <c r="D4" t="n">
         <v>10847.6596249392</v>
       </c>
-      <c r="D4" t="n">
-        <v>10847.65962493919</v>
-      </c>
       <c r="E4" t="n">
-        <v>7424.026830284643</v>
+        <v>6103.085030239961</v>
       </c>
       <c r="F4" t="n">
-        <v>7424.026830284642</v>
+        <v>6103.085030239964</v>
       </c>
       <c r="G4" t="n">
-        <v>7424.026830284643</v>
+        <v>6103.085030239964</v>
       </c>
       <c r="H4" t="n">
-        <v>7424.026830284642</v>
+        <v>6103.085030239964</v>
       </c>
       <c r="I4" t="n">
-        <v>7424.026830284643</v>
+        <v>6423.372107938305</v>
       </c>
       <c r="J4" t="n">
-        <v>7424.026830284642</v>
+        <v>6423.372107938305</v>
       </c>
       <c r="K4" t="n">
-        <v>7424.026830284643</v>
+        <v>6423.372107938305</v>
       </c>
       <c r="L4" t="n">
-        <v>7424.026830284642</v>
+        <v>6423.372107938304</v>
       </c>
       <c r="M4" t="n">
-        <v>7424.026830284643</v>
+        <v>6423.372107938305</v>
       </c>
       <c r="N4" t="n">
-        <v>7424.026830284642</v>
+        <v>6423.372107938305</v>
       </c>
       <c r="O4" t="n">
-        <v>7424.026830284643</v>
+        <v>6423.372107938305</v>
       </c>
       <c r="P4" t="n">
-        <v>7424.026830284642</v>
+        <v>5797.320166624164</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41112.97456555201</v>
+        <v>40422.05903150925</v>
       </c>
       <c r="C5" t="n">
-        <v>41271.79307559616</v>
+        <v>40422.05903150925</v>
       </c>
       <c r="D5" t="n">
         <v>41271.79307559616</v>
       </c>
       <c r="E5" t="n">
-        <v>9458.655921890211</v>
+        <v>10129.14258640329</v>
       </c>
       <c r="F5" t="n">
-        <v>9458.655921890211</v>
+        <v>10129.14258640329</v>
       </c>
       <c r="G5" t="n">
-        <v>9458.655921890211</v>
+        <v>10129.14258640329</v>
       </c>
       <c r="H5" t="n">
-        <v>9458.655921890211</v>
+        <v>10129.14258640329</v>
       </c>
       <c r="I5" t="n">
-        <v>9458.655921890211</v>
+        <v>10534.82111155489</v>
       </c>
       <c r="J5" t="n">
-        <v>9458.655921890211</v>
+        <v>10534.82111155489</v>
       </c>
       <c r="K5" t="n">
-        <v>9458.655921890211</v>
+        <v>10534.82111155489</v>
       </c>
       <c r="L5" t="n">
-        <v>9458.655921890211</v>
+        <v>10534.82111155489</v>
       </c>
       <c r="M5" t="n">
-        <v>9458.655921890211</v>
+        <v>10534.82111155489</v>
       </c>
       <c r="N5" t="n">
-        <v>9458.655921890211</v>
+        <v>10534.82111155489</v>
       </c>
       <c r="O5" t="n">
-        <v>9458.655921890211</v>
+        <v>10534.82111155489</v>
       </c>
       <c r="P5" t="n">
-        <v>9458.655921890211</v>
+        <v>10805.15803052766</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-290897.8204344057</v>
+        <v>-264745.3040011929</v>
       </c>
       <c r="C6" t="n">
-        <v>34322.61777075085</v>
+        <v>35586.30383044566</v>
       </c>
       <c r="D6" t="n">
-        <v>40956.58349933937</v>
+        <v>7574.74259875893</v>
       </c>
       <c r="E6" t="n">
-        <v>17212.22738918906</v>
+        <v>-4484.662896618445</v>
       </c>
       <c r="F6" t="n">
-        <v>84081.25922869245</v>
+        <v>87094.04773782998</v>
       </c>
       <c r="G6" t="n">
-        <v>84081.25922869245</v>
+        <v>87094.04773782998</v>
       </c>
       <c r="H6" t="n">
-        <v>84081.25922869245</v>
+        <v>87094.04773782998</v>
       </c>
       <c r="I6" t="n">
-        <v>84081.25922869245</v>
+        <v>85620.46412021604</v>
       </c>
       <c r="J6" t="n">
-        <v>84081.25922869245</v>
+        <v>87394.78055256541</v>
       </c>
       <c r="K6" t="n">
-        <v>84081.25922869245</v>
+        <v>87394.78055256538</v>
       </c>
       <c r="L6" t="n">
-        <v>84081.25922869245</v>
+        <v>87394.78055256541</v>
       </c>
       <c r="M6" t="n">
-        <v>84081.25922869245</v>
+        <v>87394.78055256538</v>
       </c>
       <c r="N6" t="n">
-        <v>84081.25922869245</v>
+        <v>87394.78055256541</v>
       </c>
       <c r="O6" t="n">
-        <v>84081.25922869245</v>
+        <v>87394.78055256541</v>
       </c>
       <c r="P6" t="n">
-        <v>84081.25922869245</v>
+        <v>80246.83257578396</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>343.3658057592666</v>
+        <v>311.6724326380389</v>
       </c>
       <c r="C3" t="n">
-        <v>350.6510585135856</v>
+        <v>311.6724326380389</v>
       </c>
       <c r="D3" t="n">
         <v>350.6510585135856</v>
       </c>
       <c r="E3" t="n">
-        <v>433.8832991692757</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="F3" t="n">
-        <v>433.8832991692757</v>
+        <v>464.639568183637</v>
       </c>
       <c r="G3" t="n">
-        <v>433.8832991692757</v>
+        <v>464.639568183637</v>
       </c>
       <c r="H3" t="n">
-        <v>433.8832991692757</v>
+        <v>464.639568183637</v>
       </c>
       <c r="I3" t="n">
-        <v>433.8832991692757</v>
+        <v>464.639568183637</v>
       </c>
       <c r="J3" t="n">
-        <v>433.8832991692757</v>
+        <v>464.639568183637</v>
       </c>
       <c r="K3" t="n">
-        <v>433.8832991692757</v>
+        <v>464.639568183637</v>
       </c>
       <c r="L3" t="n">
-        <v>433.8832991692757</v>
+        <v>464.639568183637</v>
       </c>
       <c r="M3" t="n">
-        <v>433.8832991692757</v>
+        <v>464.639568183637</v>
       </c>
       <c r="N3" t="n">
-        <v>433.8832991692757</v>
+        <v>464.639568183637</v>
       </c>
       <c r="O3" t="n">
-        <v>433.8832991692757</v>
+        <v>464.639568183637</v>
       </c>
       <c r="P3" t="n">
-        <v>433.8832991692757</v>
+        <v>477.0403442833053</v>
       </c>
     </row>
     <row r="4">
@@ -26808,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>343.3658057592666</v>
+        <v>311.6724326380389</v>
       </c>
       <c r="C3" t="n">
-        <v>7.285252754319117</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>38.9786258755467</v>
       </c>
       <c r="E3" t="n">
-        <v>83.23224065569008</v>
+        <v>113.9885096700515</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>12.40077609966824</v>
       </c>
     </row>
     <row r="4">
@@ -27030,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.380365048278458</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H2" t="n">
-        <v>14.13666355068176</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I2" t="n">
-        <v>53.21652352375528</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J2" t="n">
-        <v>117.1567580163238</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K2" t="n">
-        <v>175.587610509951</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L2" t="n">
-        <v>217.8319573562029</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M2" t="n">
-        <v>242.3800242835249</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N2" t="n">
-        <v>246.301986476946</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O2" t="n">
-        <v>232.5759815281271</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P2" t="n">
-        <v>198.4982193987527</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q2" t="n">
-        <v>149.0638961072804</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R2" t="n">
-        <v>86.70935596392172</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S2" t="n">
-        <v>31.45506853764538</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T2" t="n">
-        <v>6.04254799883895</v>
+        <v>5.484808337177949</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1104292038622766</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7385604123878564</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H3" t="n">
-        <v>7.132938719640613</v>
+        <v>6.474553742160016</v>
       </c>
       <c r="I3" t="n">
-        <v>25.42850542651172</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J3" t="n">
-        <v>69.77776247038078</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K3" t="n">
-        <v>119.2613101003672</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L3" t="n">
-        <v>160.3615491897405</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M3" t="n">
-        <v>187.1343641388002</v>
+        <v>169.8614757877312</v>
       </c>
       <c r="N3" t="n">
-        <v>192.087253921875</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O3" t="n">
-        <v>175.7223100473861</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P3" t="n">
-        <v>141.0326457655372</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.276588781299</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R3" t="n">
-        <v>45.85553156913376</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S3" t="n">
-        <v>13.71843573009899</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T3" t="n">
-        <v>2.976916749931753</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04858950081499057</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6191842398937593</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H4" t="n">
-        <v>5.505110787419063</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I4" t="n">
-        <v>18.62055877789597</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J4" t="n">
-        <v>43.77632576048878</v>
+        <v>39.73568046927915</v>
       </c>
       <c r="K4" t="n">
-        <v>71.93795078038401</v>
+        <v>65.29792932973993</v>
       </c>
       <c r="L4" t="n">
-        <v>92.05580962929582</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M4" t="n">
-        <v>97.05994407716445</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N4" t="n">
-        <v>94.75207554665143</v>
+        <v>86.00626325567396</v>
       </c>
       <c r="O4" t="n">
-        <v>87.51887783516521</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P4" t="n">
-        <v>74.88751934133246</v>
+        <v>67.97524661994208</v>
       </c>
       <c r="Q4" t="n">
-        <v>51.84823666964925</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R4" t="n">
-        <v>27.84077500467757</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S4" t="n">
-        <v>10.7906926170576</v>
+        <v>9.794689399460987</v>
       </c>
       <c r="T4" t="n">
-        <v>2.645605388636971</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03377368581238691</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.409652496537027</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H5" t="n">
-        <v>14.43660363015983</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I5" t="n">
-        <v>54.34562787274376</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J5" t="n">
-        <v>119.6424935779595</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K5" t="n">
-        <v>179.3130837563719</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L5" t="n">
-        <v>222.453736347267</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M5" t="n">
-        <v>247.5226439325573</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N5" t="n">
-        <v>251.5278190883432</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O5" t="n">
-        <v>237.5105870759031</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P5" t="n">
-        <v>202.7097910676452</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q5" t="n">
-        <v>152.2266110354129</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R5" t="n">
-        <v>88.54908363559406</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S5" t="n">
-        <v>32.12245626483752</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T5" t="n">
-        <v>6.170753803590836</v>
+        <v>5.484808337177949</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1127721997229621</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7542305786895992</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H6" t="n">
-        <v>7.284279536291656</v>
+        <v>6.474553742160016</v>
       </c>
       <c r="I6" t="n">
-        <v>25.96802650312875</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J6" t="n">
-        <v>71.25824954189763</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K6" t="n">
-        <v>121.7916983141008</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L6" t="n">
-        <v>163.7639684124062</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M6" t="n">
-        <v>191.1048268899041</v>
+        <v>169.8614757877312</v>
       </c>
       <c r="N6" t="n">
-        <v>192.087253921875</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O6" t="n">
-        <v>179.4506412376083</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P6" t="n">
-        <v>144.0249602411744</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q6" t="n">
-        <v>96.27687176395656</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R6" t="n">
-        <v>46.82845645583321</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S6" t="n">
-        <v>14.00950219627391</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T6" t="n">
-        <v>3.040078516735708</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04962043280852629</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6323215809261379</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H7" t="n">
-        <v>5.621913692234211</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I7" t="n">
-        <v>19.0156344518515</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J7" t="n">
-        <v>44.70513577147795</v>
+        <v>39.73568046927915</v>
       </c>
       <c r="K7" t="n">
-        <v>73.46427094760037</v>
+        <v>65.29792932973993</v>
       </c>
       <c r="L7" t="n">
-        <v>94.00897394969145</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M7" t="n">
-        <v>99.11928199917631</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N7" t="n">
-        <v>96.76244701572442</v>
+        <v>86.00626325567396</v>
       </c>
       <c r="O7" t="n">
-        <v>89.37578127490541</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P7" t="n">
-        <v>76.47642102401214</v>
+        <v>67.97524661994208</v>
       </c>
       <c r="Q7" t="n">
-        <v>52.94830983555142</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R7" t="n">
-        <v>28.43147762964252</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S7" t="n">
-        <v>11.01964064214005</v>
+        <v>9.794689399460987</v>
       </c>
       <c r="T7" t="n">
-        <v>2.701737663957134</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03449026805051665</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.409652496537027</v>
+        <v>1.409652496537026</v>
       </c>
       <c r="H8" t="n">
-        <v>14.43660363015983</v>
+        <v>14.43660363015982</v>
       </c>
       <c r="I8" t="n">
-        <v>54.34562787274377</v>
+        <v>54.34562787274375</v>
       </c>
       <c r="J8" t="n">
-        <v>119.6424935779596</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K8" t="n">
         <v>179.3130837563719</v>
@@ -31534,7 +31536,7 @@
         <v>247.5226439325573</v>
       </c>
       <c r="N8" t="n">
-        <v>251.5278190883432</v>
+        <v>251.5278190883431</v>
       </c>
       <c r="O8" t="n">
         <v>237.5105870759031</v>
@@ -31546,13 +31548,13 @@
         <v>152.2266110354129</v>
       </c>
       <c r="R8" t="n">
-        <v>88.54908363559407</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S8" t="n">
         <v>32.12245626483752</v>
       </c>
       <c r="T8" t="n">
-        <v>6.170753803590837</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U8" t="n">
         <v>0.1127721997229621</v>
@@ -31592,13 +31594,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7542305786895993</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H9" t="n">
-        <v>7.284279536291657</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I9" t="n">
-        <v>25.96802650312875</v>
+        <v>25.96802650312874</v>
       </c>
       <c r="J9" t="n">
         <v>71.25824954189763</v>
@@ -31619,13 +31621,13 @@
         <v>179.4506412376083</v>
       </c>
       <c r="P9" t="n">
-        <v>144.0249602411745</v>
+        <v>144.0249602411744</v>
       </c>
       <c r="Q9" t="n">
-        <v>96.27687176395658</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R9" t="n">
-        <v>46.82845645583321</v>
+        <v>46.8284564558332</v>
       </c>
       <c r="S9" t="n">
         <v>14.00950219627391</v>
@@ -31634,7 +31636,7 @@
         <v>3.040078516735708</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04962043280852629</v>
+        <v>0.04962043280852628</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,37 +31673,37 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6323215809261379</v>
+        <v>0.6323215809261378</v>
       </c>
       <c r="H10" t="n">
-        <v>5.621913692234212</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I10" t="n">
         <v>19.0156344518515</v>
       </c>
       <c r="J10" t="n">
-        <v>44.70513577147795</v>
+        <v>44.70513577147794</v>
       </c>
       <c r="K10" t="n">
-        <v>73.46427094760037</v>
+        <v>73.46427094760035</v>
       </c>
       <c r="L10" t="n">
-        <v>94.00897394969147</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M10" t="n">
-        <v>99.11928199917631</v>
+        <v>99.11928199917629</v>
       </c>
       <c r="N10" t="n">
-        <v>96.76244701572443</v>
+        <v>96.7624470157244</v>
       </c>
       <c r="O10" t="n">
-        <v>89.37578127490542</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P10" t="n">
-        <v>76.47642102401214</v>
+        <v>76.47642102401213</v>
       </c>
       <c r="Q10" t="n">
-        <v>52.94830983555143</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R10" t="n">
         <v>28.43147762964252</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.744254469022213</v>
+        <v>1.867897761542258</v>
       </c>
       <c r="H11" t="n">
-        <v>17.86334608087374</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I11" t="n">
-        <v>67.24537041697891</v>
+        <v>72.01212845185798</v>
       </c>
       <c r="J11" t="n">
-        <v>148.0414177401742</v>
+        <v>158.5354876386974</v>
       </c>
       <c r="K11" t="n">
-        <v>221.8757094138844</v>
+        <v>237.6035998847812</v>
       </c>
       <c r="L11" t="n">
-        <v>275.256437120223</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M11" t="n">
-        <v>306.2758225336968</v>
+        <v>327.9865028214073</v>
       </c>
       <c r="N11" t="n">
-        <v>311.2316855438062</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O11" t="n">
-        <v>293.8872551674665</v>
+        <v>314.7197589700534</v>
       </c>
       <c r="P11" t="n">
-        <v>250.8259729634806</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q11" t="n">
-        <v>188.3598597916226</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R11" t="n">
-        <v>109.5675247897167</v>
+        <v>117.334332763479</v>
       </c>
       <c r="S11" t="n">
-        <v>39.7471987128437</v>
+        <v>42.56472024114425</v>
       </c>
       <c r="T11" t="n">
-        <v>7.635473938144739</v>
+        <v>8.176722451151239</v>
       </c>
       <c r="U11" t="n">
-        <v>0.139540357521777</v>
+        <v>0.1494318209233806</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9332584170810836</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H12" t="n">
-        <v>9.013311554440993</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I12" t="n">
-        <v>32.13192357055485</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J12" t="n">
-        <v>88.17245422080536</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K12" t="n">
-        <v>150.700768165238</v>
+        <v>161.3833488850657</v>
       </c>
       <c r="L12" t="n">
         <v>202.635780428066</v>
@@ -31856,22 +31858,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P12" t="n">
-        <v>178.2114252757729</v>
+        <v>190.8441275431999</v>
       </c>
       <c r="Q12" t="n">
-        <v>119.1296182926661</v>
+        <v>127.5742452114771</v>
       </c>
       <c r="R12" t="n">
-        <v>57.94388663245537</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S12" t="n">
-        <v>17.33486577341397</v>
+        <v>18.56366576658209</v>
       </c>
       <c r="T12" t="n">
-        <v>3.761686339024191</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06139858007112394</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7824125066986938</v>
+        <v>0.8378746311508208</v>
       </c>
       <c r="H13" t="n">
-        <v>6.956358468648392</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I13" t="n">
-        <v>23.52927792872073</v>
+        <v>25.1971752713356</v>
       </c>
       <c r="J13" t="n">
-        <v>55.31656422359764</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K13" t="n">
-        <v>90.90210759644822</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L13" t="n">
-        <v>116.3234012231858</v>
+        <v>124.569106525823</v>
       </c>
       <c r="M13" t="n">
-        <v>122.6467168455052</v>
+        <v>131.3406569539418</v>
       </c>
       <c r="N13" t="n">
-        <v>119.7304520478102</v>
+        <v>128.2176696923798</v>
       </c>
       <c r="O13" t="n">
-        <v>110.5904514013754</v>
+        <v>118.4297705921179</v>
       </c>
       <c r="P13" t="n">
-        <v>94.62923626472198</v>
+        <v>101.3371281166411</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.51637817456063</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R13" t="n">
-        <v>35.18011143756126</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S13" t="n">
-        <v>13.63531613946723</v>
+        <v>14.60186970832839</v>
       </c>
       <c r="T13" t="n">
-        <v>3.343035255894418</v>
+        <v>3.580009787644415</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0426770458199288</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.744254469022213</v>
+        <v>1.867897761542258</v>
       </c>
       <c r="H14" t="n">
-        <v>17.86334608087374</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I14" t="n">
-        <v>67.24537041697891</v>
+        <v>72.01212845185798</v>
       </c>
       <c r="J14" t="n">
-        <v>148.0414177401742</v>
+        <v>158.5354876386974</v>
       </c>
       <c r="K14" t="n">
-        <v>221.8757094138844</v>
+        <v>237.6035998847812</v>
       </c>
       <c r="L14" t="n">
-        <v>275.256437120223</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M14" t="n">
-        <v>306.2758225336968</v>
+        <v>327.9865028214072</v>
       </c>
       <c r="N14" t="n">
-        <v>311.2316855438062</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O14" t="n">
-        <v>293.8872551674665</v>
+        <v>314.7197589700534</v>
       </c>
       <c r="P14" t="n">
-        <v>250.8259729634806</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q14" t="n">
-        <v>188.3598597916226</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R14" t="n">
-        <v>109.5675247897167</v>
+        <v>117.334332763479</v>
       </c>
       <c r="S14" t="n">
-        <v>39.7471987128437</v>
+        <v>42.56472024114425</v>
       </c>
       <c r="T14" t="n">
-        <v>7.635473938144739</v>
+        <v>8.176722451151239</v>
       </c>
       <c r="U14" t="n">
-        <v>0.139540357521777</v>
+        <v>0.1494318209233806</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9332584170810836</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H15" t="n">
-        <v>9.013311554440993</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I15" t="n">
-        <v>32.13192357055485</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J15" t="n">
-        <v>88.17245422080536</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K15" t="n">
-        <v>150.700768165238</v>
+        <v>161.3833488850657</v>
       </c>
       <c r="L15" t="n">
         <v>202.635780428066</v>
@@ -32093,22 +32095,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P15" t="n">
-        <v>178.2114252757729</v>
+        <v>190.8441275431999</v>
       </c>
       <c r="Q15" t="n">
-        <v>119.1296182926661</v>
+        <v>127.5742452114771</v>
       </c>
       <c r="R15" t="n">
-        <v>57.94388663245537</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S15" t="n">
-        <v>17.33486577341397</v>
+        <v>18.56366576658209</v>
       </c>
       <c r="T15" t="n">
-        <v>3.761686339024191</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06139858007112394</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7824125066986938</v>
+        <v>0.8378746311508207</v>
       </c>
       <c r="H16" t="n">
-        <v>6.956358468648392</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I16" t="n">
-        <v>23.52927792872073</v>
+        <v>25.1971752713356</v>
       </c>
       <c r="J16" t="n">
-        <v>55.31656422359764</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K16" t="n">
-        <v>90.90210759644822</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L16" t="n">
-        <v>116.3234012231858</v>
+        <v>124.569106525823</v>
       </c>
       <c r="M16" t="n">
-        <v>122.6467168455052</v>
+        <v>131.3406569539418</v>
       </c>
       <c r="N16" t="n">
-        <v>119.7304520478102</v>
+        <v>128.2176696923798</v>
       </c>
       <c r="O16" t="n">
-        <v>110.5904514013754</v>
+        <v>118.4297705921179</v>
       </c>
       <c r="P16" t="n">
-        <v>94.62923626472198</v>
+        <v>101.3371281166411</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.51637817456063</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R16" t="n">
-        <v>35.18011143756126</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S16" t="n">
-        <v>13.63531613946723</v>
+        <v>14.60186970832839</v>
       </c>
       <c r="T16" t="n">
-        <v>3.343035255894418</v>
+        <v>3.580009787644415</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0426770458199288</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.744254469022213</v>
+        <v>1.867897761542258</v>
       </c>
       <c r="H17" t="n">
-        <v>17.86334608087374</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I17" t="n">
-        <v>67.24537041697891</v>
+        <v>72.01212845185798</v>
       </c>
       <c r="J17" t="n">
-        <v>148.0414177401742</v>
+        <v>158.5354876386974</v>
       </c>
       <c r="K17" t="n">
-        <v>221.8757094138844</v>
+        <v>237.6035998847812</v>
       </c>
       <c r="L17" t="n">
-        <v>275.256437120223</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M17" t="n">
-        <v>306.2758225336968</v>
+        <v>327.9865028214072</v>
       </c>
       <c r="N17" t="n">
-        <v>311.2316855438062</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O17" t="n">
-        <v>293.8872551674665</v>
+        <v>314.7197589700534</v>
       </c>
       <c r="P17" t="n">
-        <v>250.8259729634806</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.3598597916226</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R17" t="n">
-        <v>109.5675247897167</v>
+        <v>117.334332763479</v>
       </c>
       <c r="S17" t="n">
-        <v>39.7471987128437</v>
+        <v>42.56472024114425</v>
       </c>
       <c r="T17" t="n">
-        <v>7.635473938144739</v>
+        <v>8.176722451151239</v>
       </c>
       <c r="U17" t="n">
-        <v>0.139540357521777</v>
+        <v>0.1494318209233806</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9332584170810836</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H18" t="n">
-        <v>9.013311554440993</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I18" t="n">
-        <v>32.13192357055485</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J18" t="n">
-        <v>88.17245422080536</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K18" t="n">
-        <v>150.700768165238</v>
+        <v>161.3833488850657</v>
       </c>
       <c r="L18" t="n">
         <v>202.635780428066</v>
@@ -32330,22 +32332,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P18" t="n">
-        <v>178.2114252757729</v>
+        <v>190.8441275431999</v>
       </c>
       <c r="Q18" t="n">
-        <v>119.1296182926661</v>
+        <v>127.5742452114771</v>
       </c>
       <c r="R18" t="n">
-        <v>57.94388663245537</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S18" t="n">
-        <v>17.33486577341397</v>
+        <v>18.56366576658209</v>
       </c>
       <c r="T18" t="n">
-        <v>3.761686339024191</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06139858007112394</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7824125066986938</v>
+        <v>0.8378746311508207</v>
       </c>
       <c r="H19" t="n">
-        <v>6.956358468648392</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I19" t="n">
-        <v>23.52927792872073</v>
+        <v>25.1971752713356</v>
       </c>
       <c r="J19" t="n">
-        <v>55.31656422359764</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K19" t="n">
-        <v>90.90210759644822</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L19" t="n">
-        <v>116.3234012231858</v>
+        <v>124.569106525823</v>
       </c>
       <c r="M19" t="n">
-        <v>122.6467168455052</v>
+        <v>131.3406569539418</v>
       </c>
       <c r="N19" t="n">
-        <v>119.7304520478102</v>
+        <v>128.2176696923798</v>
       </c>
       <c r="O19" t="n">
-        <v>110.5904514013754</v>
+        <v>118.4297705921179</v>
       </c>
       <c r="P19" t="n">
-        <v>94.62923626472198</v>
+        <v>101.3371281166411</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.51637817456063</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R19" t="n">
-        <v>35.18011143756126</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S19" t="n">
-        <v>13.63531613946723</v>
+        <v>14.60186970832839</v>
       </c>
       <c r="T19" t="n">
-        <v>3.343035255894418</v>
+        <v>3.580009787644415</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0426770458199288</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.744254469022213</v>
+        <v>1.867897761542258</v>
       </c>
       <c r="H20" t="n">
-        <v>17.86334608087374</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I20" t="n">
-        <v>67.24537041697891</v>
+        <v>72.01212845185798</v>
       </c>
       <c r="J20" t="n">
-        <v>148.0414177401742</v>
+        <v>158.5354876386974</v>
       </c>
       <c r="K20" t="n">
-        <v>221.8757094138844</v>
+        <v>237.6035998847812</v>
       </c>
       <c r="L20" t="n">
-        <v>275.256437120223</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M20" t="n">
-        <v>306.2758225336968</v>
+        <v>327.9865028214073</v>
       </c>
       <c r="N20" t="n">
-        <v>311.2316855438062</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O20" t="n">
-        <v>293.8872551674665</v>
+        <v>314.7197589700534</v>
       </c>
       <c r="P20" t="n">
-        <v>250.8259729634806</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.3598597916226</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R20" t="n">
-        <v>109.5675247897167</v>
+        <v>117.334332763479</v>
       </c>
       <c r="S20" t="n">
-        <v>39.7471987128437</v>
+        <v>42.56472024114425</v>
       </c>
       <c r="T20" t="n">
-        <v>7.635473938144739</v>
+        <v>8.176722451151239</v>
       </c>
       <c r="U20" t="n">
-        <v>0.139540357521777</v>
+        <v>0.1494318209233806</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9332584170810836</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H21" t="n">
-        <v>9.013311554440993</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I21" t="n">
-        <v>32.13192357055485</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J21" t="n">
-        <v>88.17245422080536</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K21" t="n">
-        <v>150.700768165238</v>
+        <v>161.3833488850657</v>
       </c>
       <c r="L21" t="n">
         <v>202.635780428066</v>
@@ -32567,22 +32569,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P21" t="n">
-        <v>178.2114252757729</v>
+        <v>190.8441275431999</v>
       </c>
       <c r="Q21" t="n">
-        <v>119.1296182926661</v>
+        <v>127.5742452114771</v>
       </c>
       <c r="R21" t="n">
-        <v>57.94388663245537</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S21" t="n">
-        <v>17.33486577341397</v>
+        <v>18.56366576658209</v>
       </c>
       <c r="T21" t="n">
-        <v>3.761686339024191</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06139858007112394</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7824125066986938</v>
+        <v>0.8378746311508208</v>
       </c>
       <c r="H22" t="n">
-        <v>6.956358468648392</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I22" t="n">
-        <v>23.52927792872073</v>
+        <v>25.1971752713356</v>
       </c>
       <c r="J22" t="n">
-        <v>55.31656422359764</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K22" t="n">
-        <v>90.90210759644822</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L22" t="n">
-        <v>116.3234012231858</v>
+        <v>124.569106525823</v>
       </c>
       <c r="M22" t="n">
-        <v>122.6467168455052</v>
+        <v>131.3406569539418</v>
       </c>
       <c r="N22" t="n">
-        <v>119.7304520478102</v>
+        <v>128.2176696923798</v>
       </c>
       <c r="O22" t="n">
-        <v>110.5904514013754</v>
+        <v>118.4297705921179</v>
       </c>
       <c r="P22" t="n">
-        <v>94.62923626472198</v>
+        <v>101.3371281166411</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.51637817456063</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R22" t="n">
-        <v>35.18011143756126</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S22" t="n">
-        <v>13.63531613946723</v>
+        <v>14.60186970832839</v>
       </c>
       <c r="T22" t="n">
-        <v>3.343035255894418</v>
+        <v>3.580009787644415</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0426770458199288</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.744254469022213</v>
+        <v>1.867897761542258</v>
       </c>
       <c r="H23" t="n">
-        <v>17.86334608087374</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I23" t="n">
-        <v>67.24537041697891</v>
+        <v>72.01212845185798</v>
       </c>
       <c r="J23" t="n">
-        <v>148.0414177401742</v>
+        <v>158.5354876386974</v>
       </c>
       <c r="K23" t="n">
-        <v>221.8757094138844</v>
+        <v>237.6035998847812</v>
       </c>
       <c r="L23" t="n">
-        <v>275.256437120223</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M23" t="n">
-        <v>306.2758225336968</v>
+        <v>327.9865028214073</v>
       </c>
       <c r="N23" t="n">
-        <v>311.2316855438062</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O23" t="n">
-        <v>293.8872551674665</v>
+        <v>314.7197589700534</v>
       </c>
       <c r="P23" t="n">
-        <v>250.8259729634806</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.3598597916226</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R23" t="n">
-        <v>109.5675247897167</v>
+        <v>117.334332763479</v>
       </c>
       <c r="S23" t="n">
-        <v>39.7471987128437</v>
+        <v>42.56472024114425</v>
       </c>
       <c r="T23" t="n">
-        <v>7.635473938144739</v>
+        <v>8.176722451151239</v>
       </c>
       <c r="U23" t="n">
-        <v>0.139540357521777</v>
+        <v>0.1494318209233806</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9332584170810836</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H24" t="n">
-        <v>9.013311554440993</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I24" t="n">
-        <v>32.13192357055485</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J24" t="n">
-        <v>88.17245422080536</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K24" t="n">
-        <v>150.700768165238</v>
+        <v>161.3833488850657</v>
       </c>
       <c r="L24" t="n">
-        <v>202.635780428066</v>
+        <v>209.0385349285648</v>
       </c>
       <c r="M24" t="n">
-        <v>207.8710246109518</v>
+        <v>214.5433687746295</v>
       </c>
       <c r="N24" t="n">
-        <v>192.087253921875</v>
+        <v>198.7595980855527</v>
       </c>
       <c r="O24" t="n">
-        <v>208.5470075</v>
+        <v>215.2193516636777</v>
       </c>
       <c r="P24" t="n">
-        <v>178.2114252757729</v>
+        <v>190.8441275431999</v>
       </c>
       <c r="Q24" t="n">
-        <v>119.1296182926661</v>
+        <v>127.5742452114771</v>
       </c>
       <c r="R24" t="n">
-        <v>57.94388663245537</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S24" t="n">
-        <v>17.33486577341397</v>
+        <v>18.56366576658209</v>
       </c>
       <c r="T24" t="n">
-        <v>3.761686339024191</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06139858007112394</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7824125066986938</v>
+        <v>0.8378746311508208</v>
       </c>
       <c r="H25" t="n">
-        <v>6.956358468648392</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I25" t="n">
-        <v>23.52927792872073</v>
+        <v>25.1971752713356</v>
       </c>
       <c r="J25" t="n">
-        <v>55.31656422359764</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K25" t="n">
-        <v>90.90210759644822</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L25" t="n">
-        <v>116.3234012231858</v>
+        <v>124.569106525823</v>
       </c>
       <c r="M25" t="n">
-        <v>122.6467168455052</v>
+        <v>131.3406569539418</v>
       </c>
       <c r="N25" t="n">
-        <v>119.7304520478102</v>
+        <v>128.2176696923798</v>
       </c>
       <c r="O25" t="n">
-        <v>110.5904514013754</v>
+        <v>118.4297705921179</v>
       </c>
       <c r="P25" t="n">
-        <v>94.62923626472198</v>
+        <v>101.3371281166411</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.51637817456063</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R25" t="n">
-        <v>35.18011143756126</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S25" t="n">
-        <v>13.63531613946723</v>
+        <v>14.60186970832839</v>
       </c>
       <c r="T25" t="n">
-        <v>3.343035255894418</v>
+        <v>3.580009787644415</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0426770458199288</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.744254469022213</v>
+        <v>1.867897761542258</v>
       </c>
       <c r="H26" t="n">
-        <v>17.86334608087374</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I26" t="n">
-        <v>67.24537041697891</v>
+        <v>72.01212845185798</v>
       </c>
       <c r="J26" t="n">
-        <v>148.0414177401742</v>
+        <v>158.5354876386974</v>
       </c>
       <c r="K26" t="n">
-        <v>221.8757094138844</v>
+        <v>237.6035998847812</v>
       </c>
       <c r="L26" t="n">
-        <v>275.256437120223</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M26" t="n">
-        <v>306.2758225336968</v>
+        <v>327.9865028214073</v>
       </c>
       <c r="N26" t="n">
-        <v>311.2316855438062</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O26" t="n">
-        <v>293.8872551674665</v>
+        <v>314.7197589700534</v>
       </c>
       <c r="P26" t="n">
-        <v>250.8259729634806</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q26" t="n">
-        <v>188.3598597916226</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R26" t="n">
-        <v>109.5675247897167</v>
+        <v>117.334332763479</v>
       </c>
       <c r="S26" t="n">
-        <v>39.7471987128437</v>
+        <v>42.56472024114425</v>
       </c>
       <c r="T26" t="n">
-        <v>7.635473938144739</v>
+        <v>8.176722451151239</v>
       </c>
       <c r="U26" t="n">
-        <v>0.139540357521777</v>
+        <v>0.1494318209233806</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9332584170810836</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H27" t="n">
-        <v>9.013311554440993</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I27" t="n">
-        <v>32.13192357055485</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J27" t="n">
-        <v>88.17245422080536</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K27" t="n">
-        <v>150.700768165238</v>
+        <v>161.3833488850657</v>
       </c>
       <c r="L27" t="n">
-        <v>202.635780428066</v>
+        <v>209.3081245917437</v>
       </c>
       <c r="M27" t="n">
-        <v>207.8710246109518</v>
+        <v>214.2737791114506</v>
       </c>
       <c r="N27" t="n">
-        <v>192.087253921875</v>
+        <v>198.7595980855527</v>
       </c>
       <c r="O27" t="n">
-        <v>208.5470075</v>
+        <v>215.2193516636777</v>
       </c>
       <c r="P27" t="n">
-        <v>178.2114252757729</v>
+        <v>190.8441275431999</v>
       </c>
       <c r="Q27" t="n">
-        <v>119.1296182926661</v>
+        <v>127.5742452114771</v>
       </c>
       <c r="R27" t="n">
-        <v>57.94388663245537</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S27" t="n">
-        <v>17.33486577341397</v>
+        <v>18.56366576658209</v>
       </c>
       <c r="T27" t="n">
-        <v>3.761686339024191</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06139858007112394</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7824125066986938</v>
+        <v>0.8378746311508208</v>
       </c>
       <c r="H28" t="n">
-        <v>6.956358468648392</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I28" t="n">
-        <v>23.52927792872073</v>
+        <v>25.1971752713356</v>
       </c>
       <c r="J28" t="n">
-        <v>55.31656422359764</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K28" t="n">
-        <v>90.90210759644822</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L28" t="n">
-        <v>116.3234012231858</v>
+        <v>124.569106525823</v>
       </c>
       <c r="M28" t="n">
-        <v>122.6467168455052</v>
+        <v>131.3406569539418</v>
       </c>
       <c r="N28" t="n">
-        <v>119.7304520478102</v>
+        <v>128.2176696923798</v>
       </c>
       <c r="O28" t="n">
-        <v>110.5904514013754</v>
+        <v>118.4297705921179</v>
       </c>
       <c r="P28" t="n">
-        <v>94.62923626472198</v>
+        <v>101.3371281166411</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.51637817456063</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R28" t="n">
-        <v>35.18011143756126</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S28" t="n">
-        <v>13.63531613946723</v>
+        <v>14.60186970832839</v>
       </c>
       <c r="T28" t="n">
-        <v>3.343035255894418</v>
+        <v>3.580009787644415</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0426770458199288</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.744254469022213</v>
+        <v>1.867897761542258</v>
       </c>
       <c r="H29" t="n">
-        <v>17.86334608087374</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I29" t="n">
-        <v>67.24537041697891</v>
+        <v>72.01212845185798</v>
       </c>
       <c r="J29" t="n">
-        <v>148.0414177401742</v>
+        <v>158.5354876386974</v>
       </c>
       <c r="K29" t="n">
-        <v>221.8757094138844</v>
+        <v>237.6035998847812</v>
       </c>
       <c r="L29" t="n">
-        <v>275.256437120223</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M29" t="n">
-        <v>306.2758225336968</v>
+        <v>327.9865028214073</v>
       </c>
       <c r="N29" t="n">
-        <v>311.2316855438062</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O29" t="n">
-        <v>293.8872551674665</v>
+        <v>314.7197589700534</v>
       </c>
       <c r="P29" t="n">
-        <v>250.8259729634806</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q29" t="n">
-        <v>188.3598597916226</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R29" t="n">
-        <v>109.5675247897167</v>
+        <v>117.334332763479</v>
       </c>
       <c r="S29" t="n">
-        <v>39.7471987128437</v>
+        <v>42.56472024114425</v>
       </c>
       <c r="T29" t="n">
-        <v>7.635473938144739</v>
+        <v>8.176722451151239</v>
       </c>
       <c r="U29" t="n">
-        <v>0.139540357521777</v>
+        <v>0.1494318209233806</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9332584170810836</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H30" t="n">
-        <v>9.013311554440993</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I30" t="n">
-        <v>32.13192357055485</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J30" t="n">
-        <v>88.17245422080536</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K30" t="n">
-        <v>150.700768165238</v>
+        <v>161.3833488850657</v>
       </c>
       <c r="L30" t="n">
-        <v>202.635780428066</v>
+        <v>209.3081245917437</v>
       </c>
       <c r="M30" t="n">
-        <v>207.8710246109518</v>
+        <v>214.2737791114506</v>
       </c>
       <c r="N30" t="n">
-        <v>192.087253921875</v>
+        <v>198.7595980855527</v>
       </c>
       <c r="O30" t="n">
-        <v>208.5470075</v>
+        <v>215.2193516636777</v>
       </c>
       <c r="P30" t="n">
-        <v>178.2114252757729</v>
+        <v>190.8441275431999</v>
       </c>
       <c r="Q30" t="n">
-        <v>119.1296182926661</v>
+        <v>127.5742452114771</v>
       </c>
       <c r="R30" t="n">
-        <v>57.94388663245537</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S30" t="n">
-        <v>17.33486577341397</v>
+        <v>18.56366576658209</v>
       </c>
       <c r="T30" t="n">
-        <v>3.761686339024191</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06139858007112394</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7824125066986938</v>
+        <v>0.8378746311508208</v>
       </c>
       <c r="H31" t="n">
-        <v>6.956358468648392</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I31" t="n">
-        <v>23.52927792872073</v>
+        <v>25.1971752713356</v>
       </c>
       <c r="J31" t="n">
-        <v>55.31656422359764</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K31" t="n">
-        <v>90.90210759644822</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L31" t="n">
-        <v>116.3234012231858</v>
+        <v>124.569106525823</v>
       </c>
       <c r="M31" t="n">
-        <v>122.6467168455052</v>
+        <v>131.3406569539418</v>
       </c>
       <c r="N31" t="n">
-        <v>119.7304520478102</v>
+        <v>128.2176696923798</v>
       </c>
       <c r="O31" t="n">
-        <v>110.5904514013754</v>
+        <v>118.4297705921179</v>
       </c>
       <c r="P31" t="n">
-        <v>94.62923626472198</v>
+        <v>101.3371281166411</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.51637817456063</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R31" t="n">
-        <v>35.18011143756126</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S31" t="n">
-        <v>13.63531613946723</v>
+        <v>14.60186970832839</v>
       </c>
       <c r="T31" t="n">
-        <v>3.343035255894418</v>
+        <v>3.580009787644415</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0426770458199288</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.744254469022213</v>
+        <v>1.867897761542258</v>
       </c>
       <c r="H32" t="n">
-        <v>17.86334608087374</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I32" t="n">
-        <v>67.24537041697891</v>
+        <v>72.01212845185798</v>
       </c>
       <c r="J32" t="n">
-        <v>148.0414177401742</v>
+        <v>158.5354876386974</v>
       </c>
       <c r="K32" t="n">
-        <v>221.8757094138844</v>
+        <v>237.6035998847812</v>
       </c>
       <c r="L32" t="n">
-        <v>275.256437120223</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M32" t="n">
-        <v>306.2758225336968</v>
+        <v>327.9865028214073</v>
       </c>
       <c r="N32" t="n">
-        <v>311.2316855438062</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O32" t="n">
-        <v>293.8872551674665</v>
+        <v>314.7197589700534</v>
       </c>
       <c r="P32" t="n">
-        <v>250.8259729634806</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q32" t="n">
-        <v>188.3598597916226</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R32" t="n">
-        <v>109.5675247897167</v>
+        <v>117.334332763479</v>
       </c>
       <c r="S32" t="n">
-        <v>39.7471987128437</v>
+        <v>42.56472024114425</v>
       </c>
       <c r="T32" t="n">
-        <v>7.635473938144739</v>
+        <v>8.176722451151239</v>
       </c>
       <c r="U32" t="n">
-        <v>0.139540357521777</v>
+        <v>0.1494318209233806</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9332584170810836</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H33" t="n">
-        <v>9.013311554440993</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I33" t="n">
-        <v>32.13192357055485</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J33" t="n">
-        <v>88.17245422080536</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K33" t="n">
-        <v>150.700768165238</v>
+        <v>161.3833488850657</v>
       </c>
       <c r="L33" t="n">
-        <v>202.635780428066</v>
+        <v>209.0385349285648</v>
       </c>
       <c r="M33" t="n">
-        <v>207.8710246109518</v>
+        <v>214.5433687746295</v>
       </c>
       <c r="N33" t="n">
-        <v>192.087253921875</v>
+        <v>198.7595980855527</v>
       </c>
       <c r="O33" t="n">
-        <v>208.5470075</v>
+        <v>215.2193516636777</v>
       </c>
       <c r="P33" t="n">
-        <v>178.2114252757729</v>
+        <v>190.8441275431999</v>
       </c>
       <c r="Q33" t="n">
-        <v>119.1296182926661</v>
+        <v>127.5742452114771</v>
       </c>
       <c r="R33" t="n">
-        <v>57.94388663245537</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S33" t="n">
-        <v>17.33486577341397</v>
+        <v>18.56366576658209</v>
       </c>
       <c r="T33" t="n">
-        <v>3.761686339024191</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06139858007112394</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7824125066986938</v>
+        <v>0.8378746311508208</v>
       </c>
       <c r="H34" t="n">
-        <v>6.956358468648392</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I34" t="n">
-        <v>23.52927792872073</v>
+        <v>25.1971752713356</v>
       </c>
       <c r="J34" t="n">
-        <v>55.31656422359764</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K34" t="n">
-        <v>90.90210759644822</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L34" t="n">
-        <v>116.3234012231858</v>
+        <v>124.569106525823</v>
       </c>
       <c r="M34" t="n">
-        <v>122.6467168455052</v>
+        <v>131.3406569539418</v>
       </c>
       <c r="N34" t="n">
-        <v>119.7304520478102</v>
+        <v>128.2176696923798</v>
       </c>
       <c r="O34" t="n">
-        <v>110.5904514013754</v>
+        <v>118.4297705921179</v>
       </c>
       <c r="P34" t="n">
-        <v>94.62923626472198</v>
+        <v>101.3371281166411</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.51637817456063</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R34" t="n">
-        <v>35.18011143756126</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S34" t="n">
-        <v>13.63531613946723</v>
+        <v>14.60186970832839</v>
       </c>
       <c r="T34" t="n">
-        <v>3.343035255894418</v>
+        <v>3.580009787644415</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0426770458199288</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.744254469022213</v>
+        <v>1.867897761542258</v>
       </c>
       <c r="H35" t="n">
-        <v>17.86334608087374</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I35" t="n">
-        <v>67.24537041697891</v>
+        <v>72.01212845185798</v>
       </c>
       <c r="J35" t="n">
-        <v>148.0414177401742</v>
+        <v>158.5354876386974</v>
       </c>
       <c r="K35" t="n">
-        <v>221.8757094138844</v>
+        <v>237.6035998847812</v>
       </c>
       <c r="L35" t="n">
-        <v>275.256437120223</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M35" t="n">
-        <v>306.2758225336968</v>
+        <v>327.9865028214073</v>
       </c>
       <c r="N35" t="n">
-        <v>311.2316855438062</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O35" t="n">
-        <v>293.8872551674665</v>
+        <v>314.7197589700534</v>
       </c>
       <c r="P35" t="n">
-        <v>250.8259729634806</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q35" t="n">
-        <v>188.3598597916226</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R35" t="n">
-        <v>109.5675247897167</v>
+        <v>117.334332763479</v>
       </c>
       <c r="S35" t="n">
-        <v>39.7471987128437</v>
+        <v>42.56472024114425</v>
       </c>
       <c r="T35" t="n">
-        <v>7.635473938144739</v>
+        <v>8.176722451151239</v>
       </c>
       <c r="U35" t="n">
-        <v>0.139540357521777</v>
+        <v>0.1494318209233806</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9332584170810836</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H36" t="n">
-        <v>9.013311554440993</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I36" t="n">
-        <v>32.13192357055485</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J36" t="n">
-        <v>88.17245422080536</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K36" t="n">
-        <v>150.700768165238</v>
+        <v>161.3833488850657</v>
       </c>
       <c r="L36" t="n">
-        <v>202.635780428066</v>
+        <v>209.3081245917437</v>
       </c>
       <c r="M36" t="n">
-        <v>207.8710246109518</v>
+        <v>214.5433687746295</v>
       </c>
       <c r="N36" t="n">
-        <v>192.087253921875</v>
+        <v>198.7595980855527</v>
       </c>
       <c r="O36" t="n">
-        <v>208.5470075</v>
+        <v>214.9497620004988</v>
       </c>
       <c r="P36" t="n">
-        <v>178.2114252757729</v>
+        <v>190.8441275431999</v>
       </c>
       <c r="Q36" t="n">
-        <v>119.1296182926661</v>
+        <v>127.5742452114771</v>
       </c>
       <c r="R36" t="n">
-        <v>57.94388663245537</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S36" t="n">
-        <v>17.33486577341397</v>
+        <v>18.56366576658209</v>
       </c>
       <c r="T36" t="n">
-        <v>3.761686339024191</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06139858007112394</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7824125066986938</v>
+        <v>0.8378746311508208</v>
       </c>
       <c r="H37" t="n">
-        <v>6.956358468648392</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I37" t="n">
-        <v>23.52927792872073</v>
+        <v>25.1971752713356</v>
       </c>
       <c r="J37" t="n">
-        <v>55.31656422359764</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K37" t="n">
-        <v>90.90210759644822</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L37" t="n">
-        <v>116.3234012231858</v>
+        <v>124.569106525823</v>
       </c>
       <c r="M37" t="n">
-        <v>122.6467168455052</v>
+        <v>131.3406569539418</v>
       </c>
       <c r="N37" t="n">
-        <v>119.7304520478102</v>
+        <v>128.2176696923798</v>
       </c>
       <c r="O37" t="n">
-        <v>110.5904514013754</v>
+        <v>118.4297705921179</v>
       </c>
       <c r="P37" t="n">
-        <v>94.62923626472198</v>
+        <v>101.3371281166411</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.51637817456063</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R37" t="n">
-        <v>35.18011143756126</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S37" t="n">
-        <v>13.63531613946723</v>
+        <v>14.60186970832839</v>
       </c>
       <c r="T37" t="n">
-        <v>3.343035255894418</v>
+        <v>3.580009787644415</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0426770458199288</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.744254469022213</v>
+        <v>1.867897761542258</v>
       </c>
       <c r="H38" t="n">
-        <v>17.86334608087374</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I38" t="n">
-        <v>67.24537041697891</v>
+        <v>72.01212845185798</v>
       </c>
       <c r="J38" t="n">
-        <v>148.0414177401742</v>
+        <v>158.5354876386974</v>
       </c>
       <c r="K38" t="n">
-        <v>221.8757094138844</v>
+        <v>237.6035998847812</v>
       </c>
       <c r="L38" t="n">
-        <v>275.256437120223</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M38" t="n">
-        <v>306.2758225336968</v>
+        <v>327.9865028214073</v>
       </c>
       <c r="N38" t="n">
-        <v>311.2316855438062</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O38" t="n">
-        <v>293.8872551674665</v>
+        <v>314.7197589700534</v>
       </c>
       <c r="P38" t="n">
-        <v>250.8259729634806</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q38" t="n">
-        <v>188.3598597916226</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R38" t="n">
-        <v>109.5675247897167</v>
+        <v>117.334332763479</v>
       </c>
       <c r="S38" t="n">
-        <v>39.7471987128437</v>
+        <v>42.56472024114425</v>
       </c>
       <c r="T38" t="n">
-        <v>7.635473938144739</v>
+        <v>8.176722451151239</v>
       </c>
       <c r="U38" t="n">
-        <v>0.139540357521777</v>
+        <v>0.1494318209233806</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9332584170810836</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H39" t="n">
-        <v>9.013311554440993</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I39" t="n">
-        <v>32.13192357055485</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J39" t="n">
-        <v>88.17245422080536</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K39" t="n">
-        <v>150.700768165238</v>
+        <v>161.3833488850657</v>
       </c>
       <c r="L39" t="n">
-        <v>202.635780428066</v>
+        <v>209.0385349285648</v>
       </c>
       <c r="M39" t="n">
-        <v>207.8710246109518</v>
+        <v>214.5433687746295</v>
       </c>
       <c r="N39" t="n">
-        <v>192.087253921875</v>
+        <v>198.7595980855527</v>
       </c>
       <c r="O39" t="n">
-        <v>208.5470075</v>
+        <v>215.2193516636777</v>
       </c>
       <c r="P39" t="n">
-        <v>178.2114252757729</v>
+        <v>190.8441275431999</v>
       </c>
       <c r="Q39" t="n">
-        <v>119.1296182926661</v>
+        <v>127.5742452114771</v>
       </c>
       <c r="R39" t="n">
-        <v>57.94388663245537</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S39" t="n">
-        <v>17.33486577341397</v>
+        <v>18.56366576658209</v>
       </c>
       <c r="T39" t="n">
-        <v>3.761686339024191</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06139858007112394</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7824125066986938</v>
+        <v>0.8378746311508208</v>
       </c>
       <c r="H40" t="n">
-        <v>6.956358468648392</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I40" t="n">
-        <v>23.52927792872073</v>
+        <v>25.1971752713356</v>
       </c>
       <c r="J40" t="n">
-        <v>55.31656422359764</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K40" t="n">
-        <v>90.90210759644822</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L40" t="n">
-        <v>116.3234012231858</v>
+        <v>124.569106525823</v>
       </c>
       <c r="M40" t="n">
-        <v>122.6467168455052</v>
+        <v>131.3406569539418</v>
       </c>
       <c r="N40" t="n">
-        <v>119.7304520478102</v>
+        <v>128.2176696923798</v>
       </c>
       <c r="O40" t="n">
-        <v>110.5904514013754</v>
+        <v>118.4297705921179</v>
       </c>
       <c r="P40" t="n">
-        <v>94.62923626472198</v>
+        <v>101.3371281166411</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.51637817456063</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R40" t="n">
-        <v>35.18011143756126</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S40" t="n">
-        <v>13.63531613946723</v>
+        <v>14.60186970832839</v>
       </c>
       <c r="T40" t="n">
-        <v>3.343035255894418</v>
+        <v>3.580009787644415</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0426770458199288</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.744254469022213</v>
+        <v>1.867897761542258</v>
       </c>
       <c r="H41" t="n">
-        <v>17.86334608087374</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I41" t="n">
-        <v>67.24537041697891</v>
+        <v>72.01212845185798</v>
       </c>
       <c r="J41" t="n">
-        <v>148.0414177401742</v>
+        <v>158.5354876386974</v>
       </c>
       <c r="K41" t="n">
-        <v>221.8757094138844</v>
+        <v>237.6035998847812</v>
       </c>
       <c r="L41" t="n">
-        <v>275.256437120223</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M41" t="n">
-        <v>306.2758225336968</v>
+        <v>327.9865028214073</v>
       </c>
       <c r="N41" t="n">
-        <v>311.2316855438062</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O41" t="n">
-        <v>293.8872551674665</v>
+        <v>314.7197589700534</v>
       </c>
       <c r="P41" t="n">
-        <v>250.8259729634806</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q41" t="n">
-        <v>188.3598597916226</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R41" t="n">
-        <v>109.5675247897167</v>
+        <v>117.334332763479</v>
       </c>
       <c r="S41" t="n">
-        <v>39.7471987128437</v>
+        <v>42.56472024114425</v>
       </c>
       <c r="T41" t="n">
-        <v>7.635473938144739</v>
+        <v>8.176722451151239</v>
       </c>
       <c r="U41" t="n">
-        <v>0.139540357521777</v>
+        <v>0.1494318209233806</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9332584170810836</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H42" t="n">
-        <v>9.013311554440993</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I42" t="n">
-        <v>32.13192357055485</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J42" t="n">
-        <v>88.17245422080536</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K42" t="n">
-        <v>150.700768165238</v>
+        <v>161.3833488850657</v>
       </c>
       <c r="L42" t="n">
-        <v>202.635780428066</v>
+        <v>209.3081245917437</v>
       </c>
       <c r="M42" t="n">
-        <v>207.8710246109518</v>
+        <v>214.5433687746295</v>
       </c>
       <c r="N42" t="n">
-        <v>192.087253921875</v>
+        <v>198.4900084223738</v>
       </c>
       <c r="O42" t="n">
-        <v>208.5470075</v>
+        <v>215.2193516636777</v>
       </c>
       <c r="P42" t="n">
-        <v>178.2114252757729</v>
+        <v>190.8441275431999</v>
       </c>
       <c r="Q42" t="n">
-        <v>119.1296182926661</v>
+        <v>127.5742452114771</v>
       </c>
       <c r="R42" t="n">
-        <v>57.94388663245537</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S42" t="n">
-        <v>17.33486577341397</v>
+        <v>18.56366576658209</v>
       </c>
       <c r="T42" t="n">
-        <v>3.761686339024191</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06139858007112394</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7824125066986938</v>
+        <v>0.8378746311508208</v>
       </c>
       <c r="H43" t="n">
-        <v>6.956358468648392</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I43" t="n">
-        <v>23.52927792872073</v>
+        <v>25.1971752713356</v>
       </c>
       <c r="J43" t="n">
-        <v>55.31656422359764</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K43" t="n">
-        <v>90.90210759644822</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L43" t="n">
-        <v>116.3234012231858</v>
+        <v>124.569106525823</v>
       </c>
       <c r="M43" t="n">
-        <v>122.6467168455052</v>
+        <v>131.3406569539418</v>
       </c>
       <c r="N43" t="n">
-        <v>119.7304520478102</v>
+        <v>128.2176696923798</v>
       </c>
       <c r="O43" t="n">
-        <v>110.5904514013754</v>
+        <v>118.4297705921179</v>
       </c>
       <c r="P43" t="n">
-        <v>94.62923626472198</v>
+        <v>101.3371281166411</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.51637817456063</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R43" t="n">
-        <v>35.18011143756126</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S43" t="n">
-        <v>13.63531613946723</v>
+        <v>14.60186970832839</v>
       </c>
       <c r="T43" t="n">
-        <v>3.343035255894418</v>
+        <v>3.580009787644415</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0426770458199288</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.744254469022213</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H44" t="n">
-        <v>17.86334608087374</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I44" t="n">
-        <v>67.24537041697891</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J44" t="n">
-        <v>148.0414177401742</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K44" t="n">
-        <v>221.8757094138844</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L44" t="n">
-        <v>275.256437120223</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M44" t="n">
-        <v>306.2758225336968</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N44" t="n">
-        <v>311.2316855438062</v>
+        <v>342.1889496736919</v>
       </c>
       <c r="O44" t="n">
-        <v>293.8872551674665</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P44" t="n">
-        <v>250.8259729634806</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q44" t="n">
-        <v>188.3598597916226</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R44" t="n">
-        <v>109.5675247897167</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S44" t="n">
-        <v>39.7471987128437</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T44" t="n">
-        <v>7.635473938144739</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U44" t="n">
-        <v>0.139540357521777</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9332584170810836</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H45" t="n">
-        <v>9.013311554440993</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I45" t="n">
-        <v>32.13192357055485</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J45" t="n">
-        <v>88.17245422080536</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K45" t="n">
-        <v>150.700768165238</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L45" t="n">
-        <v>202.635780428066</v>
+        <v>209.3081245917437</v>
       </c>
       <c r="M45" t="n">
-        <v>207.8710246109518</v>
+        <v>214.5433687746295</v>
       </c>
       <c r="N45" t="n">
-        <v>192.087253921875</v>
+        <v>198.7595980855527</v>
       </c>
       <c r="O45" t="n">
-        <v>208.5470075</v>
+        <v>214.9497620004988</v>
       </c>
       <c r="P45" t="n">
-        <v>178.2114252757729</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q45" t="n">
-        <v>119.1296182926661</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R45" t="n">
-        <v>57.94388663245537</v>
+        <v>63.70738786485351</v>
       </c>
       <c r="S45" t="n">
-        <v>17.33486577341397</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T45" t="n">
-        <v>3.761686339024191</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06139858007112394</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7824125066986938</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H46" t="n">
-        <v>6.956358468648392</v>
+        <v>7.648286175558571</v>
       </c>
       <c r="I46" t="n">
-        <v>23.52927792872073</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J46" t="n">
-        <v>55.31656422359764</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K46" t="n">
-        <v>90.90210759644822</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L46" t="n">
-        <v>116.3234012231858</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M46" t="n">
-        <v>122.6467168455052</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N46" t="n">
-        <v>119.7304520478102</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O46" t="n">
-        <v>110.5904514013754</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P46" t="n">
-        <v>94.62923626472198</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.51637817456063</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R46" t="n">
-        <v>35.18011143756126</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S46" t="n">
-        <v>13.63531613946723</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T46" t="n">
-        <v>3.343035255894418</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0426770458199288</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36361,19 +36363,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>6.40275450049878</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36440,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>6.40275450049878</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36598,16 +36600,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>6.402754500498782</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>6.40275450049878</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36838,16 +36840,16 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>6.40275450049878</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>6.40275450049878</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37075,16 +37077,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>6.40275450049878</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37151,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>6.40275450049878</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37309,19 +37311,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>6.40275450049878</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>6.402754500498782</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37546,19 +37548,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>6.40275450049878</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37625,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>6.40275450049878</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37786,16 +37788,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>6.40275450049878</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>6.40275450049878</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>6.341407930806724</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.06134656969205565</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>6.672344163677678</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>6.402754500498782</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_6_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_6_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>227800.2972511826</v>
+        <v>92801.28682182188</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1667509.738039591</v>
+        <v>1542048.442687737</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24051924.57666196</v>
+        <v>23774634.31479754</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5180105.508208515</v>
+        <v>5305620.296330782</v>
       </c>
     </row>
     <row r="11">
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>13.18456318129113</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1934,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>13.18456318129113</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>13.18456318129113</v>
       </c>
     </row>
     <row r="21">
@@ -2165,10 +2165,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>13.18456318129113</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2204,10 +2204,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2323,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>26.05066571501089</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>5.877000739367297</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="X23" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>3.702612301505245</v>
       </c>
       <c r="C24" t="n">
-        <v>5.877000739367299</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2441,28 +2441,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>22.34805341350565</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="S24" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="V26" t="n">
-        <v>5.877000739367299</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="W26" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>26.0506657150109</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2678,25 +2678,25 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>22.34805341350565</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="S27" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>5.877000739367299</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>3.702612301505241</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>26.05066571501089</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>5.877000739367297</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="W29" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2915,25 +2915,25 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>22.34805341350565</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="S30" t="n">
-        <v>5.877000739367297</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="V30" t="n">
-        <v>6.672344163677678</v>
+        <v>3.702612301505241</v>
       </c>
       <c r="W30" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3073,19 +3073,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>5.877000739367299</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>26.05066571501089</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
     </row>
     <row r="33">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>5.877000739367299</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3152,31 +3152,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>26.0506657150109</v>
       </c>
     </row>
     <row r="34">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>26.05066571501089</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3286,10 +3286,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>5.877000739367299</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3347,10 +3347,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3389,25 +3389,25 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>22.34805341350565</v>
       </c>
       <c r="R36" t="n">
-        <v>5.877000739367297</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>3.702612301505241</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>26.0506657150109</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.877000739367299</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="W38" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>3.702612301505245</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3626,28 +3626,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.672344163677678</v>
+        <v>22.34805341350565</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>5.877000739367299</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3784,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>15.28960210151313</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>15.28960210151313</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.46708153101276</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>5.877000739367297</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.672344163677678</v>
+        <v>15.28960210151313</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>5.877000739367299</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3863,10 +3863,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>13.46708153101276</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>15.28960210151313</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>15.28960210151313</v>
       </c>
       <c r="W42" t="n">
-        <v>6.672344163677678</v>
+        <v>15.28960210151313</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6.672344163677678</v>
+        <v>15.28960210151313</v>
       </c>
       <c r="C44" t="n">
-        <v>5.877000739367299</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>15.28960210151313</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>15.28960210151313</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.672344163677678</v>
+        <v>13.46708153101276</v>
       </c>
     </row>
     <row r="45">
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>15.28960210151313</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4100,25 +4100,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>5.877000739367297</v>
+        <v>13.46708153101276</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>6.672344163677678</v>
+        <v>15.28960210151313</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>15.28960210151313</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>16.01666962304894</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>16.28259082596015</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>31.10175243980917</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>45.92091405365819</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>29.6352992175738</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>14.51524859636268</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>31.43760925162216</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>16.31755863041104</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>15.417915618449</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>30.23707723229803</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>45.05623884614702</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>44.75534983878492</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>31.43760925162216</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>31.43760925162216</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>16.31755863041104</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>16.01666962304894</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>30.83583123689796</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>45.65499285074698</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>45.92091405365824</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>46.55765987283328</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>29.6352992175738</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>29.6352992175738</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>14.51524859636268</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>15.41791561844897</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>30.237077232298</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>45.05623884614702</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.6352992175738</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>29.6352992175738</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>29.6352992175738</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>29.6352992175738</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>29.6352992175738</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>29.6352992175738</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>29.6352992175738</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>29.6352992175738</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.197508009199921</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.273529112566617</v>
+        <v>88.42967655257422</v>
       </c>
       <c r="C23" t="n">
-        <v>7.273529112566617</v>
+        <v>88.42967655257422</v>
       </c>
       <c r="D23" t="n">
-        <v>7.273529112566617</v>
+        <v>62.11587280003796</v>
       </c>
       <c r="E23" t="n">
-        <v>7.273529112566617</v>
+        <v>32.24098207281693</v>
       </c>
       <c r="F23" t="n">
-        <v>7.273529112566617</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="G23" t="n">
-        <v>7.273529112566617</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.699737855028834</v>
       </c>
       <c r="L23" t="n">
-        <v>6.872514488588006</v>
+        <v>31.98011825677816</v>
       </c>
       <c r="M23" t="n">
-        <v>13.47813521062891</v>
+        <v>61.26049865852748</v>
       </c>
       <c r="N23" t="n">
-        <v>20.08375593266981</v>
+        <v>90.54087906027681</v>
       </c>
       <c r="O23" t="n">
-        <v>20.08375593266981</v>
+        <v>103.9729002862924</v>
       </c>
       <c r="P23" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="Q23" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="R23" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="S23" t="n">
-        <v>20.75301227151142</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="T23" t="n">
-        <v>14.01327069203902</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="U23" t="n">
-        <v>14.01327069203902</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="V23" t="n">
-        <v>14.01327069203902</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="W23" t="n">
-        <v>14.01327069203902</v>
+        <v>88.42967655257422</v>
       </c>
       <c r="X23" t="n">
-        <v>7.273529112566617</v>
+        <v>88.42967655257422</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.273529112566617</v>
+        <v>88.42967655257422</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13.20989349576591</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="C24" t="n">
-        <v>7.273529112566617</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="L24" t="n">
-        <v>6.872514488588006</v>
+        <v>30.46342607454728</v>
       </c>
       <c r="M24" t="n">
-        <v>13.47813521062891</v>
+        <v>59.7438064762966</v>
       </c>
       <c r="N24" t="n">
-        <v>20.08375593266981</v>
+        <v>89.02418687804592</v>
       </c>
       <c r="O24" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="P24" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="Q24" t="n">
-        <v>26.68937665471071</v>
+        <v>95.73077595302186</v>
       </c>
       <c r="R24" t="n">
-        <v>26.68937665471071</v>
+        <v>65.85588522580083</v>
       </c>
       <c r="S24" t="n">
-        <v>19.94963507523831</v>
+        <v>65.85588522580083</v>
       </c>
       <c r="T24" t="n">
-        <v>19.94963507523831</v>
+        <v>65.85588522580083</v>
       </c>
       <c r="U24" t="n">
-        <v>13.20989349576591</v>
+        <v>65.85588522580083</v>
       </c>
       <c r="V24" t="n">
-        <v>13.20989349576591</v>
+        <v>65.85588522580083</v>
       </c>
       <c r="W24" t="n">
-        <v>13.20989349576591</v>
+        <v>35.9809944985798</v>
       </c>
       <c r="X24" t="n">
-        <v>13.20989349576591</v>
+        <v>6.106103771358779</v>
       </c>
       <c r="Y24" t="n">
-        <v>13.20989349576591</v>
+        <v>6.106103771358779</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="N25" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="P25" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="R25" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="S25" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="T25" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="U25" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="W25" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="X25" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="L26" t="n">
-        <v>7.139408255135116</v>
+        <v>31.64647174734523</v>
       </c>
       <c r="M26" t="n">
-        <v>13.74502897717602</v>
+        <v>60.92685214909455</v>
       </c>
       <c r="N26" t="n">
-        <v>20.35064969921692</v>
+        <v>74.69251988454307</v>
       </c>
       <c r="O26" t="n">
-        <v>26.68937665471071</v>
+        <v>103.9729002862924</v>
       </c>
       <c r="P26" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="Q26" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="R26" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="S26" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="T26" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="U26" t="n">
-        <v>19.94963507523831</v>
+        <v>88.42967655257422</v>
       </c>
       <c r="V26" t="n">
-        <v>14.01327069203902</v>
+        <v>58.55478582535319</v>
       </c>
       <c r="W26" t="n">
-        <v>7.273529112566617</v>
+        <v>28.67989509813217</v>
       </c>
       <c r="X26" t="n">
-        <v>7.273529112566617</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.273529112566617</v>
+        <v>2.366091345595905</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.273529112566617</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="C27" t="n">
-        <v>7.273529112566617</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="D27" t="n">
-        <v>7.273529112566617</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="E27" t="n">
-        <v>7.273529112566617</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="F27" t="n">
-        <v>7.273529112566617</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="G27" t="n">
-        <v>7.273529112566617</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="H27" t="n">
-        <v>7.273529112566617</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="I27" t="n">
-        <v>7.273529112566617</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="L27" t="n">
-        <v>7.139408255135116</v>
+        <v>30.46342607454728</v>
       </c>
       <c r="M27" t="n">
-        <v>13.47813521062891</v>
+        <v>59.7438064762966</v>
       </c>
       <c r="N27" t="n">
-        <v>20.08375593266981</v>
+        <v>89.02418687804592</v>
       </c>
       <c r="O27" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="P27" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="Q27" t="n">
-        <v>26.68937665471071</v>
+        <v>95.73077595302186</v>
       </c>
       <c r="R27" t="n">
-        <v>26.68937665471071</v>
+        <v>65.85588522580083</v>
       </c>
       <c r="S27" t="n">
-        <v>19.94963507523831</v>
+        <v>65.85588522580083</v>
       </c>
       <c r="T27" t="n">
-        <v>13.20989349576591</v>
+        <v>65.85588522580083</v>
       </c>
       <c r="U27" t="n">
-        <v>7.273529112566617</v>
+        <v>35.9809944985798</v>
       </c>
       <c r="V27" t="n">
-        <v>7.273529112566617</v>
+        <v>32.24098207281693</v>
       </c>
       <c r="W27" t="n">
-        <v>7.273529112566617</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="X27" t="n">
-        <v>7.273529112566617</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.273529112566617</v>
+        <v>2.366091345595905</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="L28" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="M28" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="N28" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="O28" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="P28" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="R28" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="S28" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="T28" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="U28" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="W28" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="X28" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.5337875330942142</v>
+        <v>58.55478582535319</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5337875330942142</v>
+        <v>32.24098207281693</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="I29" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="K29" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="L29" t="n">
-        <v>0.5337875330942142</v>
+        <v>31.64647174734523</v>
       </c>
       <c r="M29" t="n">
-        <v>6.872514488588006</v>
+        <v>60.92685214909455</v>
       </c>
       <c r="N29" t="n">
-        <v>13.47813521062891</v>
+        <v>90.20723255084387</v>
       </c>
       <c r="O29" t="n">
-        <v>20.08375593266981</v>
+        <v>103.9729002862924</v>
       </c>
       <c r="P29" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="Q29" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="R29" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="S29" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="T29" t="n">
-        <v>20.75301227151142</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="U29" t="n">
-        <v>20.75301227151142</v>
+        <v>88.42967655257422</v>
       </c>
       <c r="V29" t="n">
-        <v>20.75301227151142</v>
+        <v>58.55478582535319</v>
       </c>
       <c r="W29" t="n">
-        <v>14.01327069203902</v>
+        <v>58.55478582535319</v>
       </c>
       <c r="X29" t="n">
-        <v>7.273529112566617</v>
+        <v>58.55478582535319</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.273529112566617</v>
+        <v>58.55478582535319</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="L30" t="n">
-        <v>7.139408255135116</v>
+        <v>30.46342607454728</v>
       </c>
       <c r="M30" t="n">
-        <v>13.47813521062891</v>
+        <v>59.7438064762966</v>
       </c>
       <c r="N30" t="n">
-        <v>20.08375593266981</v>
+        <v>89.02418687804592</v>
       </c>
       <c r="O30" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="P30" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="Q30" t="n">
-        <v>26.68937665471071</v>
+        <v>95.73077595302186</v>
       </c>
       <c r="R30" t="n">
-        <v>26.68937665471071</v>
+        <v>65.85588522580083</v>
       </c>
       <c r="S30" t="n">
-        <v>20.75301227151142</v>
+        <v>65.85588522580083</v>
       </c>
       <c r="T30" t="n">
-        <v>20.75301227151142</v>
+        <v>65.85588522580083</v>
       </c>
       <c r="U30" t="n">
-        <v>14.01327069203902</v>
+        <v>35.9809944985798</v>
       </c>
       <c r="V30" t="n">
-        <v>7.273529112566617</v>
+        <v>32.24098207281693</v>
       </c>
       <c r="W30" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="X30" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="I31" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="L31" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="M31" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="N31" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="O31" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="P31" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="R31" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="S31" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="T31" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="U31" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="W31" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="X31" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.5337875330942142</v>
+        <v>32.24098207281693</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5337875330942142</v>
+        <v>32.24098207281693</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5337875330942142</v>
+        <v>32.24098207281693</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5337875330942142</v>
+        <v>32.24098207281693</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="K32" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.699737855028834</v>
       </c>
       <c r="L32" t="n">
-        <v>0.5337875330942142</v>
+        <v>31.98011825677816</v>
       </c>
       <c r="M32" t="n">
-        <v>6.872514488588006</v>
+        <v>61.26049865852748</v>
       </c>
       <c r="N32" t="n">
-        <v>13.47813521062891</v>
+        <v>90.54087906027681</v>
       </c>
       <c r="O32" t="n">
-        <v>20.08375593266981</v>
+        <v>103.9729002862924</v>
       </c>
       <c r="P32" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="Q32" t="n">
-        <v>19.94963507523831</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="R32" t="n">
-        <v>13.20989349576591</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="S32" t="n">
-        <v>13.20989349576591</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="T32" t="n">
-        <v>6.470151916293506</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="U32" t="n">
-        <v>0.5337875330942142</v>
+        <v>88.42967655257422</v>
       </c>
       <c r="V32" t="n">
-        <v>0.5337875330942142</v>
+        <v>88.42967655257422</v>
       </c>
       <c r="W32" t="n">
-        <v>0.5337875330942142</v>
+        <v>88.42967655257422</v>
       </c>
       <c r="X32" t="n">
-        <v>0.5337875330942142</v>
+        <v>62.11587280003796</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.5337875330942142</v>
+        <v>32.24098207281693</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.470151916293506</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="C33" t="n">
-        <v>6.470151916293506</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5337875330942142</v>
+        <v>15.93830407810981</v>
       </c>
       <c r="L33" t="n">
-        <v>6.872514488588006</v>
+        <v>30.46342607454728</v>
       </c>
       <c r="M33" t="n">
-        <v>13.47813521062891</v>
+        <v>59.7438064762966</v>
       </c>
       <c r="N33" t="n">
-        <v>20.08375593266981</v>
+        <v>89.02418687804592</v>
       </c>
       <c r="O33" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="P33" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="Q33" t="n">
-        <v>19.94963507523831</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="R33" t="n">
-        <v>19.94963507523831</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="S33" t="n">
-        <v>13.20989349576591</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="T33" t="n">
-        <v>6.470151916293506</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="U33" t="n">
-        <v>6.470151916293506</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="V33" t="n">
-        <v>6.470151916293506</v>
+        <v>88.42967655257422</v>
       </c>
       <c r="W33" t="n">
-        <v>6.470151916293506</v>
+        <v>58.55478582535319</v>
       </c>
       <c r="X33" t="n">
-        <v>6.470151916293506</v>
+        <v>28.67989509813217</v>
       </c>
       <c r="Y33" t="n">
-        <v>6.470151916293506</v>
+        <v>2.366091345595905</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="J34" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="L34" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="M34" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="N34" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="O34" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="P34" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="R34" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="S34" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="T34" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="U34" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="W34" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="X34" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>14.01327069203902</v>
+        <v>58.55478582535319</v>
       </c>
       <c r="C35" t="n">
-        <v>14.01327069203902</v>
+        <v>32.24098207281693</v>
       </c>
       <c r="D35" t="n">
-        <v>14.01327069203902</v>
+        <v>32.24098207281693</v>
       </c>
       <c r="E35" t="n">
-        <v>14.01327069203902</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="F35" t="n">
-        <v>14.01327069203902</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="G35" t="n">
-        <v>14.01327069203902</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="H35" t="n">
-        <v>14.01327069203902</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="I35" t="n">
-        <v>7.273529112566617</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="J35" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="L35" t="n">
-        <v>6.872514488588006</v>
+        <v>31.64647174734523</v>
       </c>
       <c r="M35" t="n">
-        <v>6.872514488588006</v>
+        <v>60.92685214909455</v>
       </c>
       <c r="N35" t="n">
-        <v>13.47813521062891</v>
+        <v>90.20723255084387</v>
       </c>
       <c r="O35" t="n">
-        <v>20.08375593266981</v>
+        <v>103.9729002862924</v>
       </c>
       <c r="P35" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="Q35" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="R35" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="S35" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="T35" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="U35" t="n">
-        <v>19.94963507523831</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="V35" t="n">
-        <v>14.01327069203902</v>
+        <v>88.42967655257422</v>
       </c>
       <c r="W35" t="n">
-        <v>14.01327069203902</v>
+        <v>88.42967655257422</v>
       </c>
       <c r="X35" t="n">
-        <v>14.01327069203902</v>
+        <v>88.42967655257422</v>
       </c>
       <c r="Y35" t="n">
-        <v>14.01327069203902</v>
+        <v>88.42967655257422</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.5337875330942142</v>
+        <v>62.11587280003796</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5337875330942142</v>
+        <v>32.24098207281693</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="I36" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="J36" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="K36" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="L36" t="n">
-        <v>7.139408255135116</v>
+        <v>16.89121334203337</v>
       </c>
       <c r="M36" t="n">
-        <v>13.74502897717602</v>
+        <v>46.17159374378269</v>
       </c>
       <c r="N36" t="n">
-        <v>20.35064969921692</v>
+        <v>75.45197414553202</v>
       </c>
       <c r="O36" t="n">
-        <v>26.68937665471071</v>
+        <v>104.7323545472813</v>
       </c>
       <c r="P36" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="Q36" t="n">
-        <v>26.68937665471071</v>
+        <v>95.73077595302186</v>
       </c>
       <c r="R36" t="n">
-        <v>20.75301227151142</v>
+        <v>95.73077595302186</v>
       </c>
       <c r="S36" t="n">
-        <v>14.01327069203902</v>
+        <v>95.73077595302186</v>
       </c>
       <c r="T36" t="n">
-        <v>7.273529112566617</v>
+        <v>95.73077595302186</v>
       </c>
       <c r="U36" t="n">
-        <v>0.5337875330942142</v>
+        <v>95.73077595302186</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5337875330942142</v>
+        <v>65.85588522580083</v>
       </c>
       <c r="W36" t="n">
-        <v>0.5337875330942142</v>
+        <v>62.11587280003796</v>
       </c>
       <c r="X36" t="n">
-        <v>0.5337875330942142</v>
+        <v>62.11587280003796</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.5337875330942142</v>
+        <v>62.11587280003796</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="I37" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="J37" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="L37" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="M37" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="N37" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="O37" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="P37" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="R37" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="S37" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="T37" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="U37" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="V37" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="W37" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="X37" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13.20989349576591</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="C38" t="n">
-        <v>13.20989349576591</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="D38" t="n">
-        <v>13.20989349576591</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="E38" t="n">
-        <v>13.20989349576591</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="F38" t="n">
-        <v>13.20989349576591</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="G38" t="n">
-        <v>13.20989349576591</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="H38" t="n">
-        <v>7.273529112566617</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="J38" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="K38" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="L38" t="n">
-        <v>7.139408255135116</v>
+        <v>31.64647174734523</v>
       </c>
       <c r="M38" t="n">
-        <v>13.47813521062891</v>
+        <v>60.92685214909455</v>
       </c>
       <c r="N38" t="n">
-        <v>20.08375593266981</v>
+        <v>90.20723255084387</v>
       </c>
       <c r="O38" t="n">
-        <v>20.08375593266981</v>
+        <v>103.9729002862924</v>
       </c>
       <c r="P38" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="Q38" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="R38" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="S38" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="T38" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="U38" t="n">
-        <v>19.94963507523831</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="V38" t="n">
-        <v>19.94963507523831</v>
+        <v>88.42967655257422</v>
       </c>
       <c r="W38" t="n">
-        <v>13.20989349576591</v>
+        <v>58.55478582535319</v>
       </c>
       <c r="X38" t="n">
-        <v>13.20989349576591</v>
+        <v>28.67989509813217</v>
       </c>
       <c r="Y38" t="n">
-        <v>13.20989349576591</v>
+        <v>28.67989509813217</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="H39" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="K39" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="L39" t="n">
-        <v>6.872514488588006</v>
+        <v>16.89121334203337</v>
       </c>
       <c r="M39" t="n">
-        <v>13.47813521062891</v>
+        <v>46.17159374378269</v>
       </c>
       <c r="N39" t="n">
-        <v>20.08375593266981</v>
+        <v>75.45197414553202</v>
       </c>
       <c r="O39" t="n">
-        <v>26.68937665471071</v>
+        <v>104.7323545472813</v>
       </c>
       <c r="P39" t="n">
-        <v>26.68937665471071</v>
+        <v>118.3045672797953</v>
       </c>
       <c r="Q39" t="n">
-        <v>19.94963507523831</v>
+        <v>95.73077595302186</v>
       </c>
       <c r="R39" t="n">
-        <v>19.94963507523831</v>
+        <v>95.73077595302186</v>
       </c>
       <c r="S39" t="n">
-        <v>13.20989349576591</v>
+        <v>95.73077595302186</v>
       </c>
       <c r="T39" t="n">
-        <v>6.470151916293506</v>
+        <v>95.73077595302186</v>
       </c>
       <c r="U39" t="n">
-        <v>6.470151916293506</v>
+        <v>65.85588522580083</v>
       </c>
       <c r="V39" t="n">
-        <v>6.470151916293506</v>
+        <v>65.85588522580083</v>
       </c>
       <c r="W39" t="n">
-        <v>0.5337875330942142</v>
+        <v>35.9809944985798</v>
       </c>
       <c r="X39" t="n">
-        <v>0.5337875330942142</v>
+        <v>6.106103771358779</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.5337875330942142</v>
+        <v>6.106103771358779</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="I40" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="K40" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="L40" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="M40" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="N40" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="O40" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="P40" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="R40" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="S40" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="T40" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="U40" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="W40" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="X40" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.5337875330942142</v>
+        <v>2.366091345595905</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7.273529112566617</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="H41" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="I41" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="J41" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="K41" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.556814677553979</v>
       </c>
       <c r="L41" t="n">
-        <v>0.5337875330942142</v>
+        <v>16.69352075805197</v>
       </c>
       <c r="M41" t="n">
-        <v>6.872514488588006</v>
+        <v>31.69003533205165</v>
       </c>
       <c r="N41" t="n">
-        <v>13.47813521062891</v>
+        <v>46.82674141254964</v>
       </c>
       <c r="O41" t="n">
-        <v>20.08375593266981</v>
+        <v>46.82674141254964</v>
       </c>
       <c r="P41" t="n">
-        <v>26.68937665471071</v>
+        <v>61.1584084060525</v>
       </c>
       <c r="Q41" t="n">
-        <v>26.68937665471071</v>
+        <v>45.71436587927157</v>
       </c>
       <c r="R41" t="n">
-        <v>26.68937665471071</v>
+        <v>30.27032335249064</v>
       </c>
       <c r="S41" t="n">
-        <v>26.68937665471071</v>
+        <v>16.66721069490199</v>
       </c>
       <c r="T41" t="n">
-        <v>26.68937665471071</v>
+        <v>16.66721069490199</v>
       </c>
       <c r="U41" t="n">
-        <v>26.68937665471071</v>
+        <v>16.66721069490199</v>
       </c>
       <c r="V41" t="n">
-        <v>26.68937665471071</v>
+        <v>16.66721069490199</v>
       </c>
       <c r="W41" t="n">
-        <v>26.68937665471071</v>
+        <v>16.66721069490199</v>
       </c>
       <c r="X41" t="n">
-        <v>20.75301227151142</v>
+        <v>16.66721069490199</v>
       </c>
       <c r="Y41" t="n">
-        <v>14.01327069203902</v>
+        <v>1.22316816812105</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>6.470151916293506</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="H42" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="I42" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="K42" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="L42" t="n">
-        <v>7.139408255135116</v>
+        <v>15.74829016455851</v>
       </c>
       <c r="M42" t="n">
-        <v>13.74502897717602</v>
+        <v>30.88499624505651</v>
       </c>
       <c r="N42" t="n">
-        <v>20.08375593266981</v>
+        <v>46.02170232555451</v>
       </c>
       <c r="O42" t="n">
-        <v>26.68937665471071</v>
+        <v>61.1584084060525</v>
       </c>
       <c r="P42" t="n">
-        <v>26.68937665471071</v>
+        <v>61.1584084060525</v>
       </c>
       <c r="Q42" t="n">
-        <v>26.68937665471071</v>
+        <v>47.55529574846386</v>
       </c>
       <c r="R42" t="n">
-        <v>26.68937665471071</v>
+        <v>32.11125322168292</v>
       </c>
       <c r="S42" t="n">
-        <v>26.68937665471071</v>
+        <v>32.11125322168292</v>
       </c>
       <c r="T42" t="n">
-        <v>26.68937665471071</v>
+        <v>32.11125322168292</v>
       </c>
       <c r="U42" t="n">
-        <v>26.68937665471071</v>
+        <v>32.11125322168292</v>
       </c>
       <c r="V42" t="n">
-        <v>26.68937665471071</v>
+        <v>16.66721069490199</v>
       </c>
       <c r="W42" t="n">
-        <v>19.94963507523831</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="X42" t="n">
-        <v>19.94963507523831</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="Y42" t="n">
-        <v>13.20989349576591</v>
+        <v>1.22316816812105</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="F43" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="I43" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="J43" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="L43" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="M43" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="N43" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="O43" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="P43" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="R43" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="S43" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="T43" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="U43" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="V43" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="W43" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="X43" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6.470151916293506</v>
+        <v>16.66721069490199</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5337875330942142</v>
+        <v>16.66721069490199</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5337875330942142</v>
+        <v>16.66721069490199</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5337875330942142</v>
+        <v>16.66721069490199</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5337875330942142</v>
+        <v>16.66721069490199</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="J44" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="K44" t="n">
-        <v>6.811781384592871</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="L44" t="n">
-        <v>13.41740210663377</v>
+        <v>1.416623171055662</v>
       </c>
       <c r="M44" t="n">
-        <v>13.47813521062891</v>
+        <v>16.55332925155366</v>
       </c>
       <c r="N44" t="n">
-        <v>20.08375593266981</v>
+        <v>31.69003533205165</v>
       </c>
       <c r="O44" t="n">
-        <v>20.08375593266981</v>
+        <v>46.82674141254964</v>
       </c>
       <c r="P44" t="n">
-        <v>26.68937665471071</v>
+        <v>61.1584084060525</v>
       </c>
       <c r="Q44" t="n">
-        <v>26.68937665471071</v>
+        <v>45.71436587927157</v>
       </c>
       <c r="R44" t="n">
-        <v>26.68937665471071</v>
+        <v>45.71436587927157</v>
       </c>
       <c r="S44" t="n">
-        <v>26.68937665471071</v>
+        <v>45.71436587927157</v>
       </c>
       <c r="T44" t="n">
-        <v>26.68937665471071</v>
+        <v>45.71436587927157</v>
       </c>
       <c r="U44" t="n">
-        <v>26.68937665471071</v>
+        <v>45.71436587927157</v>
       </c>
       <c r="V44" t="n">
-        <v>19.94963507523831</v>
+        <v>45.71436587927157</v>
       </c>
       <c r="W44" t="n">
-        <v>19.94963507523831</v>
+        <v>45.71436587927157</v>
       </c>
       <c r="X44" t="n">
-        <v>19.94963507523831</v>
+        <v>45.71436587927157</v>
       </c>
       <c r="Y44" t="n">
-        <v>13.20989349576591</v>
+        <v>32.11125322168292</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.5337875330942142</v>
+        <v>16.66721069490199</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5337875330942142</v>
+        <v>16.66721069490199</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="I45" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="K45" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="L45" t="n">
-        <v>7.139408255135116</v>
+        <v>15.74829016455851</v>
       </c>
       <c r="M45" t="n">
-        <v>13.74502897717602</v>
+        <v>30.88499624505651</v>
       </c>
       <c r="N45" t="n">
-        <v>20.35064969921692</v>
+        <v>46.02170232555451</v>
       </c>
       <c r="O45" t="n">
-        <v>26.68937665471071</v>
+        <v>61.1584084060525</v>
       </c>
       <c r="P45" t="n">
-        <v>26.68937665471071</v>
+        <v>61.1584084060525</v>
       </c>
       <c r="Q45" t="n">
-        <v>20.75301227151142</v>
+        <v>47.55529574846386</v>
       </c>
       <c r="R45" t="n">
-        <v>20.75301227151142</v>
+        <v>47.55529574846386</v>
       </c>
       <c r="S45" t="n">
-        <v>14.01327069203902</v>
+        <v>47.55529574846386</v>
       </c>
       <c r="T45" t="n">
-        <v>7.273529112566617</v>
+        <v>47.55529574846386</v>
       </c>
       <c r="U45" t="n">
-        <v>0.5337875330942142</v>
+        <v>32.11125322168292</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5337875330942142</v>
+        <v>32.11125322168292</v>
       </c>
       <c r="W45" t="n">
-        <v>0.5337875330942142</v>
+        <v>16.66721069490199</v>
       </c>
       <c r="X45" t="n">
-        <v>0.5337875330942142</v>
+        <v>16.66721069490199</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.5337875330942142</v>
+        <v>16.66721069490199</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="J46" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="L46" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="M46" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="N46" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="O46" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="P46" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="R46" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="S46" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="T46" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="U46" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="V46" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="W46" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="X46" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.5337875330942142</v>
+        <v>1.22316816812105</v>
       </c>
     </row>
   </sheetData>
@@ -7987,10 +7987,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M2" t="n">
-        <v>116.8735187081365</v>
+        <v>94.50134181136147</v>
       </c>
       <c r="N2" t="n">
-        <v>111.9488011414238</v>
+        <v>89.21461903306817</v>
       </c>
       <c r="O2" t="n">
         <v>99.00804712831379</v>
@@ -8063,19 +8063,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L3" t="n">
-        <v>57.07593346819698</v>
+        <v>42.27423123832551</v>
       </c>
       <c r="M3" t="n">
-        <v>38.00954882322065</v>
+        <v>20.73666047215158</v>
       </c>
       <c r="N3" t="n">
-        <v>17.73005030863848</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>49.04422963853116</v>
+        <v>32.82469745261383</v>
       </c>
       <c r="P3" t="n">
-        <v>67.92252959633595</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q3" t="n">
         <v>54.62009481132077</v>
@@ -8224,10 +8224,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>116.8735187081364</v>
+        <v>94.50134181136147</v>
       </c>
       <c r="N5" t="n">
-        <v>111.9488011414238</v>
+        <v>89.21461903306817</v>
       </c>
       <c r="O5" t="n">
         <v>99.00804712831379</v>
@@ -8300,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>57.07593346819698</v>
+        <v>42.27423123832551</v>
       </c>
       <c r="M6" t="n">
-        <v>38.00954882322065</v>
+        <v>20.73666047215158</v>
       </c>
       <c r="N6" t="n">
-        <v>17.73005030863848</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>49.04422963853116</v>
+        <v>32.82469745261383</v>
       </c>
       <c r="P6" t="n">
-        <v>67.92252959633595</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8698,16 +8698,16 @@
         <v>50.04010588902617</v>
       </c>
       <c r="M11" t="n">
-        <v>8.894863273479075</v>
+        <v>8.894863273479132</v>
       </c>
       <c r="N11" t="n">
-        <v>2.222938173624982</v>
+        <v>2.222938173625039</v>
       </c>
       <c r="O11" t="n">
-        <v>21.79887523416346</v>
+        <v>21.79887523416352</v>
       </c>
       <c r="P11" t="n">
-        <v>69.5722233101028</v>
+        <v>69.57222331010286</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8771,7 +8771,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>40.20975561493427</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -9169,19 +9169,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L17" t="n">
-        <v>50.04010588902617</v>
+        <v>65.00895600402518</v>
       </c>
       <c r="M17" t="n">
-        <v>8.894863273479132</v>
+        <v>9.163470549146963</v>
       </c>
       <c r="N17" t="n">
-        <v>2.222938173625039</v>
+        <v>17.19178828862399</v>
       </c>
       <c r="O17" t="n">
-        <v>21.79887523416352</v>
+        <v>36.76772534916248</v>
       </c>
       <c r="P17" t="n">
-        <v>69.57222331010286</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>55.20189757157522</v>
@@ -9245,7 +9245,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>40.20975561493429</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9406,19 +9406,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L20" t="n">
-        <v>50.04010588902622</v>
+        <v>65.00895600402524</v>
       </c>
       <c r="M20" t="n">
-        <v>8.894863273479075</v>
+        <v>23.86371338847809</v>
       </c>
       <c r="N20" t="n">
-        <v>2.222938173625039</v>
+        <v>17.19178828862405</v>
       </c>
       <c r="O20" t="n">
-        <v>21.79887523416352</v>
+        <v>22.06748250983146</v>
       </c>
       <c r="P20" t="n">
-        <v>69.57222331010286</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9643,19 +9643,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L23" t="n">
-        <v>56.442860389525</v>
+        <v>79.1981487211022</v>
       </c>
       <c r="M23" t="n">
-        <v>15.56720743715675</v>
+        <v>38.005789410369</v>
       </c>
       <c r="N23" t="n">
-        <v>8.895282337302717</v>
+        <v>31.32633663439497</v>
       </c>
       <c r="O23" t="n">
-        <v>21.79887523416352</v>
+        <v>34.92017529361091</v>
       </c>
       <c r="P23" t="n">
-        <v>76.24456747378053</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>55.20189757157522</v>
@@ -9719,10 +9719,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>40.20975561493429</v>
+        <v>39.98084965618273</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>13.70930579041809</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>5.093443300258059</v>
+        <v>4.822750206520794</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9877,22 +9877,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>84.27780726850284</v>
+        <v>83.94079059230796</v>
       </c>
       <c r="L26" t="n">
-        <v>56.7124500527039</v>
+        <v>79.1981487211022</v>
       </c>
       <c r="M26" t="n">
-        <v>15.56720743715675</v>
+        <v>38.005789410369</v>
       </c>
       <c r="N26" t="n">
-        <v>8.895282337302717</v>
+        <v>15.6549096987376</v>
       </c>
       <c r="O26" t="n">
-        <v>28.2016297346623</v>
+        <v>50.92861890546317</v>
       </c>
       <c r="P26" t="n">
-        <v>69.57222331010286</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -9956,10 +9956,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>40.20975561493429</v>
+        <v>39.98084965618273</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>13.70930579041809</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>5.093443300258059</v>
+        <v>4.822750206520794</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10114,22 +10114,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>84.27780726850284</v>
+        <v>83.94079059230796</v>
       </c>
       <c r="L29" t="n">
-        <v>50.04010588902622</v>
+        <v>79.1981487211022</v>
       </c>
       <c r="M29" t="n">
-        <v>15.29761777397785</v>
+        <v>38.005789410369</v>
       </c>
       <c r="N29" t="n">
-        <v>8.895282337302717</v>
+        <v>31.32633663439497</v>
       </c>
       <c r="O29" t="n">
-        <v>28.4712193978412</v>
+        <v>35.2571919698058</v>
       </c>
       <c r="P29" t="n">
-        <v>76.24456747378053</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>55.20189757157522</v>
@@ -10193,10 +10193,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>40.20975561493429</v>
+        <v>39.98084965618273</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>13.70930579041809</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>5.093443300258059</v>
+        <v>4.822750206520794</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10354,19 +10354,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L32" t="n">
-        <v>50.04010588902622</v>
+        <v>79.1981487211022</v>
       </c>
       <c r="M32" t="n">
-        <v>15.29761777397785</v>
+        <v>38.005789410369</v>
       </c>
       <c r="N32" t="n">
-        <v>8.895282337302717</v>
+        <v>31.32633663439497</v>
       </c>
       <c r="O32" t="n">
-        <v>28.4712193978412</v>
+        <v>34.92017529361091</v>
       </c>
       <c r="P32" t="n">
-        <v>76.24456747378053</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>55.20189757157522</v>
@@ -10430,7 +10430,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>40.20975561493429</v>
+        <v>53.69015544660082</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>5.093443300258059</v>
+        <v>4.822750206520794</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10588,22 +10588,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>84.27780726850284</v>
+        <v>83.94079059230796</v>
       </c>
       <c r="L35" t="n">
-        <v>56.442860389525</v>
+        <v>79.1981487211022</v>
       </c>
       <c r="M35" t="n">
-        <v>8.894863273479075</v>
+        <v>38.005789410369</v>
       </c>
       <c r="N35" t="n">
-        <v>8.895282337302717</v>
+        <v>31.32633663439497</v>
       </c>
       <c r="O35" t="n">
-        <v>28.4712193978412</v>
+        <v>35.2571919698058</v>
       </c>
       <c r="P35" t="n">
-        <v>76.24456747378053</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10667,7 +10667,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>40.20975561493429</v>
+        <v>39.98084965618273</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>5.093443300258059</v>
+        <v>18.53205599693888</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10825,22 +10825,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>84.27780726850284</v>
+        <v>83.94079059230796</v>
       </c>
       <c r="L38" t="n">
-        <v>56.7124500527039</v>
+        <v>79.1981487211022</v>
       </c>
       <c r="M38" t="n">
-        <v>15.29761777397785</v>
+        <v>38.005789410369</v>
       </c>
       <c r="N38" t="n">
-        <v>8.895282337302717</v>
+        <v>31.32633663439497</v>
       </c>
       <c r="O38" t="n">
-        <v>21.79887523416352</v>
+        <v>35.2571919698058</v>
       </c>
       <c r="P38" t="n">
-        <v>76.24456747378053</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -10904,7 +10904,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>40.20975561493429</v>
+        <v>39.98084965618273</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>5.093443300258059</v>
+        <v>18.53205599693888</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11065,19 +11065,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>50.04010588902622</v>
+        <v>64.91160900266651</v>
       </c>
       <c r="M41" t="n">
-        <v>15.29761777397785</v>
+        <v>23.57764210961178</v>
       </c>
       <c r="N41" t="n">
-        <v>8.895282337302717</v>
+        <v>17.0397969159593</v>
       </c>
       <c r="O41" t="n">
-        <v>28.4712193978412</v>
+        <v>21.35247708551435</v>
       </c>
       <c r="P41" t="n">
-        <v>76.24456747378053</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>55.20189757157522</v>
@@ -11141,7 +11141,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>40.20975561493429</v>
+        <v>39.98084965618273</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>5.093443300258059</v>
+        <v>4.822750206520794</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11299,22 +11299,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>84.27780726850284</v>
+        <v>83.94079059230796</v>
       </c>
       <c r="L44" t="n">
-        <v>48.84537276889125</v>
+        <v>49.81741599502673</v>
       </c>
       <c r="M44" t="n">
-        <v>0.2025705414189005</v>
+        <v>23.71924969193333</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>17.0397969159593</v>
       </c>
       <c r="O44" t="n">
-        <v>13.39931236355858</v>
+        <v>36.64207918702749</v>
       </c>
       <c r="P44" t="n">
-        <v>69.07573489447435</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11378,7 +11378,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>35.90259171246745</v>
+        <v>39.98084965618273</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>4.822750206520794</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22561,22 +22561,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G2" t="n">
-        <v>422.3372670711946</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H2" t="n">
-        <v>351.2646082720821</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I2" t="n">
-        <v>259.3256225831108</v>
+        <v>254.413627538865</v>
       </c>
       <c r="J2" t="n">
-        <v>114.4715681708149</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K2" t="n">
-        <v>78.22308851520961</v>
+        <v>62.01598937483024</v>
       </c>
       <c r="L2" t="n">
-        <v>38.49084836766585</v>
+        <v>18.3845087542864</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22585,25 +22585,25 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>26.40184904719004</v>
+        <v>4.934605547775959</v>
       </c>
       <c r="P2" t="n">
-        <v>74.33416843326191</v>
+        <v>56.01237276874355</v>
       </c>
       <c r="Q2" t="n">
-        <v>134.6151832766775</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R2" t="n">
-        <v>219.5016765828794</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S2" t="n">
-        <v>238.8380493076577</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T2" t="n">
-        <v>220.0295900296067</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U2" t="n">
-        <v>248.8013691764946</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -22640,19 +22640,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.0988061285559</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H3" t="n">
-        <v>138.5600717100643</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I3" t="n">
-        <v>119.8373846403433</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J3" t="n">
-        <v>89.37922894870135</v>
+        <v>82.93859734111298</v>
       </c>
       <c r="K3" t="n">
-        <v>24.57889804244016</v>
+        <v>13.57083277636242</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22670,19 +22670,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>64.52858488856606</v>
+        <v>55.8266610081867</v>
       </c>
       <c r="R3" t="n">
-        <v>159.5976691093343</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S3" t="n">
-        <v>209.5797834947361</v>
+        <v>208.3135435403172</v>
       </c>
       <c r="T3" t="n">
-        <v>230.4332280611984</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -22719,49 +22719,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.30467002737</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H4" t="n">
-        <v>168.2025540396188</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I4" t="n">
-        <v>169.8493025891331</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J4" t="n">
-        <v>137.2497006419296</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K4" t="n">
-        <v>95.63058149505841</v>
+        <v>88.99056004441432</v>
       </c>
       <c r="L4" t="n">
-        <v>71.46654840866277</v>
+        <v>62.96960703121101</v>
       </c>
       <c r="M4" t="n">
-        <v>68.66533643318368</v>
+        <v>59.70650310975205</v>
       </c>
       <c r="N4" t="n">
-        <v>56.06123914516951</v>
+        <v>47.31542685419204</v>
       </c>
       <c r="O4" t="n">
-        <v>80.66114959698193</v>
+        <v>72.58297639552539</v>
       </c>
       <c r="P4" t="n">
-        <v>98.35025284028561</v>
+        <v>91.43798011889523</v>
       </c>
       <c r="Q4" t="n">
-        <v>157.5243583765053</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R4" t="n">
-        <v>224.2138859994434</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S4" t="n">
-        <v>244.9169435351811</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T4" t="n">
-        <v>218.3869624620415</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2234139120339</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -22798,22 +22798,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>422.3372670711946</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H5" t="n">
-        <v>351.2646082720821</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I5" t="n">
-        <v>259.3256225831108</v>
+        <v>254.413627538865</v>
       </c>
       <c r="J5" t="n">
-        <v>114.4715681708149</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K5" t="n">
-        <v>78.22308851520961</v>
+        <v>62.01598937483024</v>
       </c>
       <c r="L5" t="n">
-        <v>38.49084836766585</v>
+        <v>18.3845087542864</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22822,25 +22822,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>26.40184904719004</v>
+        <v>4.934605547775959</v>
       </c>
       <c r="P5" t="n">
-        <v>74.33416843326191</v>
+        <v>56.01237276874355</v>
       </c>
       <c r="Q5" t="n">
-        <v>134.6151832766775</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R5" t="n">
-        <v>219.5016765828794</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S5" t="n">
-        <v>238.8380493076577</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T5" t="n">
-        <v>220.0295900296067</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U5" t="n">
-        <v>248.8013691764946</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22877,19 +22877,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.0988061285559</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H6" t="n">
-        <v>138.5600717100643</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I6" t="n">
-        <v>119.8373846403433</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J6" t="n">
-        <v>89.37922894870135</v>
+        <v>82.93859734111298</v>
       </c>
       <c r="K6" t="n">
-        <v>24.57889804244016</v>
+        <v>13.57083277636242</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22907,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.52858488856606</v>
+        <v>55.8266610081867</v>
       </c>
       <c r="R6" t="n">
-        <v>159.5976691093343</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S6" t="n">
-        <v>209.5797834947361</v>
+        <v>208.3135435403172</v>
       </c>
       <c r="T6" t="n">
-        <v>230.4332280611984</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22956,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.30467002737</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H7" t="n">
-        <v>168.2025540396188</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I7" t="n">
-        <v>169.8493025891331</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J7" t="n">
-        <v>137.2497006419296</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K7" t="n">
-        <v>95.63058149505841</v>
+        <v>88.99056004441432</v>
       </c>
       <c r="L7" t="n">
-        <v>71.46654840866277</v>
+        <v>62.96960703121101</v>
       </c>
       <c r="M7" t="n">
-        <v>68.66533643318368</v>
+        <v>59.70650310975205</v>
       </c>
       <c r="N7" t="n">
-        <v>56.06123914516951</v>
+        <v>47.31542685419204</v>
       </c>
       <c r="O7" t="n">
-        <v>80.66114959698193</v>
+        <v>72.58297639552539</v>
       </c>
       <c r="P7" t="n">
-        <v>98.35025284028561</v>
+        <v>91.43798011889523</v>
       </c>
       <c r="Q7" t="n">
-        <v>157.5243583765053</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R7" t="n">
-        <v>224.2138859994434</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S7" t="n">
-        <v>244.9169435351811</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T7" t="n">
-        <v>218.3869624620415</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U7" t="n">
-        <v>291.2234139120339</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -23281,7 +23281,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J11" t="n">
-        <v>62.27902778684214</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23381,10 +23381,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.52900457800858</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R12" t="n">
-        <v>139.1693410830749</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S12" t="n">
         <v>203.4683135038341</v>
@@ -23445,7 +23445,7 @@
         <v>63.58271276927572</v>
       </c>
       <c r="L13" t="n">
-        <v>30.45631013468386</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M13" t="n">
         <v>25.42579023297466</v>
@@ -23454,10 +23454,10 @@
         <v>13.84983270846368</v>
       </c>
       <c r="O13" t="n">
-        <v>41.67208363857272</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P13" t="n">
-        <v>64.98837134358662</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q13" t="n">
         <v>134.42632090912</v>
@@ -23755,7 +23755,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J17" t="n">
-        <v>62.27902778684216</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>68.2082294730605</v>
+        <v>53.23937935806148</v>
       </c>
       <c r="R17" t="n">
         <v>180.8732471227138</v>
@@ -23788,13 +23788,13 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7521737158166</v>
+        <v>233.7833236008176</v>
       </c>
       <c r="V17" t="n">
-        <v>313.3044420010231</v>
+        <v>298.3355918860241</v>
       </c>
       <c r="W17" t="n">
-        <v>325.3917254792934</v>
+        <v>312.2071622980022</v>
       </c>
       <c r="X17" t="n">
         <v>348.8168793035129</v>
@@ -23822,13 +23822,13 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F18" t="n">
-        <v>173.9843481253239</v>
+        <v>160.7997849440328</v>
       </c>
       <c r="G18" t="n">
-        <v>160.7697824785144</v>
+        <v>145.8009323635154</v>
       </c>
       <c r="H18" t="n">
-        <v>135.3823959320322</v>
+        <v>120.4135458170332</v>
       </c>
       <c r="I18" t="n">
         <v>108.5091580928627</v>
@@ -23855,10 +23855,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.5290045780086</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R18" t="n">
-        <v>139.169341083075</v>
+        <v>124.2004909680759</v>
       </c>
       <c r="S18" t="n">
         <v>203.4683135038341</v>
@@ -23919,7 +23919,7 @@
         <v>63.58271276927572</v>
       </c>
       <c r="L19" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M19" t="n">
         <v>25.42579023297466</v>
@@ -23928,10 +23928,10 @@
         <v>13.84983270846368</v>
       </c>
       <c r="O19" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P19" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q19" t="n">
         <v>134.42632090912</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>364.5563275970632</v>
+        <v>349.5874774820642</v>
       </c>
       <c r="C20" t="n">
         <v>333.5971194742085</v>
       </c>
       <c r="D20" t="n">
-        <v>319.1317556432476</v>
+        <v>304.1629055282486</v>
       </c>
       <c r="E20" t="n">
-        <v>359.9585549362873</v>
+        <v>344.9897048212883</v>
       </c>
       <c r="F20" t="n">
         <v>399.146417573369</v>
@@ -24037,7 +24037,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y20" t="n">
-        <v>377.9289763951821</v>
+        <v>364.744413213891</v>
       </c>
     </row>
     <row r="21">
@@ -24053,10 +24053,10 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D21" t="n">
-        <v>172.0989423795122</v>
+        <v>157.1300922645132</v>
       </c>
       <c r="E21" t="n">
-        <v>187.4605452976028</v>
+        <v>174.2759821163117</v>
       </c>
       <c r="F21" t="n">
         <v>173.9843481253239</v>
@@ -24092,10 +24092,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.5290045780086</v>
+        <v>7.560154463009585</v>
       </c>
       <c r="R21" t="n">
-        <v>139.169341083075</v>
+        <v>124.2004909680759</v>
       </c>
       <c r="S21" t="n">
         <v>203.4683135038341</v>
@@ -24211,25 +24211,25 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D23" t="n">
-        <v>319.1317556432476</v>
+        <v>293.0810899282367</v>
       </c>
       <c r="E23" t="n">
-        <v>359.9585549362873</v>
+        <v>330.3824131163385</v>
       </c>
       <c r="F23" t="n">
-        <v>399.146417573369</v>
+        <v>369.5702757534202</v>
       </c>
       <c r="G23" t="n">
-        <v>421.7223238127198</v>
+        <v>421.7196743886565</v>
       </c>
       <c r="H23" t="n">
-        <v>338.2944764625498</v>
+        <v>344.9396872120389</v>
       </c>
       <c r="I23" t="n">
-        <v>235.6180226107624</v>
+        <v>235.5158806895611</v>
       </c>
       <c r="J23" t="n">
-        <v>62.27902778684216</v>
+        <v>62.05416123124772</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,28 +24250,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>68.20822947306053</v>
+        <v>67.92212148024237</v>
       </c>
       <c r="R23" t="n">
-        <v>180.8732471227138</v>
+        <v>180.7068202383961</v>
       </c>
       <c r="S23" t="n">
-        <v>218.9480290657966</v>
+        <v>224.7646560543209</v>
       </c>
       <c r="T23" t="n">
-        <v>210.6653317519557</v>
+        <v>217.3260780617962</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7519617618915</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W23" t="n">
-        <v>325.3917254792934</v>
+        <v>295.8155836593446</v>
       </c>
       <c r="X23" t="n">
-        <v>342.1445351398352</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y23" t="n">
         <v>377.9289763951821</v>
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>188.0127573810344</v>
+        <v>184.3101450795292</v>
       </c>
       <c r="C24" t="n">
-        <v>197.9654268758721</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D24" t="n">
-        <v>165.4265982158345</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E24" t="n">
         <v>187.4605452976028</v>
@@ -24299,16 +24299,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7683649116677</v>
       </c>
       <c r="H24" t="n">
-        <v>135.3823959320322</v>
+        <v>135.3687052206442</v>
       </c>
       <c r="I24" t="n">
-        <v>108.5091580928627</v>
+        <v>108.4603515150264</v>
       </c>
       <c r="J24" t="n">
-        <v>58.29370945070389</v>
+        <v>58.15978047068195</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,28 +24329,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>139.169341083075</v>
+        <v>109.5051857706611</v>
       </c>
       <c r="S24" t="n">
-        <v>196.7959693401565</v>
+        <v>203.4419828213963</v>
       </c>
       <c r="T24" t="n">
-        <v>229.1070318577418</v>
+        <v>229.1013180685657</v>
       </c>
       <c r="U24" t="n">
-        <v>242.9610797898183</v>
+        <v>249.6333306925193</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2492567629311</v>
+        <v>253.6731149429823</v>
       </c>
       <c r="X24" t="n">
-        <v>230.033063710963</v>
+        <v>200.4569218910142</v>
       </c>
       <c r="Y24" t="n">
         <v>242.8962664135933</v>
@@ -24378,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.028827651796</v>
+        <v>169.0276392113709</v>
       </c>
       <c r="H25" t="n">
-        <v>165.7500645549697</v>
+        <v>165.7394982391899</v>
       </c>
       <c r="I25" t="n">
-        <v>161.5539700582341</v>
+        <v>161.5182304134495</v>
       </c>
       <c r="J25" t="n">
-        <v>117.7476446888457</v>
+        <v>117.6636219507893</v>
       </c>
       <c r="K25" t="n">
-        <v>63.58271276927573</v>
+        <v>63.44463759988385</v>
       </c>
       <c r="L25" t="n">
-        <v>30.45631013468387</v>
+        <v>30.27962145547927</v>
       </c>
       <c r="M25" t="n">
-        <v>25.42579023297469</v>
+        <v>25.23949679433429</v>
       </c>
       <c r="N25" t="n">
-        <v>13.84983270846368</v>
+        <v>13.66796891140785</v>
       </c>
       <c r="O25" t="n">
-        <v>41.67208363857273</v>
+        <v>41.50410298648313</v>
       </c>
       <c r="P25" t="n">
-        <v>64.98837134358664</v>
+        <v>64.84463487616962</v>
       </c>
       <c r="Q25" t="n">
-        <v>134.42632090912</v>
+        <v>134.3268052295215</v>
       </c>
       <c r="R25" t="n">
-        <v>211.8110097304511</v>
+        <v>211.7575731273359</v>
       </c>
       <c r="S25" t="n">
-        <v>240.1097632263137</v>
+        <v>240.0890519509049</v>
       </c>
       <c r="T25" t="n">
-        <v>217.2083632209524</v>
+        <v>217.203285339136</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2083679642753</v>
+        <v>291.2083031402521</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>357.8839834333855</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C26" t="n">
         <v>333.5971194742085</v>
@@ -24457,16 +24457,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.7223238127198</v>
+        <v>421.7196743886565</v>
       </c>
       <c r="H26" t="n">
-        <v>344.9668206262274</v>
+        <v>344.9396872120389</v>
       </c>
       <c r="I26" t="n">
-        <v>235.6180226107624</v>
+        <v>235.5158806895611</v>
       </c>
       <c r="J26" t="n">
-        <v>62.27902778684216</v>
+        <v>62.05416123124772</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,28 +24487,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>68.20822947306053</v>
+        <v>67.92212148024237</v>
       </c>
       <c r="R26" t="n">
-        <v>180.8732471227138</v>
+        <v>180.7068202383961</v>
       </c>
       <c r="S26" t="n">
-        <v>224.8250298051639</v>
+        <v>224.7646560543209</v>
       </c>
       <c r="T26" t="n">
-        <v>217.3376759156334</v>
+        <v>217.3260780617962</v>
       </c>
       <c r="U26" t="n">
-        <v>242.0798295521389</v>
+        <v>219.1758199419427</v>
       </c>
       <c r="V26" t="n">
-        <v>307.4274412616558</v>
+        <v>283.7283001810743</v>
       </c>
       <c r="W26" t="n">
-        <v>318.7193813156157</v>
+        <v>295.8155836593446</v>
       </c>
       <c r="X26" t="n">
-        <v>348.8168793035129</v>
+        <v>322.766213588502</v>
       </c>
       <c r="Y26" t="n">
         <v>377.9289763951821</v>
@@ -24536,16 +24536,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7683649116677</v>
       </c>
       <c r="H27" t="n">
-        <v>135.3823959320322</v>
+        <v>135.3687052206442</v>
       </c>
       <c r="I27" t="n">
-        <v>108.5091580928627</v>
+        <v>108.4603515150264</v>
       </c>
       <c r="J27" t="n">
-        <v>51.62136528702621</v>
+        <v>58.15978047068195</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,25 +24566,25 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>139.169341083075</v>
+        <v>109.5051857706611</v>
       </c>
       <c r="S27" t="n">
-        <v>196.7959693401565</v>
+        <v>203.4419828213963</v>
       </c>
       <c r="T27" t="n">
-        <v>222.4346876940641</v>
+        <v>229.1013180685657</v>
       </c>
       <c r="U27" t="n">
-        <v>243.7564232141287</v>
+        <v>220.0571888725704</v>
       </c>
       <c r="V27" t="n">
-        <v>249.2999251801724</v>
+        <v>245.5973128786671</v>
       </c>
       <c r="W27" t="n">
-        <v>283.2492567629311</v>
+        <v>253.6731149429823</v>
       </c>
       <c r="X27" t="n">
         <v>230.033063710963</v>
@@ -24615,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.028827651796</v>
+        <v>169.0276392113709</v>
       </c>
       <c r="H28" t="n">
-        <v>165.7500645549697</v>
+        <v>165.7394982391899</v>
       </c>
       <c r="I28" t="n">
-        <v>161.5539700582341</v>
+        <v>161.5182304134495</v>
       </c>
       <c r="J28" t="n">
-        <v>117.7476446888457</v>
+        <v>117.6636219507893</v>
       </c>
       <c r="K28" t="n">
-        <v>63.58271276927573</v>
+        <v>63.44463759988385</v>
       </c>
       <c r="L28" t="n">
-        <v>30.45631013468387</v>
+        <v>30.27962145547927</v>
       </c>
       <c r="M28" t="n">
-        <v>25.42579023297469</v>
+        <v>25.23949679433429</v>
       </c>
       <c r="N28" t="n">
-        <v>13.84983270846368</v>
+        <v>13.66796891140785</v>
       </c>
       <c r="O28" t="n">
-        <v>41.67208363857273</v>
+        <v>41.50410298648313</v>
       </c>
       <c r="P28" t="n">
-        <v>64.98837134358664</v>
+        <v>64.84463487616962</v>
       </c>
       <c r="Q28" t="n">
-        <v>134.42632090912</v>
+        <v>134.3268052295215</v>
       </c>
       <c r="R28" t="n">
-        <v>211.8110097304511</v>
+        <v>211.7575731273359</v>
       </c>
       <c r="S28" t="n">
-        <v>240.1097632263137</v>
+        <v>240.0890519509049</v>
       </c>
       <c r="T28" t="n">
-        <v>217.2083632209524</v>
+        <v>217.203285339136</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2083679642753</v>
+        <v>291.2083031402521</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>357.8839834333855</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C29" t="n">
-        <v>333.5971194742085</v>
+        <v>307.5464537591976</v>
       </c>
       <c r="D29" t="n">
-        <v>319.1317556432476</v>
+        <v>289.5556138232988</v>
       </c>
       <c r="E29" t="n">
         <v>359.9585549362873</v>
@@ -24694,16 +24694,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>421.7223238127198</v>
+        <v>421.7196743886565</v>
       </c>
       <c r="H29" t="n">
-        <v>344.9668206262274</v>
+        <v>344.9396872120389</v>
       </c>
       <c r="I29" t="n">
-        <v>235.6180226107624</v>
+        <v>235.5158806895611</v>
       </c>
       <c r="J29" t="n">
-        <v>62.27902778684216</v>
+        <v>62.05416123124772</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,28 +24724,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>68.20822947306053</v>
+        <v>67.92212148024237</v>
       </c>
       <c r="R29" t="n">
-        <v>180.8732471227138</v>
+        <v>180.7068202383961</v>
       </c>
       <c r="S29" t="n">
-        <v>224.8250298051639</v>
+        <v>224.7646560543209</v>
       </c>
       <c r="T29" t="n">
-        <v>211.4606751762661</v>
+        <v>217.3260780617962</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7521737158166</v>
+        <v>219.1758199419427</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3044420010231</v>
+        <v>283.7283001810743</v>
       </c>
       <c r="W29" t="n">
-        <v>318.7193813156157</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X29" t="n">
-        <v>342.1445351398352</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y29" t="n">
         <v>377.9289763951821</v>
@@ -24773,16 +24773,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7683649116677</v>
       </c>
       <c r="H30" t="n">
-        <v>135.3823959320322</v>
+        <v>135.3687052206442</v>
       </c>
       <c r="I30" t="n">
-        <v>108.5091580928627</v>
+        <v>108.4603515150264</v>
       </c>
       <c r="J30" t="n">
-        <v>58.29370945070389</v>
+        <v>58.15978047068195</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,25 +24803,25 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>139.169341083075</v>
+        <v>109.5051857706611</v>
       </c>
       <c r="S30" t="n">
-        <v>197.5913127644668</v>
+        <v>203.4419828213963</v>
       </c>
       <c r="T30" t="n">
-        <v>229.1070318577418</v>
+        <v>229.1013180685657</v>
       </c>
       <c r="U30" t="n">
-        <v>242.9610797898183</v>
+        <v>220.0571888725704</v>
       </c>
       <c r="V30" t="n">
-        <v>242.6275810164947</v>
+        <v>245.5973128786671</v>
       </c>
       <c r="W30" t="n">
-        <v>276.5769125992534</v>
+        <v>253.6731149429823</v>
       </c>
       <c r="X30" t="n">
         <v>230.033063710963</v>
@@ -24852,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.028827651796</v>
+        <v>169.0276392113709</v>
       </c>
       <c r="H31" t="n">
-        <v>165.7500645549697</v>
+        <v>165.7394982391899</v>
       </c>
       <c r="I31" t="n">
-        <v>161.5539700582341</v>
+        <v>161.5182304134495</v>
       </c>
       <c r="J31" t="n">
-        <v>117.7476446888457</v>
+        <v>117.6636219507893</v>
       </c>
       <c r="K31" t="n">
-        <v>63.58271276927573</v>
+        <v>63.44463759988385</v>
       </c>
       <c r="L31" t="n">
-        <v>30.45631013468387</v>
+        <v>30.27962145547927</v>
       </c>
       <c r="M31" t="n">
-        <v>25.42579023297469</v>
+        <v>25.23949679433429</v>
       </c>
       <c r="N31" t="n">
-        <v>13.84983270846368</v>
+        <v>13.66796891140785</v>
       </c>
       <c r="O31" t="n">
-        <v>41.67208363857273</v>
+        <v>41.50410298648313</v>
       </c>
       <c r="P31" t="n">
-        <v>64.98837134358664</v>
+        <v>64.84463487616962</v>
       </c>
       <c r="Q31" t="n">
-        <v>134.42632090912</v>
+        <v>134.3268052295215</v>
       </c>
       <c r="R31" t="n">
-        <v>211.8110097304511</v>
+        <v>211.7575731273359</v>
       </c>
       <c r="S31" t="n">
-        <v>240.1097632263137</v>
+        <v>240.0890519509049</v>
       </c>
       <c r="T31" t="n">
-        <v>217.2083632209524</v>
+        <v>217.203285339136</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2083679642753</v>
+        <v>291.2083031402521</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24928,19 +24928,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F32" t="n">
-        <v>399.146417573369</v>
+        <v>369.5702757534202</v>
       </c>
       <c r="G32" t="n">
-        <v>421.7223238127198</v>
+        <v>421.7196743886565</v>
       </c>
       <c r="H32" t="n">
-        <v>344.9668206262274</v>
+        <v>344.9396872120389</v>
       </c>
       <c r="I32" t="n">
-        <v>235.6180226107624</v>
+        <v>235.5158806895611</v>
       </c>
       <c r="J32" t="n">
-        <v>62.27902778684216</v>
+        <v>62.05416123124772</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>61.53588530938285</v>
+        <v>67.92212148024237</v>
       </c>
       <c r="R32" t="n">
-        <v>174.2009029590361</v>
+        <v>180.7068202383961</v>
       </c>
       <c r="S32" t="n">
-        <v>224.8250298051639</v>
+        <v>224.7646560543209</v>
       </c>
       <c r="T32" t="n">
-        <v>210.6653317519557</v>
+        <v>217.3260780617962</v>
       </c>
       <c r="U32" t="n">
-        <v>242.8751729764493</v>
+        <v>219.1758199419427</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -24982,10 +24982,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X32" t="n">
-        <v>348.8168793035129</v>
+        <v>322.766213588502</v>
       </c>
       <c r="Y32" t="n">
-        <v>377.9289763951821</v>
+        <v>348.3528345752333</v>
       </c>
     </row>
     <row r="33">
@@ -25001,7 +25001,7 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D33" t="n">
-        <v>166.2219416401449</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E33" t="n">
         <v>187.4605452976028</v>
@@ -25010,16 +25010,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7683649116677</v>
       </c>
       <c r="H33" t="n">
-        <v>135.3823959320322</v>
+        <v>135.3687052206442</v>
       </c>
       <c r="I33" t="n">
-        <v>108.5091580928627</v>
+        <v>108.4603515150264</v>
       </c>
       <c r="J33" t="n">
-        <v>58.29370945070389</v>
+        <v>58.15978047068195</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,31 +25040,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>15.85666041433092</v>
+        <v>22.34805341350565</v>
       </c>
       <c r="R33" t="n">
-        <v>139.169341083075</v>
+        <v>139.0813275906099</v>
       </c>
       <c r="S33" t="n">
-        <v>196.7959693401565</v>
+        <v>203.4419828213963</v>
       </c>
       <c r="T33" t="n">
-        <v>222.4346876940641</v>
+        <v>229.1013180685657</v>
       </c>
       <c r="U33" t="n">
-        <v>249.633423953496</v>
+        <v>249.6333306925193</v>
       </c>
       <c r="V33" t="n">
-        <v>249.2999251801724</v>
+        <v>219.7237833602236</v>
       </c>
       <c r="W33" t="n">
-        <v>283.2492567629311</v>
+        <v>253.6731149429823</v>
       </c>
       <c r="X33" t="n">
-        <v>230.033063710963</v>
+        <v>200.4569218910142</v>
       </c>
       <c r="Y33" t="n">
-        <v>242.8962664135933</v>
+        <v>216.8456006985824</v>
       </c>
     </row>
     <row r="34">
@@ -25089,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.028827651796</v>
+        <v>169.0276392113709</v>
       </c>
       <c r="H34" t="n">
-        <v>165.7500645549697</v>
+        <v>165.7394982391899</v>
       </c>
       <c r="I34" t="n">
-        <v>161.5539700582341</v>
+        <v>161.5182304134495</v>
       </c>
       <c r="J34" t="n">
-        <v>117.7476446888457</v>
+        <v>117.6636219507893</v>
       </c>
       <c r="K34" t="n">
-        <v>63.58271276927573</v>
+        <v>63.44463759988385</v>
       </c>
       <c r="L34" t="n">
-        <v>30.45631013468387</v>
+        <v>30.27962145547927</v>
       </c>
       <c r="M34" t="n">
-        <v>25.42579023297469</v>
+        <v>25.23949679433429</v>
       </c>
       <c r="N34" t="n">
-        <v>13.84983270846368</v>
+        <v>13.66796891140785</v>
       </c>
       <c r="O34" t="n">
-        <v>41.67208363857273</v>
+        <v>41.50410298648313</v>
       </c>
       <c r="P34" t="n">
-        <v>64.98837134358664</v>
+        <v>64.84463487616962</v>
       </c>
       <c r="Q34" t="n">
-        <v>134.42632090912</v>
+        <v>134.3268052295215</v>
       </c>
       <c r="R34" t="n">
-        <v>211.8110097304511</v>
+        <v>211.7575731273359</v>
       </c>
       <c r="S34" t="n">
-        <v>240.1097632263137</v>
+        <v>240.0890519509049</v>
       </c>
       <c r="T34" t="n">
-        <v>217.2083632209524</v>
+        <v>217.203285339136</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2083679642753</v>
+        <v>291.2083031402521</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25153,31 +25153,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>364.5563275970632</v>
+        <v>334.9801857771143</v>
       </c>
       <c r="C35" t="n">
-        <v>333.5971194742085</v>
+        <v>307.5464537591976</v>
       </c>
       <c r="D35" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E35" t="n">
-        <v>359.9585549362873</v>
+        <v>330.3824131163385</v>
       </c>
       <c r="F35" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>421.7223238127198</v>
+        <v>421.7196743886565</v>
       </c>
       <c r="H35" t="n">
-        <v>344.9668206262274</v>
+        <v>344.9396872120389</v>
       </c>
       <c r="I35" t="n">
-        <v>228.9456784470847</v>
+        <v>235.5158806895611</v>
       </c>
       <c r="J35" t="n">
-        <v>55.60668362316449</v>
+        <v>62.05416123124772</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,22 +25198,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>68.20822947306053</v>
+        <v>67.92212148024237</v>
       </c>
       <c r="R35" t="n">
-        <v>180.8732471227138</v>
+        <v>180.7068202383961</v>
       </c>
       <c r="S35" t="n">
-        <v>224.8250298051639</v>
+        <v>224.7646560543209</v>
       </c>
       <c r="T35" t="n">
-        <v>217.3376759156334</v>
+        <v>217.3260780617962</v>
       </c>
       <c r="U35" t="n">
-        <v>242.0798295521389</v>
+        <v>248.7519617618915</v>
       </c>
       <c r="V35" t="n">
-        <v>307.4274412616558</v>
+        <v>283.7283001810743</v>
       </c>
       <c r="W35" t="n">
         <v>325.3917254792934</v>
@@ -25235,10 +25235,10 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C36" t="n">
-        <v>203.8424276152394</v>
+        <v>174.2662857952906</v>
       </c>
       <c r="D36" t="n">
-        <v>172.0989423795122</v>
+        <v>142.5228005595634</v>
       </c>
       <c r="E36" t="n">
         <v>187.4605452976028</v>
@@ -25247,16 +25247,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7683649116677</v>
       </c>
       <c r="H36" t="n">
-        <v>135.3823959320322</v>
+        <v>135.3687052206442</v>
       </c>
       <c r="I36" t="n">
-        <v>108.5091580928627</v>
+        <v>108.4603515150264</v>
       </c>
       <c r="J36" t="n">
-        <v>58.29370945070389</v>
+        <v>58.15978047068195</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,25 +25277,25 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>133.2923403437077</v>
+        <v>139.0813275906099</v>
       </c>
       <c r="S36" t="n">
-        <v>196.7959693401565</v>
+        <v>203.4419828213963</v>
       </c>
       <c r="T36" t="n">
-        <v>222.4346876940641</v>
+        <v>229.1013180685657</v>
       </c>
       <c r="U36" t="n">
-        <v>242.9610797898183</v>
+        <v>249.6333306925193</v>
       </c>
       <c r="V36" t="n">
-        <v>249.2999251801724</v>
+        <v>219.7237833602236</v>
       </c>
       <c r="W36" t="n">
-        <v>283.2492567629311</v>
+        <v>279.5466444614258</v>
       </c>
       <c r="X36" t="n">
         <v>230.033063710963</v>
@@ -25326,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.028827651796</v>
+        <v>169.0276392113709</v>
       </c>
       <c r="H37" t="n">
-        <v>165.7500645549697</v>
+        <v>165.7394982391899</v>
       </c>
       <c r="I37" t="n">
-        <v>161.5539700582341</v>
+        <v>161.5182304134495</v>
       </c>
       <c r="J37" t="n">
-        <v>117.7476446888457</v>
+        <v>117.6636219507893</v>
       </c>
       <c r="K37" t="n">
-        <v>63.58271276927573</v>
+        <v>63.44463759988385</v>
       </c>
       <c r="L37" t="n">
-        <v>30.45631013468387</v>
+        <v>30.27962145547927</v>
       </c>
       <c r="M37" t="n">
-        <v>25.42579023297469</v>
+        <v>25.23949679433429</v>
       </c>
       <c r="N37" t="n">
-        <v>13.84983270846368</v>
+        <v>13.66796891140785</v>
       </c>
       <c r="O37" t="n">
-        <v>41.67208363857273</v>
+        <v>41.50410298648313</v>
       </c>
       <c r="P37" t="n">
-        <v>64.98837134358664</v>
+        <v>64.84463487616962</v>
       </c>
       <c r="Q37" t="n">
-        <v>134.42632090912</v>
+        <v>134.3268052295215</v>
       </c>
       <c r="R37" t="n">
-        <v>211.8110097304511</v>
+        <v>211.7575731273359</v>
       </c>
       <c r="S37" t="n">
-        <v>240.1097632263137</v>
+        <v>240.0890519509049</v>
       </c>
       <c r="T37" t="n">
-        <v>217.2083632209524</v>
+        <v>217.203285339136</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2083679642753</v>
+        <v>291.2083031402521</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>364.5563275970632</v>
+        <v>338.5056618820523</v>
       </c>
       <c r="C38" t="n">
         <v>333.5971194742085</v>
@@ -25405,16 +25405,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7223238127198</v>
+        <v>421.7196743886565</v>
       </c>
       <c r="H38" t="n">
-        <v>339.0898198868601</v>
+        <v>344.9396872120389</v>
       </c>
       <c r="I38" t="n">
-        <v>228.9456784470847</v>
+        <v>235.5158806895611</v>
       </c>
       <c r="J38" t="n">
-        <v>62.27902778684216</v>
+        <v>62.05416123124772</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,28 +25435,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>68.20822947306053</v>
+        <v>67.92212148024237</v>
       </c>
       <c r="R38" t="n">
-        <v>180.8732471227138</v>
+        <v>180.7068202383961</v>
       </c>
       <c r="S38" t="n">
-        <v>224.8250298051639</v>
+        <v>224.7646560543209</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3376759156334</v>
+        <v>217.3260780617962</v>
       </c>
       <c r="U38" t="n">
-        <v>242.0798295521389</v>
+        <v>248.7519617618915</v>
       </c>
       <c r="V38" t="n">
-        <v>313.3044420010231</v>
+        <v>283.7283001810743</v>
       </c>
       <c r="W38" t="n">
-        <v>318.7193813156157</v>
+        <v>295.8155836593446</v>
       </c>
       <c r="X38" t="n">
-        <v>348.8168793035129</v>
+        <v>319.2407374835641</v>
       </c>
       <c r="Y38" t="n">
         <v>377.9289763951821</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>188.0127573810344</v>
+        <v>184.3101450795292</v>
       </c>
       <c r="C39" t="n">
         <v>203.8424276152394</v>
@@ -25484,16 +25484,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7683649116677</v>
       </c>
       <c r="H39" t="n">
-        <v>135.3823959320322</v>
+        <v>135.3687052206442</v>
       </c>
       <c r="I39" t="n">
-        <v>108.5091580928627</v>
+        <v>108.4603515150264</v>
       </c>
       <c r="J39" t="n">
-        <v>58.29370945070389</v>
+        <v>58.15978047068195</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,28 +25514,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>15.85666041433092</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>139.169341083075</v>
+        <v>139.0813275906099</v>
       </c>
       <c r="S39" t="n">
-        <v>196.7959693401565</v>
+        <v>203.4419828213963</v>
       </c>
       <c r="T39" t="n">
-        <v>222.4346876940641</v>
+        <v>229.1013180685657</v>
       </c>
       <c r="U39" t="n">
-        <v>249.633423953496</v>
+        <v>220.0571888725704</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W39" t="n">
-        <v>277.3722560235638</v>
+        <v>253.6731149429823</v>
       </c>
       <c r="X39" t="n">
-        <v>230.033063710963</v>
+        <v>200.4569218910142</v>
       </c>
       <c r="Y39" t="n">
         <v>242.8962664135933</v>
@@ -25563,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.028827651796</v>
+        <v>169.0276392113709</v>
       </c>
       <c r="H40" t="n">
-        <v>165.7500645549697</v>
+        <v>165.7394982391899</v>
       </c>
       <c r="I40" t="n">
-        <v>161.5539700582341</v>
+        <v>161.5182304134495</v>
       </c>
       <c r="J40" t="n">
-        <v>117.7476446888457</v>
+        <v>117.6636219507893</v>
       </c>
       <c r="K40" t="n">
-        <v>63.58271276927573</v>
+        <v>63.44463759988385</v>
       </c>
       <c r="L40" t="n">
-        <v>30.45631013468387</v>
+        <v>30.27962145547927</v>
       </c>
       <c r="M40" t="n">
-        <v>25.42579023297469</v>
+        <v>25.23949679433429</v>
       </c>
       <c r="N40" t="n">
-        <v>13.84983270846368</v>
+        <v>13.66796891140785</v>
       </c>
       <c r="O40" t="n">
-        <v>41.67208363857273</v>
+        <v>41.50410298648313</v>
       </c>
       <c r="P40" t="n">
-        <v>64.98837134358664</v>
+        <v>64.84463487616962</v>
       </c>
       <c r="Q40" t="n">
-        <v>134.42632090912</v>
+        <v>134.3268052295215</v>
       </c>
       <c r="R40" t="n">
-        <v>211.8110097304511</v>
+        <v>211.7575731273359</v>
       </c>
       <c r="S40" t="n">
-        <v>240.1097632263137</v>
+        <v>240.0890519509049</v>
       </c>
       <c r="T40" t="n">
-        <v>217.2083632209524</v>
+        <v>217.203285339136</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2083679642753</v>
+        <v>291.2083031402521</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>357.8839834333855</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
-        <v>326.9247753105308</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D41" t="n">
         <v>319.1317556432476</v>
@@ -25642,16 +25642,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.7223238127198</v>
+        <v>421.7196743886565</v>
       </c>
       <c r="H41" t="n">
-        <v>344.9668206262274</v>
+        <v>344.9396872120389</v>
       </c>
       <c r="I41" t="n">
-        <v>235.6180226107624</v>
+        <v>235.5158806895611</v>
       </c>
       <c r="J41" t="n">
-        <v>62.27902778684216</v>
+        <v>62.05416123124772</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>68.20822947306053</v>
+        <v>52.63251937872924</v>
       </c>
       <c r="R41" t="n">
-        <v>180.8732471227138</v>
+        <v>165.417218136883</v>
       </c>
       <c r="S41" t="n">
-        <v>224.8250298051639</v>
+        <v>211.2975745233082</v>
       </c>
       <c r="T41" t="n">
-        <v>217.3376759156334</v>
+        <v>217.3260780617962</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7519617618915</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25693,10 +25693,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X41" t="n">
-        <v>342.9398785641456</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>371.2566322315045</v>
+        <v>362.639374293669</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>181.3404132173568</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C42" t="n">
-        <v>197.9654268758721</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D42" t="n">
         <v>172.0989423795122</v>
@@ -25721,16 +25721,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7683649116677</v>
       </c>
       <c r="H42" t="n">
-        <v>135.3823959320322</v>
+        <v>135.3687052206442</v>
       </c>
       <c r="I42" t="n">
-        <v>108.5091580928627</v>
+        <v>108.4603515150264</v>
       </c>
       <c r="J42" t="n">
-        <v>58.29370945070389</v>
+        <v>58.15978047068195</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,31 +25751,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.5290045780086</v>
+        <v>8.880971882492894</v>
       </c>
       <c r="R42" t="n">
-        <v>139.169341083075</v>
+        <v>123.7917254890967</v>
       </c>
       <c r="S42" t="n">
-        <v>203.4683135038341</v>
+        <v>203.4419828213963</v>
       </c>
       <c r="T42" t="n">
-        <v>229.1070318577418</v>
+        <v>229.1013180685657</v>
       </c>
       <c r="U42" t="n">
-        <v>249.633423953496</v>
+        <v>249.6333306925193</v>
       </c>
       <c r="V42" t="n">
-        <v>249.2999251801724</v>
+        <v>234.0103230786593</v>
       </c>
       <c r="W42" t="n">
-        <v>276.5769125992534</v>
+        <v>267.959654661418</v>
       </c>
       <c r="X42" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
-        <v>236.2239222499157</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="43">
@@ -25800,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.028827651796</v>
+        <v>169.0276392113709</v>
       </c>
       <c r="H43" t="n">
-        <v>165.7500645549697</v>
+        <v>165.7394982391899</v>
       </c>
       <c r="I43" t="n">
-        <v>161.5539700582341</v>
+        <v>161.5182304134495</v>
       </c>
       <c r="J43" t="n">
-        <v>117.7476446888457</v>
+        <v>117.6636219507893</v>
       </c>
       <c r="K43" t="n">
-        <v>63.58271276927573</v>
+        <v>63.44463759988385</v>
       </c>
       <c r="L43" t="n">
-        <v>30.45631013468387</v>
+        <v>30.27962145547927</v>
       </c>
       <c r="M43" t="n">
-        <v>25.42579023297469</v>
+        <v>25.23949679433429</v>
       </c>
       <c r="N43" t="n">
-        <v>13.84983270846368</v>
+        <v>13.66796891140785</v>
       </c>
       <c r="O43" t="n">
-        <v>41.67208363857273</v>
+        <v>41.50410298648313</v>
       </c>
       <c r="P43" t="n">
-        <v>64.98837134358664</v>
+        <v>64.84463487616962</v>
       </c>
       <c r="Q43" t="n">
-        <v>134.42632090912</v>
+        <v>134.3268052295215</v>
       </c>
       <c r="R43" t="n">
-        <v>211.8110097304511</v>
+        <v>211.7575731273359</v>
       </c>
       <c r="S43" t="n">
-        <v>240.1097632263137</v>
+        <v>240.0890519509049</v>
       </c>
       <c r="T43" t="n">
-        <v>217.2083632209524</v>
+        <v>217.203285339136</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2083679642753</v>
+        <v>291.2083031402521</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>357.8839834333855</v>
+        <v>349.26672549555</v>
       </c>
       <c r="C44" t="n">
-        <v>327.7201187348412</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D44" t="n">
         <v>319.1317556432476</v>
@@ -25879,16 +25879,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>421.67247144649</v>
+        <v>406.4300722871433</v>
       </c>
       <c r="H44" t="n">
-        <v>344.4562700805762</v>
+        <v>344.9396872120389</v>
       </c>
       <c r="I44" t="n">
-        <v>233.6960892616871</v>
+        <v>235.5158806895611</v>
       </c>
       <c r="J44" t="n">
-        <v>58.04787051854379</v>
+        <v>62.05416123124772</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,22 +25909,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>62.82473475935981</v>
+        <v>52.63251937872924</v>
       </c>
       <c r="R44" t="n">
-        <v>177.7417084225297</v>
+        <v>180.7068202383961</v>
       </c>
       <c r="S44" t="n">
-        <v>223.6890190097018</v>
+        <v>224.7646560543209</v>
       </c>
       <c r="T44" t="n">
-        <v>217.1194471824624</v>
+        <v>217.3260780617962</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7519617618915</v>
       </c>
       <c r="V44" t="n">
-        <v>306.6320978373454</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W44" t="n">
         <v>325.3917254792934</v>
@@ -25933,7 +25933,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y44" t="n">
-        <v>371.2566322315045</v>
+        <v>364.4618948641694</v>
       </c>
     </row>
     <row r="45">
@@ -25949,7 +25949,7 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D45" t="n">
-        <v>172.0989423795122</v>
+        <v>156.8093402779991</v>
       </c>
       <c r="E45" t="n">
         <v>187.4605452976028</v>
@@ -25958,16 +25958,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7431091110548</v>
+        <v>160.7683649116677</v>
       </c>
       <c r="H45" t="n">
-        <v>135.1247873568297</v>
+        <v>135.3687052206442</v>
       </c>
       <c r="I45" t="n">
-        <v>107.5907987307646</v>
+        <v>108.4603515150264</v>
       </c>
       <c r="J45" t="n">
-        <v>55.77366116803451</v>
+        <v>58.15978047068195</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,25 +25988,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>13.24717188010599</v>
+        <v>8.880971882492894</v>
       </c>
       <c r="R45" t="n">
-        <v>137.5132525315004</v>
+        <v>139.0813275906099</v>
       </c>
       <c r="S45" t="n">
-        <v>196.3005232384386</v>
+        <v>203.4419828213963</v>
       </c>
       <c r="T45" t="n">
-        <v>222.327175305049</v>
+        <v>229.1013180685657</v>
       </c>
       <c r="U45" t="n">
-        <v>242.9593249630118</v>
+        <v>234.3437285910061</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W45" t="n">
-        <v>283.2492567629311</v>
+        <v>267.959654661418</v>
       </c>
       <c r="X45" t="n">
         <v>230.033063710963</v>
@@ -26037,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0276392113709</v>
       </c>
       <c r="H46" t="n">
-        <v>165.5512455545521</v>
+        <v>165.7394982391899</v>
       </c>
       <c r="I46" t="n">
-        <v>160.8814820690915</v>
+        <v>161.5182304134495</v>
       </c>
       <c r="J46" t="n">
-        <v>116.1666473818438</v>
+        <v>117.6636219507893</v>
       </c>
       <c r="K46" t="n">
-        <v>60.9846485306895</v>
+        <v>63.44463759988385</v>
       </c>
       <c r="L46" t="n">
-        <v>27.13168239150397</v>
+        <v>30.27962145547927</v>
       </c>
       <c r="M46" t="n">
-        <v>21.92043642499797</v>
+        <v>25.23949679433429</v>
       </c>
       <c r="N46" t="n">
-        <v>10.42782837918966</v>
+        <v>13.66796891140785</v>
       </c>
       <c r="O46" t="n">
-        <v>38.51130877303761</v>
+        <v>41.50410298648313</v>
       </c>
       <c r="P46" t="n">
-        <v>62.28378240539014</v>
+        <v>64.84463487616962</v>
       </c>
       <c r="Q46" t="n">
-        <v>132.5538037180701</v>
+        <v>134.3268052295215</v>
       </c>
       <c r="R46" t="n">
-        <v>210.8055304093206</v>
+        <v>211.7575731273359</v>
       </c>
       <c r="S46" t="n">
-        <v>239.7200535905258</v>
+        <v>240.0890519509049</v>
       </c>
       <c r="T46" t="n">
-        <v>217.1128162575616</v>
+        <v>217.203285339136</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2083031402521</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>398434.0416940691</v>
+        <v>415094.6414366497</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>398434.0416940691</v>
+        <v>415094.6414366497</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>459149.0615844685</v>
+        <v>469955.8926163295</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>459149.0615844685</v>
+        <v>469955.8926163295</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>463966.1915182524</v>
+        <v>480730.3799421552</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>463966.1915182524</v>
+        <v>480730.3799421552</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>463966.1915182525</v>
+        <v>480730.3799421553</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>463966.1915182525</v>
+        <v>480730.3799421551</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>463966.1915182524</v>
+        <v>480730.3799421552</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>463966.1915182524</v>
+        <v>480730.3799421552</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>463966.1915182524</v>
+        <v>470328.9548929379</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>466628.5833760792</v>
+        <v>470328.9548929379</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88110.73227469021</v>
+        <v>92148.00209696719</v>
       </c>
       <c r="C2" t="n">
-        <v>88110.73227469021</v>
+        <v>92148.00209696719</v>
       </c>
       <c r="D2" t="n">
         <v>93076.03619987474</v>
@@ -26328,34 +26328,34 @@
         <v>103326.2753544732</v>
       </c>
       <c r="G2" t="n">
-        <v>103326.2753544732</v>
+        <v>105629.5880057906</v>
       </c>
       <c r="H2" t="n">
-        <v>103326.2753544732</v>
+        <v>105629.5880057906</v>
       </c>
       <c r="I2" t="n">
-        <v>104352.9737720586</v>
+        <v>107917.1251563317</v>
       </c>
       <c r="J2" t="n">
-        <v>104352.9737720586</v>
+        <v>107917.1251563317</v>
       </c>
       <c r="K2" t="n">
-        <v>104352.9737720586</v>
+        <v>107917.1251563317</v>
       </c>
       <c r="L2" t="n">
-        <v>104352.9737720586</v>
+        <v>107917.1251563317</v>
       </c>
       <c r="M2" t="n">
-        <v>104352.9737720586</v>
+        <v>107917.1251563317</v>
       </c>
       <c r="N2" t="n">
-        <v>104352.9737720586</v>
+        <v>107917.1251563317</v>
       </c>
       <c r="O2" t="n">
-        <v>104352.9737720586</v>
+        <v>105718.8021439283</v>
       </c>
       <c r="P2" t="n">
-        <v>105102.9697262486</v>
+        <v>105718.8021439283</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>300331.6078316385</v>
+        <v>330871.7541851042</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>33381.84090058045</v>
+        <v>6239.192452337453</v>
       </c>
       <c r="E3" t="n">
         <v>91578.71063444842</v>
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4102.737283769505</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1774.316432349332</v>
+        <v>4380.480506889648</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>164.1986792433502</v>
       </c>
       <c r="P3" t="n">
-        <v>8253.658953312784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12102.3694127353</v>
+        <v>11061.09378071676</v>
       </c>
       <c r="C4" t="n">
-        <v>12102.3694127353</v>
+        <v>11061.09378071676</v>
       </c>
       <c r="D4" t="n">
         <v>10847.6596249392</v>
       </c>
       <c r="E4" t="n">
-        <v>6103.085030239961</v>
+        <v>6103.085030239964</v>
       </c>
       <c r="F4" t="n">
         <v>6103.085030239964</v>
       </c>
       <c r="G4" t="n">
-        <v>6103.085030239964</v>
+        <v>6821.622495069256</v>
       </c>
       <c r="H4" t="n">
-        <v>6103.085030239964</v>
+        <v>6821.622495069259</v>
       </c>
       <c r="I4" t="n">
-        <v>6423.372107938305</v>
+        <v>7576.723769851043</v>
       </c>
       <c r="J4" t="n">
-        <v>6423.372107938305</v>
+        <v>7576.723769851043</v>
       </c>
       <c r="K4" t="n">
-        <v>6423.372107938305</v>
+        <v>7576.723769851044</v>
       </c>
       <c r="L4" t="n">
-        <v>6423.372107938304</v>
+        <v>7576.723769851044</v>
       </c>
       <c r="M4" t="n">
-        <v>6423.372107938305</v>
+        <v>7576.723769851044</v>
       </c>
       <c r="N4" t="n">
-        <v>6423.372107938305</v>
+        <v>7576.723769851044</v>
       </c>
       <c r="O4" t="n">
-        <v>6423.372107938305</v>
+        <v>6803.747507906959</v>
       </c>
       <c r="P4" t="n">
-        <v>5797.320166624164</v>
+        <v>6803.747507906959</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40422.05903150925</v>
+        <v>41112.97456555201</v>
       </c>
       <c r="C5" t="n">
-        <v>40422.05903150925</v>
+        <v>41112.97456555201</v>
       </c>
       <c r="D5" t="n">
         <v>41271.79307559616</v>
@@ -26484,34 +26484,34 @@
         <v>10129.14258640329</v>
       </c>
       <c r="G5" t="n">
-        <v>10129.14258640329</v>
+        <v>11039.24867339523</v>
       </c>
       <c r="H5" t="n">
-        <v>10129.14258640329</v>
+        <v>11039.24867339523</v>
       </c>
       <c r="I5" t="n">
-        <v>10534.82111155489</v>
+        <v>11941.73917339556</v>
       </c>
       <c r="J5" t="n">
-        <v>10534.82111155489</v>
+        <v>11941.73917339556</v>
       </c>
       <c r="K5" t="n">
-        <v>10534.82111155489</v>
+        <v>11941.73917339556</v>
       </c>
       <c r="L5" t="n">
-        <v>10534.82111155489</v>
+        <v>11941.73917339556</v>
       </c>
       <c r="M5" t="n">
-        <v>10534.82111155489</v>
+        <v>11941.73917339556</v>
       </c>
       <c r="N5" t="n">
-        <v>10534.82111155489</v>
+        <v>11941.73917339556</v>
       </c>
       <c r="O5" t="n">
-        <v>10534.82111155489</v>
+        <v>11073.11755851467</v>
       </c>
       <c r="P5" t="n">
-        <v>10805.15803052766</v>
+        <v>11073.11755851467</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-264745.3040011929</v>
+        <v>-307629.6489052229</v>
       </c>
       <c r="C6" t="n">
-        <v>35586.30383044566</v>
+        <v>23242.10527988126</v>
       </c>
       <c r="D6" t="n">
-        <v>7574.74259875893</v>
+        <v>18056.94981486997</v>
       </c>
       <c r="E6" t="n">
-        <v>-4484.662896618445</v>
+        <v>-20356.62419378127</v>
       </c>
       <c r="F6" t="n">
-        <v>87094.04773782998</v>
+        <v>71222.08644066713</v>
       </c>
       <c r="G6" t="n">
-        <v>87094.04773782998</v>
+        <v>67971.19615264892</v>
       </c>
       <c r="H6" t="n">
-        <v>87094.04773782998</v>
+        <v>72073.93343641842</v>
       </c>
       <c r="I6" t="n">
-        <v>85620.46412021604</v>
+        <v>68499.3627014833</v>
       </c>
       <c r="J6" t="n">
-        <v>87394.78055256541</v>
+        <v>72879.84320837297</v>
       </c>
       <c r="K6" t="n">
-        <v>87394.78055256538</v>
+        <v>72879.84320837297</v>
       </c>
       <c r="L6" t="n">
-        <v>87394.78055256541</v>
+        <v>72879.84320837297</v>
       </c>
       <c r="M6" t="n">
-        <v>87394.78055256538</v>
+        <v>72879.84320837297</v>
       </c>
       <c r="N6" t="n">
-        <v>87394.78055256541</v>
+        <v>72879.84320837297</v>
       </c>
       <c r="O6" t="n">
-        <v>87394.78055256541</v>
+        <v>71989.81762336628</v>
       </c>
       <c r="P6" t="n">
-        <v>80246.83257578396</v>
+        <v>72154.01630260963</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>311.6724326380389</v>
+        <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
-        <v>311.6724326380389</v>
+        <v>343.3658057592666</v>
       </c>
       <c r="D3" t="n">
         <v>350.6510585135856</v>
       </c>
       <c r="E3" t="n">
-        <v>464.6395681836371</v>
+        <v>464.639568183637</v>
       </c>
       <c r="F3" t="n">
         <v>464.639568183637</v>
       </c>
       <c r="G3" t="n">
-        <v>464.639568183637</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="H3" t="n">
         <v>464.639568183637</v>
       </c>
       <c r="I3" t="n">
-        <v>464.639568183637</v>
+        <v>465.2986124193886</v>
       </c>
       <c r="J3" t="n">
-        <v>464.639568183637</v>
+        <v>465.2986124193886</v>
       </c>
       <c r="K3" t="n">
-        <v>464.639568183637</v>
+        <v>465.2986124193886</v>
       </c>
       <c r="L3" t="n">
-        <v>464.639568183637</v>
+        <v>465.2986124193886</v>
       </c>
       <c r="M3" t="n">
-        <v>464.639568183637</v>
+        <v>465.2986124193886</v>
       </c>
       <c r="N3" t="n">
-        <v>464.639568183637</v>
+        <v>465.2986124193886</v>
       </c>
       <c r="O3" t="n">
-        <v>464.639568183637</v>
+        <v>465.2986124193886</v>
       </c>
       <c r="P3" t="n">
-        <v>477.0403442833053</v>
+        <v>465.2986124193886</v>
       </c>
     </row>
     <row r="4">
@@ -26804,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="I4" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="J4" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="K4" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="L4" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="M4" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="N4" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="O4" t="n">
-        <v>6.672344163677678</v>
+        <v>15.28960210151313</v>
       </c>
       <c r="P4" t="n">
-        <v>6.672344163677678</v>
+        <v>15.28960210151313</v>
       </c>
     </row>
   </sheetData>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>311.6724326380389</v>
+        <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>38.9786258755467</v>
+        <v>7.285252754319117</v>
       </c>
       <c r="E3" t="n">
         <v>113.9885096700515</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.6590442357514803</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>12.40077609966824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6.672344163677678</v>
+        <v>14.6072917049498</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.6823103965632811</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.252954503067492</v>
+        <v>1.380365048278458</v>
       </c>
       <c r="H2" t="n">
-        <v>12.83182030453995</v>
+        <v>14.13666355068176</v>
       </c>
       <c r="I2" t="n">
-        <v>48.30452847950953</v>
+        <v>53.21652352375528</v>
       </c>
       <c r="J2" t="n">
-        <v>106.3429472547246</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K2" t="n">
-        <v>159.3805113695716</v>
+        <v>175.587610509951</v>
       </c>
       <c r="L2" t="n">
-        <v>197.7256177428234</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M2" t="n">
-        <v>220.0078473867499</v>
+        <v>242.3800242835249</v>
       </c>
       <c r="N2" t="n">
-        <v>223.5678043685904</v>
+        <v>246.3019864769461</v>
       </c>
       <c r="O2" t="n">
-        <v>211.108738028713</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P2" t="n">
-        <v>180.1764237342343</v>
+        <v>198.4982193987527</v>
       </c>
       <c r="Q2" t="n">
-        <v>135.3049905931297</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R2" t="n">
-        <v>78.70590330331341</v>
+        <v>86.70935596392172</v>
       </c>
       <c r="S2" t="n">
-        <v>28.5517007386505</v>
+        <v>31.45506853764538</v>
       </c>
       <c r="T2" t="n">
-        <v>5.484808337177949</v>
+        <v>6.042547998838951</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6703897607686119</v>
+        <v>0.7385604123878564</v>
       </c>
       <c r="H3" t="n">
-        <v>6.474553742160016</v>
+        <v>7.132938719640614</v>
       </c>
       <c r="I3" t="n">
-        <v>23.08140185102458</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J3" t="n">
-        <v>63.33713086279241</v>
+        <v>69.77776247038078</v>
       </c>
       <c r="K3" t="n">
-        <v>108.2532448342894</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L3" t="n">
-        <v>145.559846959869</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M3" t="n">
-        <v>169.8614757877312</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N3" t="n">
-        <v>174.3572036132365</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O3" t="n">
-        <v>159.5027778614688</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P3" t="n">
-        <v>128.015041247122</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.57466490091966</v>
+        <v>94.27658878129901</v>
       </c>
       <c r="R3" t="n">
-        <v>41.62297128701962</v>
+        <v>45.85553156913377</v>
       </c>
       <c r="S3" t="n">
-        <v>12.45219577568013</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T3" t="n">
-        <v>2.70214118485243</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04858950081499057</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.6191842398937593</v>
       </c>
       <c r="H4" t="n">
-        <v>4.996977690491839</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I4" t="n">
-        <v>16.9018427404366</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J4" t="n">
-        <v>39.73568046927915</v>
+        <v>43.77632576048878</v>
       </c>
       <c r="K4" t="n">
-        <v>65.29792932973993</v>
+        <v>71.93795078038401</v>
       </c>
       <c r="L4" t="n">
-        <v>83.55886825184406</v>
+        <v>92.05580962929582</v>
       </c>
       <c r="M4" t="n">
-        <v>88.10111075373283</v>
+        <v>97.05994407716446</v>
       </c>
       <c r="N4" t="n">
-        <v>86.00626325567396</v>
+        <v>94.75207554665143</v>
       </c>
       <c r="O4" t="n">
-        <v>79.44070463370868</v>
+        <v>87.51887783516521</v>
       </c>
       <c r="P4" t="n">
-        <v>67.97524661994208</v>
+        <v>74.88751934133246</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.06253732834386</v>
+        <v>51.84823666964925</v>
       </c>
       <c r="R4" t="n">
-        <v>25.27101396438917</v>
+        <v>27.84077500467757</v>
       </c>
       <c r="S4" t="n">
-        <v>9.794689399460987</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T4" t="n">
-        <v>2.40141054655538</v>
+        <v>2.645605388636971</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0306563048496432</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.252954503067492</v>
+        <v>1.380365048278458</v>
       </c>
       <c r="H5" t="n">
-        <v>12.83182030453995</v>
+        <v>14.13666355068176</v>
       </c>
       <c r="I5" t="n">
-        <v>48.30452847950953</v>
+        <v>53.21652352375528</v>
       </c>
       <c r="J5" t="n">
-        <v>106.3429472547246</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K5" t="n">
-        <v>159.3805113695716</v>
+        <v>175.587610509951</v>
       </c>
       <c r="L5" t="n">
-        <v>197.7256177428234</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M5" t="n">
-        <v>220.0078473867499</v>
+        <v>242.3800242835249</v>
       </c>
       <c r="N5" t="n">
-        <v>223.5678043685904</v>
+        <v>246.3019864769461</v>
       </c>
       <c r="O5" t="n">
-        <v>211.108738028713</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P5" t="n">
-        <v>180.1764237342343</v>
+        <v>198.4982193987527</v>
       </c>
       <c r="Q5" t="n">
-        <v>135.3049905931297</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R5" t="n">
-        <v>78.70590330331341</v>
+        <v>86.70935596392172</v>
       </c>
       <c r="S5" t="n">
-        <v>28.5517007386505</v>
+        <v>31.45506853764538</v>
       </c>
       <c r="T5" t="n">
-        <v>5.484808337177949</v>
+        <v>6.042547998838951</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6703897607686119</v>
+        <v>0.7385604123878564</v>
       </c>
       <c r="H6" t="n">
-        <v>6.474553742160016</v>
+        <v>7.132938719640614</v>
       </c>
       <c r="I6" t="n">
-        <v>23.08140185102458</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J6" t="n">
-        <v>63.33713086279241</v>
+        <v>69.77776247038078</v>
       </c>
       <c r="K6" t="n">
-        <v>108.2532448342894</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L6" t="n">
-        <v>145.559846959869</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M6" t="n">
-        <v>169.8614757877312</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N6" t="n">
-        <v>174.3572036132365</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O6" t="n">
-        <v>159.5027778614688</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P6" t="n">
-        <v>128.015041247122</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q6" t="n">
-        <v>85.57466490091966</v>
+        <v>94.27658878129901</v>
       </c>
       <c r="R6" t="n">
-        <v>41.62297128701962</v>
+        <v>45.85553156913377</v>
       </c>
       <c r="S6" t="n">
-        <v>12.45219577568013</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T6" t="n">
-        <v>2.70214118485243</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04858950081499057</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.6191842398937593</v>
       </c>
       <c r="H7" t="n">
-        <v>4.996977690491839</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I7" t="n">
-        <v>16.9018427404366</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J7" t="n">
-        <v>39.73568046927915</v>
+        <v>43.77632576048878</v>
       </c>
       <c r="K7" t="n">
-        <v>65.29792932973993</v>
+        <v>71.93795078038401</v>
       </c>
       <c r="L7" t="n">
-        <v>83.55886825184406</v>
+        <v>92.05580962929582</v>
       </c>
       <c r="M7" t="n">
-        <v>88.10111075373283</v>
+        <v>97.05994407716446</v>
       </c>
       <c r="N7" t="n">
-        <v>86.00626325567396</v>
+        <v>94.75207554665143</v>
       </c>
       <c r="O7" t="n">
-        <v>79.44070463370868</v>
+        <v>87.51887783516521</v>
       </c>
       <c r="P7" t="n">
-        <v>67.97524661994208</v>
+        <v>74.88751934133246</v>
       </c>
       <c r="Q7" t="n">
-        <v>47.06253732834386</v>
+        <v>51.84823666964925</v>
       </c>
       <c r="R7" t="n">
-        <v>25.27101396438917</v>
+        <v>27.84077500467757</v>
       </c>
       <c r="S7" t="n">
-        <v>9.794689399460987</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T7" t="n">
-        <v>2.40141054655538</v>
+        <v>2.645605388636971</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0306563048496432</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31770,16 +31770,16 @@
         <v>294.7682760045802</v>
       </c>
       <c r="M11" t="n">
-        <v>327.9865028214073</v>
+        <v>327.9865028214072</v>
       </c>
       <c r="N11" t="n">
-        <v>333.2936673363893</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O11" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P11" t="n">
-        <v>268.6060329819789</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q11" t="n">
         <v>201.7119443967467</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9994134108100874</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H12" t="n">
-        <v>9.652229520192162</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I12" t="n">
-        <v>34.40962839850521</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J12" t="n">
         <v>94.42265036078989</v>
@@ -31864,13 +31864,13 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R12" t="n">
-        <v>62.05129931327896</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S12" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T12" t="n">
-        <v>4.028337388309079</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U12" t="n">
         <v>0.06575088229013736</v>
@@ -31910,7 +31910,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8378746311508207</v>
       </c>
       <c r="H13" t="n">
         <v>7.44946717514094</v>
@@ -31919,7 +31919,7 @@
         <v>25.1971752713356</v>
       </c>
       <c r="J13" t="n">
-        <v>59.23773642236304</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K13" t="n">
         <v>97.34579805552262</v>
@@ -31940,7 +31940,7 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.1605747957292</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R13" t="n">
         <v>37.67389023338145</v>
@@ -32244,16 +32244,16 @@
         <v>294.7682760045802</v>
       </c>
       <c r="M17" t="n">
-        <v>327.9865028214072</v>
+        <v>327.9865028214073</v>
       </c>
       <c r="N17" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O17" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P17" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q17" t="n">
         <v>201.7119443967467</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H18" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I18" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J18" t="n">
         <v>94.42265036078989</v>
@@ -32320,16 +32320,16 @@
         <v>161.3833488850657</v>
       </c>
       <c r="L18" t="n">
-        <v>202.635780428066</v>
+        <v>216.9998285182166</v>
       </c>
       <c r="M18" t="n">
-        <v>207.8710246109518</v>
+        <v>222.8398747259508</v>
       </c>
       <c r="N18" t="n">
-        <v>192.087253921875</v>
+        <v>207.056104036874</v>
       </c>
       <c r="O18" t="n">
-        <v>208.5470075</v>
+        <v>223.515857614999</v>
       </c>
       <c r="P18" t="n">
         <v>190.8441275431999</v>
@@ -32338,13 +32338,13 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R18" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S18" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T18" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U18" t="n">
         <v>0.06575088229013736</v>
@@ -32384,7 +32384,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8378746311508207</v>
+        <v>0.8378746311508208</v>
       </c>
       <c r="H19" t="n">
         <v>7.44946717514094</v>
@@ -32393,7 +32393,7 @@
         <v>25.1971752713356</v>
       </c>
       <c r="J19" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K19" t="n">
         <v>97.34579805552262</v>
@@ -32414,7 +32414,7 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R19" t="n">
         <v>37.67389023338145</v>
@@ -32557,16 +32557,16 @@
         <v>161.3833488850657</v>
       </c>
       <c r="L21" t="n">
-        <v>202.635780428066</v>
+        <v>216.9998285182166</v>
       </c>
       <c r="M21" t="n">
-        <v>207.8710246109518</v>
+        <v>222.8398747259508</v>
       </c>
       <c r="N21" t="n">
-        <v>192.087253921875</v>
+        <v>207.056104036874</v>
       </c>
       <c r="O21" t="n">
-        <v>208.5470075</v>
+        <v>223.515857614999</v>
       </c>
       <c r="P21" t="n">
         <v>190.8441275431999</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.867897761542258</v>
+        <v>1.870547185605581</v>
       </c>
       <c r="H23" t="n">
-        <v>19.12960795039465</v>
+        <v>19.15674136458316</v>
       </c>
       <c r="I23" t="n">
-        <v>72.01212845185798</v>
+        <v>72.11427037305923</v>
       </c>
       <c r="J23" t="n">
-        <v>158.5354876386974</v>
+        <v>158.7603541942918</v>
       </c>
       <c r="K23" t="n">
-        <v>237.6035998847812</v>
+        <v>237.9406165609761</v>
       </c>
       <c r="L23" t="n">
-        <v>294.7682760045801</v>
+        <v>295.186374992453</v>
       </c>
       <c r="M23" t="n">
-        <v>327.9865028214073</v>
+        <v>328.4517185044662</v>
       </c>
       <c r="N23" t="n">
-        <v>333.2936673363892</v>
+        <v>333.7664106955681</v>
       </c>
       <c r="O23" t="n">
-        <v>314.7197589700534</v>
+        <v>315.1661571187025</v>
       </c>
       <c r="P23" t="n">
-        <v>268.6060329819788</v>
+        <v>268.9870234740648</v>
       </c>
       <c r="Q23" t="n">
-        <v>201.7119443967466</v>
+        <v>201.9980523895648</v>
       </c>
       <c r="R23" t="n">
-        <v>117.334332763479</v>
+        <v>117.5007596477967</v>
       </c>
       <c r="S23" t="n">
-        <v>42.56472024114425</v>
+        <v>42.62509399198721</v>
       </c>
       <c r="T23" t="n">
-        <v>8.176722451151239</v>
+        <v>8.188320304988434</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1496437748484464</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9994134108100873</v>
+        <v>1.000830977656798</v>
       </c>
       <c r="H24" t="n">
-        <v>9.65222952019216</v>
+        <v>9.665920231580131</v>
       </c>
       <c r="I24" t="n">
-        <v>34.4096283985052</v>
+        <v>34.45843497634151</v>
       </c>
       <c r="J24" t="n">
-        <v>94.42265036078987</v>
+        <v>94.55657934081181</v>
       </c>
       <c r="K24" t="n">
-        <v>161.3833488850657</v>
+        <v>161.6122548438173</v>
       </c>
       <c r="L24" t="n">
-        <v>209.0385349285648</v>
+        <v>217.3076208285079</v>
       </c>
       <c r="M24" t="n">
-        <v>214.5433687746295</v>
+        <v>237.4471664309006</v>
       </c>
       <c r="N24" t="n">
-        <v>198.7595980855527</v>
+        <v>221.6633957418238</v>
       </c>
       <c r="O24" t="n">
-        <v>215.2193516636777</v>
+        <v>238.1231493199488</v>
       </c>
       <c r="P24" t="n">
-        <v>190.8441275431999</v>
+        <v>191.1148206369372</v>
       </c>
       <c r="Q24" t="n">
-        <v>127.5742452114771</v>
+        <v>127.7551963759801</v>
       </c>
       <c r="R24" t="n">
-        <v>62.05129931327895</v>
+        <v>62.13931280574403</v>
       </c>
       <c r="S24" t="n">
-        <v>18.56366576658209</v>
+        <v>18.5899964490199</v>
       </c>
       <c r="T24" t="n">
-        <v>4.028337388309078</v>
+        <v>4.034051177485075</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06584414326689464</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8390630715759465</v>
       </c>
       <c r="H25" t="n">
-        <v>7.449467175140939</v>
+        <v>7.460033490920694</v>
       </c>
       <c r="I25" t="n">
-        <v>25.1971752713356</v>
+        <v>25.23291491612029</v>
       </c>
       <c r="J25" t="n">
-        <v>59.23773642236303</v>
+        <v>59.32175916041942</v>
       </c>
       <c r="K25" t="n">
-        <v>97.34579805552261</v>
+        <v>97.48387322491449</v>
       </c>
       <c r="L25" t="n">
-        <v>124.569106525823</v>
+        <v>124.7457952050276</v>
       </c>
       <c r="M25" t="n">
-        <v>131.3406569539418</v>
+        <v>131.5269503925822</v>
       </c>
       <c r="N25" t="n">
-        <v>128.2176696923798</v>
+        <v>128.3995334894356</v>
       </c>
       <c r="O25" t="n">
-        <v>118.4297705921179</v>
+        <v>118.5977512442075</v>
       </c>
       <c r="P25" t="n">
-        <v>101.3371281166411</v>
+        <v>101.4808645840581</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.16057479572919</v>
+        <v>70.26009047532767</v>
       </c>
       <c r="R25" t="n">
-        <v>37.67389023338144</v>
+        <v>37.72732683649664</v>
       </c>
       <c r="S25" t="n">
-        <v>14.60186970832839</v>
+        <v>14.62258098373717</v>
       </c>
       <c r="T25" t="n">
-        <v>3.580009787644415</v>
+        <v>3.585087669460862</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04576707663141532</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.867897761542258</v>
+        <v>1.870547185605581</v>
       </c>
       <c r="H26" t="n">
-        <v>19.12960795039465</v>
+        <v>19.15674136458316</v>
       </c>
       <c r="I26" t="n">
-        <v>72.01212845185798</v>
+        <v>72.11427037305923</v>
       </c>
       <c r="J26" t="n">
-        <v>158.5354876386974</v>
+        <v>158.7603541942918</v>
       </c>
       <c r="K26" t="n">
-        <v>237.6035998847812</v>
+        <v>237.9406165609761</v>
       </c>
       <c r="L26" t="n">
-        <v>294.7682760045801</v>
+        <v>295.186374992453</v>
       </c>
       <c r="M26" t="n">
-        <v>327.9865028214073</v>
+        <v>328.4517185044662</v>
       </c>
       <c r="N26" t="n">
-        <v>333.2936673363892</v>
+        <v>333.7664106955681</v>
       </c>
       <c r="O26" t="n">
-        <v>314.7197589700534</v>
+        <v>315.1661571187025</v>
       </c>
       <c r="P26" t="n">
-        <v>268.6060329819788</v>
+        <v>268.9870234740648</v>
       </c>
       <c r="Q26" t="n">
-        <v>201.7119443967466</v>
+        <v>201.9980523895648</v>
       </c>
       <c r="R26" t="n">
-        <v>117.334332763479</v>
+        <v>117.5007596477967</v>
       </c>
       <c r="S26" t="n">
-        <v>42.56472024114425</v>
+        <v>42.62509399198721</v>
       </c>
       <c r="T26" t="n">
-        <v>8.176722451151239</v>
+        <v>8.188320304988434</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1496437748484464</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9994134108100873</v>
+        <v>1.000830977656798</v>
       </c>
       <c r="H27" t="n">
-        <v>9.65222952019216</v>
+        <v>9.665920231580131</v>
       </c>
       <c r="I27" t="n">
-        <v>34.4096283985052</v>
+        <v>34.45843497634151</v>
       </c>
       <c r="J27" t="n">
-        <v>94.42265036078987</v>
+        <v>94.55657934081181</v>
       </c>
       <c r="K27" t="n">
-        <v>161.3833488850657</v>
+        <v>161.6122548438173</v>
       </c>
       <c r="L27" t="n">
-        <v>209.3081245917437</v>
+        <v>217.3076208285079</v>
       </c>
       <c r="M27" t="n">
-        <v>214.2737791114506</v>
+        <v>237.4471664309006</v>
       </c>
       <c r="N27" t="n">
-        <v>198.7595980855527</v>
+        <v>221.6633957418238</v>
       </c>
       <c r="O27" t="n">
-        <v>215.2193516636777</v>
+        <v>238.1231493199488</v>
       </c>
       <c r="P27" t="n">
-        <v>190.8441275431999</v>
+        <v>191.1148206369372</v>
       </c>
       <c r="Q27" t="n">
-        <v>127.5742452114771</v>
+        <v>127.7551963759801</v>
       </c>
       <c r="R27" t="n">
-        <v>62.05129931327895</v>
+        <v>62.13931280574403</v>
       </c>
       <c r="S27" t="n">
-        <v>18.56366576658209</v>
+        <v>18.5899964490199</v>
       </c>
       <c r="T27" t="n">
-        <v>4.028337388309078</v>
+        <v>4.034051177485075</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06584414326689464</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8390630715759465</v>
       </c>
       <c r="H28" t="n">
-        <v>7.449467175140939</v>
+        <v>7.460033490920694</v>
       </c>
       <c r="I28" t="n">
-        <v>25.1971752713356</v>
+        <v>25.23291491612029</v>
       </c>
       <c r="J28" t="n">
-        <v>59.23773642236303</v>
+        <v>59.32175916041942</v>
       </c>
       <c r="K28" t="n">
-        <v>97.34579805552261</v>
+        <v>97.48387322491449</v>
       </c>
       <c r="L28" t="n">
-        <v>124.569106525823</v>
+        <v>124.7457952050276</v>
       </c>
       <c r="M28" t="n">
-        <v>131.3406569539418</v>
+        <v>131.5269503925822</v>
       </c>
       <c r="N28" t="n">
-        <v>128.2176696923798</v>
+        <v>128.3995334894356</v>
       </c>
       <c r="O28" t="n">
-        <v>118.4297705921179</v>
+        <v>118.5977512442075</v>
       </c>
       <c r="P28" t="n">
-        <v>101.3371281166411</v>
+        <v>101.4808645840581</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.16057479572919</v>
+        <v>70.26009047532767</v>
       </c>
       <c r="R28" t="n">
-        <v>37.67389023338144</v>
+        <v>37.72732683649664</v>
       </c>
       <c r="S28" t="n">
-        <v>14.60186970832839</v>
+        <v>14.62258098373717</v>
       </c>
       <c r="T28" t="n">
-        <v>3.580009787644415</v>
+        <v>3.585087669460862</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04576707663141532</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.867897761542258</v>
+        <v>1.870547185605581</v>
       </c>
       <c r="H29" t="n">
-        <v>19.12960795039465</v>
+        <v>19.15674136458316</v>
       </c>
       <c r="I29" t="n">
-        <v>72.01212845185798</v>
+        <v>72.11427037305923</v>
       </c>
       <c r="J29" t="n">
-        <v>158.5354876386974</v>
+        <v>158.7603541942918</v>
       </c>
       <c r="K29" t="n">
-        <v>237.6035998847812</v>
+        <v>237.9406165609761</v>
       </c>
       <c r="L29" t="n">
-        <v>294.7682760045801</v>
+        <v>295.186374992453</v>
       </c>
       <c r="M29" t="n">
-        <v>327.9865028214073</v>
+        <v>328.4517185044662</v>
       </c>
       <c r="N29" t="n">
-        <v>333.2936673363892</v>
+        <v>333.7664106955681</v>
       </c>
       <c r="O29" t="n">
-        <v>314.7197589700534</v>
+        <v>315.1661571187025</v>
       </c>
       <c r="P29" t="n">
-        <v>268.6060329819788</v>
+        <v>268.9870234740648</v>
       </c>
       <c r="Q29" t="n">
-        <v>201.7119443967466</v>
+        <v>201.9980523895648</v>
       </c>
       <c r="R29" t="n">
-        <v>117.334332763479</v>
+        <v>117.5007596477967</v>
       </c>
       <c r="S29" t="n">
-        <v>42.56472024114425</v>
+        <v>42.62509399198721</v>
       </c>
       <c r="T29" t="n">
-        <v>8.176722451151239</v>
+        <v>8.188320304988434</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1496437748484464</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9994134108100873</v>
+        <v>1.000830977656798</v>
       </c>
       <c r="H30" t="n">
-        <v>9.65222952019216</v>
+        <v>9.665920231580131</v>
       </c>
       <c r="I30" t="n">
-        <v>34.4096283985052</v>
+        <v>34.45843497634151</v>
       </c>
       <c r="J30" t="n">
-        <v>94.42265036078987</v>
+        <v>94.55657934081181</v>
       </c>
       <c r="K30" t="n">
-        <v>161.3833488850657</v>
+        <v>161.6122548438173</v>
       </c>
       <c r="L30" t="n">
-        <v>209.3081245917437</v>
+        <v>217.3076208285079</v>
       </c>
       <c r="M30" t="n">
-        <v>214.2737791114506</v>
+        <v>237.4471664309006</v>
       </c>
       <c r="N30" t="n">
-        <v>198.7595980855527</v>
+        <v>221.6633957418238</v>
       </c>
       <c r="O30" t="n">
-        <v>215.2193516636777</v>
+        <v>238.1231493199488</v>
       </c>
       <c r="P30" t="n">
-        <v>190.8441275431999</v>
+        <v>191.1148206369372</v>
       </c>
       <c r="Q30" t="n">
-        <v>127.5742452114771</v>
+        <v>127.7551963759801</v>
       </c>
       <c r="R30" t="n">
-        <v>62.05129931327895</v>
+        <v>62.13931280574403</v>
       </c>
       <c r="S30" t="n">
-        <v>18.56366576658209</v>
+        <v>18.5899964490199</v>
       </c>
       <c r="T30" t="n">
-        <v>4.028337388309078</v>
+        <v>4.034051177485075</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06584414326689464</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8390630715759465</v>
       </c>
       <c r="H31" t="n">
-        <v>7.449467175140939</v>
+        <v>7.460033490920694</v>
       </c>
       <c r="I31" t="n">
-        <v>25.1971752713356</v>
+        <v>25.23291491612029</v>
       </c>
       <c r="J31" t="n">
-        <v>59.23773642236303</v>
+        <v>59.32175916041942</v>
       </c>
       <c r="K31" t="n">
-        <v>97.34579805552261</v>
+        <v>97.48387322491449</v>
       </c>
       <c r="L31" t="n">
-        <v>124.569106525823</v>
+        <v>124.7457952050276</v>
       </c>
       <c r="M31" t="n">
-        <v>131.3406569539418</v>
+        <v>131.5269503925822</v>
       </c>
       <c r="N31" t="n">
-        <v>128.2176696923798</v>
+        <v>128.3995334894356</v>
       </c>
       <c r="O31" t="n">
-        <v>118.4297705921179</v>
+        <v>118.5977512442075</v>
       </c>
       <c r="P31" t="n">
-        <v>101.3371281166411</v>
+        <v>101.4808645840581</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.16057479572919</v>
+        <v>70.26009047532767</v>
       </c>
       <c r="R31" t="n">
-        <v>37.67389023338144</v>
+        <v>37.72732683649664</v>
       </c>
       <c r="S31" t="n">
-        <v>14.60186970832839</v>
+        <v>14.62258098373717</v>
       </c>
       <c r="T31" t="n">
-        <v>3.580009787644415</v>
+        <v>3.585087669460862</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04576707663141532</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.867897761542258</v>
+        <v>1.870547185605581</v>
       </c>
       <c r="H32" t="n">
-        <v>19.12960795039465</v>
+        <v>19.15674136458316</v>
       </c>
       <c r="I32" t="n">
-        <v>72.01212845185798</v>
+        <v>72.11427037305923</v>
       </c>
       <c r="J32" t="n">
-        <v>158.5354876386974</v>
+        <v>158.7603541942918</v>
       </c>
       <c r="K32" t="n">
-        <v>237.6035998847812</v>
+        <v>237.9406165609761</v>
       </c>
       <c r="L32" t="n">
-        <v>294.7682760045801</v>
+        <v>295.186374992453</v>
       </c>
       <c r="M32" t="n">
-        <v>327.9865028214073</v>
+        <v>328.4517185044662</v>
       </c>
       <c r="N32" t="n">
-        <v>333.2936673363892</v>
+        <v>333.7664106955681</v>
       </c>
       <c r="O32" t="n">
-        <v>314.7197589700534</v>
+        <v>315.1661571187025</v>
       </c>
       <c r="P32" t="n">
-        <v>268.6060329819788</v>
+        <v>268.9870234740648</v>
       </c>
       <c r="Q32" t="n">
-        <v>201.7119443967466</v>
+        <v>201.9980523895648</v>
       </c>
       <c r="R32" t="n">
-        <v>117.334332763479</v>
+        <v>117.5007596477967</v>
       </c>
       <c r="S32" t="n">
-        <v>42.56472024114425</v>
+        <v>42.62509399198721</v>
       </c>
       <c r="T32" t="n">
-        <v>8.176722451151239</v>
+        <v>8.188320304988434</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1496437748484464</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9994134108100873</v>
+        <v>1.000830977656798</v>
       </c>
       <c r="H33" t="n">
-        <v>9.65222952019216</v>
+        <v>9.665920231580131</v>
       </c>
       <c r="I33" t="n">
-        <v>34.4096283985052</v>
+        <v>34.45843497634151</v>
       </c>
       <c r="J33" t="n">
-        <v>94.42265036078987</v>
+        <v>94.55657934081181</v>
       </c>
       <c r="K33" t="n">
-        <v>161.3833488850657</v>
+        <v>161.6122548438173</v>
       </c>
       <c r="L33" t="n">
-        <v>209.0385349285648</v>
+        <v>217.3076208285079</v>
       </c>
       <c r="M33" t="n">
-        <v>214.5433687746295</v>
+        <v>237.4471664309006</v>
       </c>
       <c r="N33" t="n">
-        <v>198.7595980855527</v>
+        <v>221.6633957418238</v>
       </c>
       <c r="O33" t="n">
-        <v>215.2193516636777</v>
+        <v>238.1231493199488</v>
       </c>
       <c r="P33" t="n">
-        <v>190.8441275431999</v>
+        <v>191.1148206369372</v>
       </c>
       <c r="Q33" t="n">
-        <v>127.5742452114771</v>
+        <v>127.7551963759801</v>
       </c>
       <c r="R33" t="n">
-        <v>62.05129931327895</v>
+        <v>62.13931280574403</v>
       </c>
       <c r="S33" t="n">
-        <v>18.56366576658209</v>
+        <v>18.5899964490199</v>
       </c>
       <c r="T33" t="n">
-        <v>4.028337388309078</v>
+        <v>4.034051177485075</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06584414326689464</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8390630715759465</v>
       </c>
       <c r="H34" t="n">
-        <v>7.449467175140939</v>
+        <v>7.460033490920694</v>
       </c>
       <c r="I34" t="n">
-        <v>25.1971752713356</v>
+        <v>25.23291491612029</v>
       </c>
       <c r="J34" t="n">
-        <v>59.23773642236303</v>
+        <v>59.32175916041942</v>
       </c>
       <c r="K34" t="n">
-        <v>97.34579805552261</v>
+        <v>97.48387322491449</v>
       </c>
       <c r="L34" t="n">
-        <v>124.569106525823</v>
+        <v>124.7457952050276</v>
       </c>
       <c r="M34" t="n">
-        <v>131.3406569539418</v>
+        <v>131.5269503925822</v>
       </c>
       <c r="N34" t="n">
-        <v>128.2176696923798</v>
+        <v>128.3995334894356</v>
       </c>
       <c r="O34" t="n">
-        <v>118.4297705921179</v>
+        <v>118.5977512442075</v>
       </c>
       <c r="P34" t="n">
-        <v>101.3371281166411</v>
+        <v>101.4808645840581</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.16057479572919</v>
+        <v>70.26009047532767</v>
       </c>
       <c r="R34" t="n">
-        <v>37.67389023338144</v>
+        <v>37.72732683649664</v>
       </c>
       <c r="S34" t="n">
-        <v>14.60186970832839</v>
+        <v>14.62258098373717</v>
       </c>
       <c r="T34" t="n">
-        <v>3.580009787644415</v>
+        <v>3.585087669460862</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04576707663141532</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.867897761542258</v>
+        <v>1.870547185605581</v>
       </c>
       <c r="H35" t="n">
-        <v>19.12960795039465</v>
+        <v>19.15674136458316</v>
       </c>
       <c r="I35" t="n">
-        <v>72.01212845185798</v>
+        <v>72.11427037305923</v>
       </c>
       <c r="J35" t="n">
-        <v>158.5354876386974</v>
+        <v>158.7603541942918</v>
       </c>
       <c r="K35" t="n">
-        <v>237.6035998847812</v>
+        <v>237.9406165609761</v>
       </c>
       <c r="L35" t="n">
-        <v>294.7682760045801</v>
+        <v>295.186374992453</v>
       </c>
       <c r="M35" t="n">
-        <v>327.9865028214073</v>
+        <v>328.4517185044662</v>
       </c>
       <c r="N35" t="n">
-        <v>333.2936673363892</v>
+        <v>333.7664106955681</v>
       </c>
       <c r="O35" t="n">
-        <v>314.7197589700534</v>
+        <v>315.1661571187025</v>
       </c>
       <c r="P35" t="n">
-        <v>268.6060329819788</v>
+        <v>268.9870234740648</v>
       </c>
       <c r="Q35" t="n">
-        <v>201.7119443967466</v>
+        <v>201.9980523895648</v>
       </c>
       <c r="R35" t="n">
-        <v>117.334332763479</v>
+        <v>117.5007596477967</v>
       </c>
       <c r="S35" t="n">
-        <v>42.56472024114425</v>
+        <v>42.62509399198721</v>
       </c>
       <c r="T35" t="n">
-        <v>8.176722451151239</v>
+        <v>8.188320304988434</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1496437748484464</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9994134108100873</v>
+        <v>1.000830977656798</v>
       </c>
       <c r="H36" t="n">
-        <v>9.65222952019216</v>
+        <v>9.665920231580131</v>
       </c>
       <c r="I36" t="n">
-        <v>34.4096283985052</v>
+        <v>34.45843497634151</v>
       </c>
       <c r="J36" t="n">
-        <v>94.42265036078987</v>
+        <v>94.55657934081181</v>
       </c>
       <c r="K36" t="n">
-        <v>161.3833488850657</v>
+        <v>161.6122548438173</v>
       </c>
       <c r="L36" t="n">
-        <v>209.3081245917437</v>
+        <v>217.3076208285079</v>
       </c>
       <c r="M36" t="n">
-        <v>214.5433687746295</v>
+        <v>237.4471664309006</v>
       </c>
       <c r="N36" t="n">
-        <v>198.7595980855527</v>
+        <v>221.6633957418238</v>
       </c>
       <c r="O36" t="n">
-        <v>214.9497620004988</v>
+        <v>238.1231493199488</v>
       </c>
       <c r="P36" t="n">
-        <v>190.8441275431999</v>
+        <v>191.1148206369372</v>
       </c>
       <c r="Q36" t="n">
-        <v>127.5742452114771</v>
+        <v>127.7551963759801</v>
       </c>
       <c r="R36" t="n">
-        <v>62.05129931327895</v>
+        <v>62.13931280574403</v>
       </c>
       <c r="S36" t="n">
-        <v>18.56366576658209</v>
+        <v>18.5899964490199</v>
       </c>
       <c r="T36" t="n">
-        <v>4.028337388309078</v>
+        <v>4.034051177485075</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06584414326689464</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8390630715759465</v>
       </c>
       <c r="H37" t="n">
-        <v>7.449467175140939</v>
+        <v>7.460033490920694</v>
       </c>
       <c r="I37" t="n">
-        <v>25.1971752713356</v>
+        <v>25.23291491612029</v>
       </c>
       <c r="J37" t="n">
-        <v>59.23773642236303</v>
+        <v>59.32175916041942</v>
       </c>
       <c r="K37" t="n">
-        <v>97.34579805552261</v>
+        <v>97.48387322491449</v>
       </c>
       <c r="L37" t="n">
-        <v>124.569106525823</v>
+        <v>124.7457952050276</v>
       </c>
       <c r="M37" t="n">
-        <v>131.3406569539418</v>
+        <v>131.5269503925822</v>
       </c>
       <c r="N37" t="n">
-        <v>128.2176696923798</v>
+        <v>128.3995334894356</v>
       </c>
       <c r="O37" t="n">
-        <v>118.4297705921179</v>
+        <v>118.5977512442075</v>
       </c>
       <c r="P37" t="n">
-        <v>101.3371281166411</v>
+        <v>101.4808645840581</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.16057479572919</v>
+        <v>70.26009047532767</v>
       </c>
       <c r="R37" t="n">
-        <v>37.67389023338144</v>
+        <v>37.72732683649664</v>
       </c>
       <c r="S37" t="n">
-        <v>14.60186970832839</v>
+        <v>14.62258098373717</v>
       </c>
       <c r="T37" t="n">
-        <v>3.580009787644415</v>
+        <v>3.585087669460862</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04576707663141532</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.867897761542258</v>
+        <v>1.870547185605581</v>
       </c>
       <c r="H38" t="n">
-        <v>19.12960795039465</v>
+        <v>19.15674136458316</v>
       </c>
       <c r="I38" t="n">
-        <v>72.01212845185798</v>
+        <v>72.11427037305923</v>
       </c>
       <c r="J38" t="n">
-        <v>158.5354876386974</v>
+        <v>158.7603541942918</v>
       </c>
       <c r="K38" t="n">
-        <v>237.6035998847812</v>
+        <v>237.9406165609761</v>
       </c>
       <c r="L38" t="n">
-        <v>294.7682760045801</v>
+        <v>295.186374992453</v>
       </c>
       <c r="M38" t="n">
-        <v>327.9865028214073</v>
+        <v>328.4517185044662</v>
       </c>
       <c r="N38" t="n">
-        <v>333.2936673363892</v>
+        <v>333.7664106955681</v>
       </c>
       <c r="O38" t="n">
-        <v>314.7197589700534</v>
+        <v>315.1661571187025</v>
       </c>
       <c r="P38" t="n">
-        <v>268.6060329819788</v>
+        <v>268.9870234740648</v>
       </c>
       <c r="Q38" t="n">
-        <v>201.7119443967466</v>
+        <v>201.9980523895648</v>
       </c>
       <c r="R38" t="n">
-        <v>117.334332763479</v>
+        <v>117.5007596477967</v>
       </c>
       <c r="S38" t="n">
-        <v>42.56472024114425</v>
+        <v>42.62509399198721</v>
       </c>
       <c r="T38" t="n">
-        <v>8.176722451151239</v>
+        <v>8.188320304988434</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1496437748484464</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9994134108100873</v>
+        <v>1.000830977656798</v>
       </c>
       <c r="H39" t="n">
-        <v>9.65222952019216</v>
+        <v>9.665920231580131</v>
       </c>
       <c r="I39" t="n">
-        <v>34.4096283985052</v>
+        <v>34.45843497634151</v>
       </c>
       <c r="J39" t="n">
-        <v>94.42265036078987</v>
+        <v>94.55657934081181</v>
       </c>
       <c r="K39" t="n">
-        <v>161.3833488850657</v>
+        <v>161.6122548438173</v>
       </c>
       <c r="L39" t="n">
-        <v>209.0385349285648</v>
+        <v>217.3076208285079</v>
       </c>
       <c r="M39" t="n">
-        <v>214.5433687746295</v>
+        <v>237.4471664309006</v>
       </c>
       <c r="N39" t="n">
-        <v>198.7595980855527</v>
+        <v>221.6633957418238</v>
       </c>
       <c r="O39" t="n">
-        <v>215.2193516636777</v>
+        <v>238.1231493199488</v>
       </c>
       <c r="P39" t="n">
-        <v>190.8441275431999</v>
+        <v>191.1148206369372</v>
       </c>
       <c r="Q39" t="n">
-        <v>127.5742452114771</v>
+        <v>127.7551963759801</v>
       </c>
       <c r="R39" t="n">
-        <v>62.05129931327895</v>
+        <v>62.13931280574403</v>
       </c>
       <c r="S39" t="n">
-        <v>18.56366576658209</v>
+        <v>18.5899964490199</v>
       </c>
       <c r="T39" t="n">
-        <v>4.028337388309078</v>
+        <v>4.034051177485075</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06584414326689464</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8390630715759465</v>
       </c>
       <c r="H40" t="n">
-        <v>7.449467175140939</v>
+        <v>7.460033490920694</v>
       </c>
       <c r="I40" t="n">
-        <v>25.1971752713356</v>
+        <v>25.23291491612029</v>
       </c>
       <c r="J40" t="n">
-        <v>59.23773642236303</v>
+        <v>59.32175916041942</v>
       </c>
       <c r="K40" t="n">
-        <v>97.34579805552261</v>
+        <v>97.48387322491449</v>
       </c>
       <c r="L40" t="n">
-        <v>124.569106525823</v>
+        <v>124.7457952050276</v>
       </c>
       <c r="M40" t="n">
-        <v>131.3406569539418</v>
+        <v>131.5269503925822</v>
       </c>
       <c r="N40" t="n">
-        <v>128.2176696923798</v>
+        <v>128.3995334894356</v>
       </c>
       <c r="O40" t="n">
-        <v>118.4297705921179</v>
+        <v>118.5977512442075</v>
       </c>
       <c r="P40" t="n">
-        <v>101.3371281166411</v>
+        <v>101.4808645840581</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.16057479572919</v>
+        <v>70.26009047532767</v>
       </c>
       <c r="R40" t="n">
-        <v>37.67389023338144</v>
+        <v>37.72732683649664</v>
       </c>
       <c r="S40" t="n">
-        <v>14.60186970832839</v>
+        <v>14.62258098373717</v>
       </c>
       <c r="T40" t="n">
-        <v>3.580009787644415</v>
+        <v>3.585087669460862</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04576707663141532</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.867897761542258</v>
+        <v>1.870547185605581</v>
       </c>
       <c r="H41" t="n">
-        <v>19.12960795039465</v>
+        <v>19.15674136458316</v>
       </c>
       <c r="I41" t="n">
-        <v>72.01212845185798</v>
+        <v>72.11427037305923</v>
       </c>
       <c r="J41" t="n">
-        <v>158.5354876386974</v>
+        <v>158.7603541942918</v>
       </c>
       <c r="K41" t="n">
-        <v>237.6035998847812</v>
+        <v>237.9406165609761</v>
       </c>
       <c r="L41" t="n">
-        <v>294.7682760045801</v>
+        <v>295.186374992453</v>
       </c>
       <c r="M41" t="n">
-        <v>327.9865028214073</v>
+        <v>328.4517185044662</v>
       </c>
       <c r="N41" t="n">
-        <v>333.2936673363892</v>
+        <v>333.7664106955681</v>
       </c>
       <c r="O41" t="n">
-        <v>314.7197589700534</v>
+        <v>315.1661571187025</v>
       </c>
       <c r="P41" t="n">
-        <v>268.6060329819788</v>
+        <v>268.9870234740648</v>
       </c>
       <c r="Q41" t="n">
-        <v>201.7119443967466</v>
+        <v>201.9980523895648</v>
       </c>
       <c r="R41" t="n">
-        <v>117.334332763479</v>
+        <v>117.5007596477967</v>
       </c>
       <c r="S41" t="n">
-        <v>42.56472024114425</v>
+        <v>42.62509399198721</v>
       </c>
       <c r="T41" t="n">
-        <v>8.176722451151239</v>
+        <v>8.188320304988434</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1496437748484464</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9994134108100873</v>
+        <v>1.000830977656798</v>
       </c>
       <c r="H42" t="n">
-        <v>9.65222952019216</v>
+        <v>9.665920231580131</v>
       </c>
       <c r="I42" t="n">
-        <v>34.4096283985052</v>
+        <v>34.45843497634151</v>
       </c>
       <c r="J42" t="n">
-        <v>94.42265036078987</v>
+        <v>94.55657934081181</v>
       </c>
       <c r="K42" t="n">
-        <v>161.3833488850657</v>
+        <v>161.6122548438173</v>
       </c>
       <c r="L42" t="n">
-        <v>209.3081245917437</v>
+        <v>217.3076208285079</v>
       </c>
       <c r="M42" t="n">
-        <v>214.5433687746295</v>
+        <v>223.1606267124649</v>
       </c>
       <c r="N42" t="n">
-        <v>198.4900084223738</v>
+        <v>207.3768560233881</v>
       </c>
       <c r="O42" t="n">
-        <v>215.2193516636777</v>
+        <v>223.8366096015131</v>
       </c>
       <c r="P42" t="n">
-        <v>190.8441275431999</v>
+        <v>191.1148206369372</v>
       </c>
       <c r="Q42" t="n">
-        <v>127.5742452114771</v>
+        <v>127.7551963759801</v>
       </c>
       <c r="R42" t="n">
-        <v>62.05129931327895</v>
+        <v>62.13931280574403</v>
       </c>
       <c r="S42" t="n">
-        <v>18.56366576658209</v>
+        <v>18.5899964490199</v>
       </c>
       <c r="T42" t="n">
-        <v>4.028337388309078</v>
+        <v>4.034051177485075</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06584414326689464</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8390630715759465</v>
       </c>
       <c r="H43" t="n">
-        <v>7.449467175140939</v>
+        <v>7.460033490920694</v>
       </c>
       <c r="I43" t="n">
-        <v>25.1971752713356</v>
+        <v>25.23291491612029</v>
       </c>
       <c r="J43" t="n">
-        <v>59.23773642236303</v>
+        <v>59.32175916041942</v>
       </c>
       <c r="K43" t="n">
-        <v>97.34579805552261</v>
+        <v>97.48387322491449</v>
       </c>
       <c r="L43" t="n">
-        <v>124.569106525823</v>
+        <v>124.7457952050276</v>
       </c>
       <c r="M43" t="n">
-        <v>131.3406569539418</v>
+        <v>131.5269503925822</v>
       </c>
       <c r="N43" t="n">
-        <v>128.2176696923798</v>
+        <v>128.3995334894356</v>
       </c>
       <c r="O43" t="n">
-        <v>118.4297705921179</v>
+        <v>118.5977512442075</v>
       </c>
       <c r="P43" t="n">
-        <v>101.3371281166411</v>
+        <v>101.4808645840581</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.16057479572919</v>
+        <v>70.26009047532767</v>
       </c>
       <c r="R43" t="n">
-        <v>37.67389023338144</v>
+        <v>37.72732683649664</v>
       </c>
       <c r="S43" t="n">
-        <v>14.60186970832839</v>
+        <v>14.62258098373717</v>
       </c>
       <c r="T43" t="n">
-        <v>3.580009787644415</v>
+        <v>3.585087669460862</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04576707663141532</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.91775012777208</v>
+        <v>1.870547185605581</v>
       </c>
       <c r="H44" t="n">
-        <v>19.64015849604582</v>
+        <v>19.15674136458316</v>
       </c>
       <c r="I44" t="n">
-        <v>73.93406180093319</v>
+        <v>72.11427037305923</v>
       </c>
       <c r="J44" t="n">
-        <v>162.7666449069957</v>
+        <v>158.7603541942918</v>
       </c>
       <c r="K44" t="n">
-        <v>243.9450078155879</v>
+        <v>237.9406165609761</v>
       </c>
       <c r="L44" t="n">
-        <v>302.6353532883928</v>
+        <v>295.186374992453</v>
       </c>
       <c r="M44" t="n">
-        <v>336.7401421231595</v>
+        <v>328.4517185044662</v>
       </c>
       <c r="N44" t="n">
-        <v>342.1889496736919</v>
+        <v>333.7664106955681</v>
       </c>
       <c r="O44" t="n">
-        <v>323.1193218406583</v>
+        <v>315.1661571187025</v>
       </c>
       <c r="P44" t="n">
-        <v>275.774865561285</v>
+        <v>268.9870234740648</v>
       </c>
       <c r="Q44" t="n">
-        <v>207.0954391104474</v>
+        <v>201.9980523895648</v>
       </c>
       <c r="R44" t="n">
-        <v>120.465871463663</v>
+        <v>117.5007596477967</v>
       </c>
       <c r="S44" t="n">
-        <v>43.70073103660632</v>
+        <v>42.62509399198721</v>
       </c>
       <c r="T44" t="n">
-        <v>8.394951184322284</v>
+        <v>8.188320304988434</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.1496437748484464</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.026086778269751</v>
+        <v>1.000830977656798</v>
       </c>
       <c r="H45" t="n">
-        <v>9.909838095394703</v>
+        <v>9.665920231580131</v>
       </c>
       <c r="I45" t="n">
-        <v>35.32798776060327</v>
+        <v>34.45843497634151</v>
       </c>
       <c r="J45" t="n">
-        <v>96.94269864345925</v>
+        <v>94.55657934081181</v>
       </c>
       <c r="K45" t="n">
-        <v>165.6905127875326</v>
+        <v>161.6122548438173</v>
       </c>
       <c r="L45" t="n">
-        <v>209.3081245917437</v>
+        <v>217.3076208285079</v>
       </c>
       <c r="M45" t="n">
-        <v>214.5433687746295</v>
+        <v>223.160626712465</v>
       </c>
       <c r="N45" t="n">
-        <v>198.7595980855527</v>
+        <v>207.3768560233881</v>
       </c>
       <c r="O45" t="n">
-        <v>214.9497620004988</v>
+        <v>223.8366096015131</v>
       </c>
       <c r="P45" t="n">
-        <v>195.937570843458</v>
+        <v>191.1148206369372</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.9790771700124</v>
+        <v>127.7551963759801</v>
       </c>
       <c r="R45" t="n">
-        <v>63.70738786485351</v>
+        <v>62.13931280574403</v>
       </c>
       <c r="S45" t="n">
-        <v>19.05911186829997</v>
+        <v>18.5899964490199</v>
       </c>
       <c r="T45" t="n">
-        <v>4.135849777324126</v>
+        <v>4.034051177485075</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06584414326689464</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.8390630715759465</v>
       </c>
       <c r="H46" t="n">
-        <v>7.648286175558571</v>
+        <v>7.460033490920694</v>
       </c>
       <c r="I46" t="n">
-        <v>25.86966326047827</v>
+        <v>25.23291491612029</v>
       </c>
       <c r="J46" t="n">
-        <v>60.81873372936499</v>
+        <v>59.32175916041942</v>
       </c>
       <c r="K46" t="n">
-        <v>99.94386229410884</v>
+        <v>97.48387322491449</v>
       </c>
       <c r="L46" t="n">
-        <v>127.8937342690029</v>
+        <v>124.7457952050276</v>
       </c>
       <c r="M46" t="n">
-        <v>134.8460107619185</v>
+        <v>131.5269503925822</v>
       </c>
       <c r="N46" t="n">
-        <v>131.6396740216538</v>
+        <v>128.3995334894356</v>
       </c>
       <c r="O46" t="n">
-        <v>121.590545457653</v>
+        <v>118.5977512442075</v>
       </c>
       <c r="P46" t="n">
-        <v>104.0417170548375</v>
+        <v>101.4808645840581</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.0330919867791</v>
+        <v>70.26009047532767</v>
       </c>
       <c r="R46" t="n">
-        <v>38.67936955451192</v>
+        <v>37.72732683649664</v>
       </c>
       <c r="S46" t="n">
-        <v>14.99157934411632</v>
+        <v>14.62258098373717</v>
       </c>
       <c r="T46" t="n">
-        <v>3.675556751035302</v>
+        <v>3.585087669460862</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04576707663141532</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35889,19 +35889,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.2686072756678872</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>14.36404809015059</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>14.96885011499899</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36126,19 +36126,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>0.2686072756679446</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>14.09544081448263</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>14.36404809015056</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.3370166761948781</v>
       </c>
       <c r="L23" t="n">
-        <v>6.40275450049878</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="M23" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="N23" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>13.56769820809656</v>
       </c>
       <c r="P23" t="n">
-        <v>6.672344163677678</v>
+        <v>14.47643130656854</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>6.40275450049878</v>
+        <v>28.38114619085997</v>
       </c>
       <c r="M24" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="N24" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="O24" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994882</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36600,19 +36600,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="M26" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="N26" t="n">
-        <v>6.672344163677678</v>
+        <v>13.90471488429144</v>
       </c>
       <c r="O26" t="n">
-        <v>6.402754500498782</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>14.47643130656854</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>6.672344163677678</v>
+        <v>28.38114619085997</v>
       </c>
       <c r="M27" t="n">
-        <v>6.40275450049878</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="N27" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="O27" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36837,19 +36837,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="M29" t="n">
-        <v>6.40275450049878</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="N29" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="O29" t="n">
-        <v>6.672344163677678</v>
+        <v>13.90471488429145</v>
       </c>
       <c r="P29" t="n">
-        <v>6.672344163677678</v>
+        <v>14.47643130656854</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>6.672344163677678</v>
+        <v>28.38114619085997</v>
       </c>
       <c r="M30" t="n">
-        <v>6.40275450049878</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="N30" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="O30" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.3370166761948781</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="M32" t="n">
-        <v>6.40275450049878</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="N32" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="O32" t="n">
-        <v>6.672344163677678</v>
+        <v>13.56769820809656</v>
       </c>
       <c r="P32" t="n">
-        <v>6.672344163677678</v>
+        <v>14.47643130656854</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>13.70930579041809</v>
       </c>
       <c r="L33" t="n">
-        <v>6.40275450049878</v>
+        <v>14.67184040044188</v>
       </c>
       <c r="M33" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="N33" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="O33" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37311,19 +37311,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>6.40275450049878</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="N35" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="O35" t="n">
-        <v>6.672344163677678</v>
+        <v>13.90471488429145</v>
       </c>
       <c r="P35" t="n">
-        <v>6.672344163677678</v>
+        <v>14.47643130656854</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>6.672344163677678</v>
+        <v>14.67184040044188</v>
       </c>
       <c r="M36" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="N36" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="O36" t="n">
-        <v>6.402754500498782</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>13.70930579041809</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37548,19 +37548,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="M38" t="n">
-        <v>6.40275450049878</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="N38" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>13.90471488429145</v>
       </c>
       <c r="P38" t="n">
-        <v>6.672344163677678</v>
+        <v>14.47643130656854</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>6.40275450049878</v>
+        <v>14.67184040044188</v>
       </c>
       <c r="M39" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="N39" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994881</v>
       </c>
       <c r="O39" t="n">
-        <v>6.672344163677678</v>
+        <v>29.57614181994882</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>13.70930579041809</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>0.3370166761948781</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>15.28960210151313</v>
       </c>
       <c r="M41" t="n">
-        <v>6.40275450049878</v>
+        <v>15.14799451919159</v>
       </c>
       <c r="N41" t="n">
-        <v>6.672344163677678</v>
+        <v>15.28960210151313</v>
       </c>
       <c r="O41" t="n">
-        <v>6.672344163677678</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>6.672344163677678</v>
+        <v>14.47643130656854</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>6.672344163677678</v>
+        <v>14.67184040044188</v>
       </c>
       <c r="M42" t="n">
-        <v>6.672344163677678</v>
+        <v>15.28960210151313</v>
       </c>
       <c r="N42" t="n">
-        <v>6.40275450049878</v>
+        <v>15.28960210151313</v>
       </c>
       <c r="O42" t="n">
-        <v>6.672344163677678</v>
+        <v>15.28960210151313</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>6.341407930806724</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>6.672344163677678</v>
+        <v>0.195409093873345</v>
       </c>
       <c r="M44" t="n">
-        <v>0.06134656969205565</v>
+        <v>15.28960210151313</v>
       </c>
       <c r="N44" t="n">
-        <v>6.672344163677678</v>
+        <v>15.28960210151313</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>15.28960210151313</v>
       </c>
       <c r="P44" t="n">
-        <v>6.672344163677678</v>
+        <v>14.47643130656854</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>6.672344163677678</v>
+        <v>14.67184040044188</v>
       </c>
       <c r="M45" t="n">
-        <v>6.672344163677678</v>
+        <v>15.28960210151313</v>
       </c>
       <c r="N45" t="n">
-        <v>6.672344163677678</v>
+        <v>15.28960210151313</v>
       </c>
       <c r="O45" t="n">
-        <v>6.402754500498782</v>
+        <v>15.28960210151313</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
